--- a/BackTest/2019-11-18 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-18 BackTest STRAT.xlsx
@@ -451,17 +451,13 @@
         <v>372.5</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>370</v>
-      </c>
-      <c r="K2" t="n">
-        <v>370</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>370.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>372</v>
-      </c>
-      <c r="K3" t="n">
-        <v>370</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>372.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>374</v>
-      </c>
-      <c r="K4" t="n">
-        <v>370</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>374</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>373</v>
-      </c>
-      <c r="K5" t="n">
-        <v>370</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>374</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>374</v>
-      </c>
-      <c r="K6" t="n">
-        <v>370</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>375.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>374</v>
-      </c>
-      <c r="K7" t="n">
-        <v>370</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>377</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>377</v>
-      </c>
-      <c r="K8" t="n">
-        <v>370</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>377</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>377</v>
-      </c>
-      <c r="K9" t="n">
-        <v>370</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -797,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>370</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -838,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>370</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -879,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>370</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>370</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -961,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>370</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1002,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>370</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1043,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>370</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1084,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>370</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1125,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>370</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1166,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>370</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1207,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>370</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1248,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>370</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1289,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>370</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1330,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>370</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1371,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>370</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1412,16 +1262,10 @@
         <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>370</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>1.043648648648649</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1450,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1485,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1590,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1625,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1660,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1695,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -3652,13 +3496,17 @@
         <v>377.5</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>378</v>
+      </c>
+      <c r="K89" t="n">
+        <v>378</v>
+      </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
@@ -3687,14 +3535,22 @@
         <v>379.5</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>377</v>
+      </c>
+      <c r="K90" t="n">
+        <v>378</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3722,14 +3578,22 @@
         <v>382</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>382</v>
+      </c>
+      <c r="K91" t="n">
+        <v>378</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3967,13 +3831,17 @@
         <v>378</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>379</v>
+      </c>
+      <c r="K98" t="n">
+        <v>379</v>
+      </c>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
@@ -4008,8 +3876,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>379</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4043,8 +3917,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>379</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4282,14 +4162,20 @@
         <v>373.5</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>374</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4324,7 +4210,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4359,7 +4249,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4394,7 +4288,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4429,7 +4327,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4464,7 +4366,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4499,7 +4405,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4527,14 +4437,20 @@
         <v>372</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>373</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4562,14 +4478,20 @@
         <v>372</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>371</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4597,14 +4519,20 @@
         <v>372.5</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>373</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4632,14 +4560,20 @@
         <v>372.5</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>372</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4674,7 +4608,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4709,7 +4647,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4744,7 +4686,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4779,7 +4725,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4814,7 +4764,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4849,7 +4803,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4884,7 +4842,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4919,7 +4881,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4954,7 +4920,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4989,7 +4959,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5024,7 +4998,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5059,7 +5037,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5094,7 +5076,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5129,7 +5115,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5164,7 +5154,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5199,7 +5193,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5234,7 +5232,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5269,7 +5271,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5304,7 +5310,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5349,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5374,7 +5388,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5409,7 +5427,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5444,7 +5466,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5479,7 +5505,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5514,7 +5544,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5545,14 +5579,16 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5685,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>

--- a/BackTest/2019-11-18 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-18 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,25 +433,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C2" t="n">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="D2" t="n">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E2" t="n">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="F2" t="n">
-        <v>1883.3258</v>
+        <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>372.5</v>
+        <v>369.2</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C3" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D3" t="n">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E3" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F3" t="n">
-        <v>243.9935</v>
+        <v>1883.3258</v>
       </c>
       <c r="G3" t="n">
-        <v>370.5</v>
+        <v>369.2833333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C4" t="n">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D4" t="n">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E4" t="n">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F4" t="n">
-        <v>1.4</v>
+        <v>243.9935</v>
       </c>
       <c r="G4" t="n">
-        <v>372.5</v>
+        <v>369.3833333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C5" t="n">
         <v>374</v>
@@ -547,13 +547,13 @@
         <v>374</v>
       </c>
       <c r="E5" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F5" t="n">
-        <v>1402.0526</v>
+        <v>1.4</v>
       </c>
       <c r="G5" t="n">
-        <v>374</v>
+        <v>369.5333333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C6" t="n">
         <v>374</v>
@@ -582,13 +582,13 @@
         <v>374</v>
       </c>
       <c r="E6" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F6" t="n">
-        <v>504.6205</v>
+        <v>1402.0526</v>
       </c>
       <c r="G6" t="n">
-        <v>374</v>
+        <v>369.6833333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>374</v>
       </c>
       <c r="C7" t="n">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D7" t="n">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E7" t="n">
         <v>374</v>
       </c>
       <c r="F7" t="n">
-        <v>1836.6837</v>
+        <v>504.6205</v>
       </c>
       <c r="G7" t="n">
-        <v>375.5</v>
+        <v>369.8333333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C8" t="n">
         <v>377</v>
@@ -652,13 +652,13 @@
         <v>377</v>
       </c>
       <c r="E8" t="n">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F8" t="n">
-        <v>860</v>
+        <v>1836.6837</v>
       </c>
       <c r="G8" t="n">
-        <v>377</v>
+        <v>370.0333333333334</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>377</v>
       </c>
       <c r="F9" t="n">
-        <v>1010</v>
+        <v>860</v>
       </c>
       <c r="G9" t="n">
-        <v>377</v>
+        <v>370.2333333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>377</v>
       </c>
       <c r="C10" t="n">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D10" t="n">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E10" t="n">
         <v>377</v>
       </c>
       <c r="F10" t="n">
-        <v>11765.3933</v>
+        <v>1010</v>
       </c>
       <c r="G10" t="n">
-        <v>378.5</v>
+        <v>370.4333333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C11" t="n">
         <v>380</v>
@@ -757,13 +757,13 @@
         <v>380</v>
       </c>
       <c r="E11" t="n">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F11" t="n">
-        <v>90</v>
+        <v>11765.3933</v>
       </c>
       <c r="G11" t="n">
-        <v>380</v>
+        <v>370.6833333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C12" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D12" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E12" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F12" t="n">
-        <v>204</v>
+        <v>90</v>
       </c>
       <c r="G12" t="n">
-        <v>380.5</v>
+        <v>370.9166666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>381</v>
       </c>
       <c r="C13" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D13" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E13" t="n">
         <v>381</v>
       </c>
       <c r="F13" t="n">
-        <v>4840.6341</v>
+        <v>204</v>
       </c>
       <c r="G13" t="n">
-        <v>382</v>
+        <v>371.1666666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>381</v>
+      </c>
+      <c r="C14" t="n">
         <v>383</v>
       </c>
-      <c r="C14" t="n">
-        <v>381</v>
-      </c>
       <c r="D14" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E14" t="n">
         <v>381</v>
       </c>
       <c r="F14" t="n">
-        <v>5348.2509</v>
+        <v>4840.6341</v>
       </c>
       <c r="G14" t="n">
-        <v>382</v>
+        <v>371.45</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,7 +888,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C15" t="n">
         <v>381</v>
@@ -900,10 +900,10 @@
         <v>381</v>
       </c>
       <c r="F15" t="n">
-        <v>7957.47321324</v>
+        <v>5348.2509</v>
       </c>
       <c r="G15" t="n">
-        <v>381</v>
+        <v>371.6666666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,10 +923,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>384</v>
+      </c>
+      <c r="C16" t="n">
         <v>381</v>
-      </c>
-      <c r="C16" t="n">
-        <v>385</v>
       </c>
       <c r="D16" t="n">
         <v>385</v>
@@ -935,10 +935,10 @@
         <v>381</v>
       </c>
       <c r="F16" t="n">
-        <v>7055.41288676</v>
+        <v>7957.47321324</v>
       </c>
       <c r="G16" t="n">
-        <v>383</v>
+        <v>371.8833333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C17" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D17" t="n">
         <v>385</v>
@@ -970,10 +970,10 @@
         <v>381</v>
       </c>
       <c r="F17" t="n">
-        <v>4897</v>
+        <v>7055.41288676</v>
       </c>
       <c r="G17" t="n">
-        <v>383.5</v>
+        <v>372.15</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C18" t="n">
         <v>382</v>
       </c>
       <c r="D18" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E18" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F18" t="n">
-        <v>3126.0734</v>
+        <v>4897</v>
       </c>
       <c r="G18" t="n">
-        <v>382</v>
+        <v>372.3666666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>382</v>
       </c>
       <c r="D19" t="n">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E19" t="n">
         <v>382</v>
       </c>
       <c r="F19" t="n">
-        <v>4435.23499357</v>
+        <v>3126.0734</v>
       </c>
       <c r="G19" t="n">
-        <v>382</v>
+        <v>372.6333333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C20" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D20" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E20" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F20" t="n">
-        <v>50</v>
+        <v>4435.23499357</v>
       </c>
       <c r="G20" t="n">
-        <v>383.5</v>
+        <v>372.8666666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C21" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D21" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E21" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F21" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="G21" t="n">
-        <v>384</v>
+        <v>373.1333333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>383</v>
       </c>
       <c r="C22" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D22" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E22" t="n">
         <v>383</v>
       </c>
       <c r="F22" t="n">
-        <v>245.1417</v>
+        <v>28</v>
       </c>
       <c r="G22" t="n">
-        <v>384.5</v>
+        <v>373.3833333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>383</v>
+      </c>
+      <c r="C23" t="n">
         <v>386</v>
       </c>
-      <c r="C23" t="n">
-        <v>387</v>
-      </c>
       <c r="D23" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E23" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F23" t="n">
-        <v>2913.9994</v>
+        <v>245.1417</v>
       </c>
       <c r="G23" t="n">
-        <v>386.5</v>
+        <v>373.6833333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C24" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D24" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E24" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F24" t="n">
-        <v>212.4112</v>
+        <v>2913.9994</v>
       </c>
       <c r="G24" t="n">
-        <v>385.5</v>
+        <v>374</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,28 +1238,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C25" t="n">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D25" t="n">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E25" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F25" t="n">
-        <v>466</v>
+        <v>212.4112</v>
       </c>
       <c r="G25" t="n">
-        <v>386</v>
+        <v>374.2666666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>387</v>
+      </c>
+      <c r="C26" t="n">
         <v>388</v>
       </c>
-      <c r="C26" t="n">
-        <v>389</v>
-      </c>
       <c r="D26" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E26" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F26" t="n">
-        <v>2166.4963</v>
+        <v>466</v>
       </c>
       <c r="G26" t="n">
-        <v>388.5</v>
+        <v>374.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C27" t="n">
         <v>389</v>
@@ -1317,13 +1317,13 @@
         <v>389</v>
       </c>
       <c r="E27" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F27" t="n">
-        <v>2265.36090643</v>
+        <v>2166.4963</v>
       </c>
       <c r="G27" t="n">
-        <v>389</v>
+        <v>374.95</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1349,22 +1349,22 @@
         <v>389</v>
       </c>
       <c r="D28" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E28" t="n">
         <v>389</v>
       </c>
       <c r="F28" t="n">
-        <v>2331.28099357</v>
+        <v>2265.36090643</v>
       </c>
       <c r="G28" t="n">
-        <v>389</v>
+        <v>375.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1378,28 +1378,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C29" t="n">
         <v>389</v>
       </c>
       <c r="D29" t="n">
+        <v>390</v>
+      </c>
+      <c r="E29" t="n">
         <v>389</v>
       </c>
-      <c r="E29" t="n">
-        <v>384</v>
-      </c>
       <c r="F29" t="n">
-        <v>2596.4657</v>
+        <v>2331.28099357</v>
       </c>
       <c r="G29" t="n">
-        <v>389</v>
+        <v>375.65</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C30" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D30" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E30" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F30" t="n">
-        <v>391.6872</v>
+        <v>2596.4657</v>
       </c>
       <c r="G30" t="n">
-        <v>387.5</v>
+        <v>376</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C31" t="n">
         <v>386</v>
@@ -1457,13 +1457,13 @@
         <v>386</v>
       </c>
       <c r="E31" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F31" t="n">
-        <v>81</v>
+        <v>391.6872</v>
       </c>
       <c r="G31" t="n">
-        <v>386</v>
+        <v>376.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C32" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D32" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E32" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F32" t="n">
-        <v>1142.7117</v>
+        <v>81</v>
       </c>
       <c r="G32" t="n">
-        <v>385</v>
+        <v>376.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>385</v>
       </c>
       <c r="C33" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D33" t="n">
         <v>385</v>
       </c>
       <c r="E33" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F33" t="n">
-        <v>208</v>
+        <v>1142.7117</v>
       </c>
       <c r="G33" t="n">
-        <v>384.5</v>
+        <v>376.85</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C34" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D34" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E34" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F34" t="n">
-        <v>2425.3249</v>
+        <v>208</v>
       </c>
       <c r="G34" t="n">
-        <v>383</v>
+        <v>377.1166666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>382</v>
       </c>
       <c r="C35" t="n">
+        <v>381</v>
+      </c>
+      <c r="D35" t="n">
         <v>382</v>
       </c>
-      <c r="D35" t="n">
-        <v>386</v>
-      </c>
       <c r="E35" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F35" t="n">
-        <v>4548.2854</v>
+        <v>2425.3249</v>
       </c>
       <c r="G35" t="n">
-        <v>381.5</v>
+        <v>377.3166666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C36" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D36" t="n">
         <v>386</v>
       </c>
       <c r="E36" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F36" t="n">
-        <v>548.7564</v>
+        <v>4548.2854</v>
       </c>
       <c r="G36" t="n">
-        <v>384</v>
+        <v>377.4833333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C37" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D37" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E37" t="n">
         <v>381</v>
       </c>
       <c r="F37" t="n">
-        <v>1580.9147</v>
+        <v>548.7564</v>
       </c>
       <c r="G37" t="n">
-        <v>386.5</v>
+        <v>377.7333333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>381</v>
       </c>
       <c r="C38" t="n">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D38" t="n">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="E38" t="n">
         <v>381</v>
       </c>
       <c r="F38" t="n">
-        <v>7694.0787</v>
+        <v>1580.9147</v>
       </c>
       <c r="G38" t="n">
-        <v>384</v>
+        <v>377.95</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>381</v>
       </c>
       <c r="F39" t="n">
-        <v>2369.2982</v>
+        <v>7694.0787</v>
       </c>
       <c r="G39" t="n">
-        <v>381</v>
+        <v>378.1166666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>381</v>
       </c>
       <c r="F40" t="n">
-        <v>2286.8328</v>
+        <v>2369.2982</v>
       </c>
       <c r="G40" t="n">
-        <v>381</v>
+        <v>378.2666666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C41" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D41" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E41" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F41" t="n">
-        <v>932.4071</v>
+        <v>2286.8328</v>
       </c>
       <c r="G41" t="n">
-        <v>382</v>
+        <v>378.4166666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,19 +1836,19 @@
         <v>383</v>
       </c>
       <c r="C42" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D42" t="n">
         <v>383</v>
       </c>
       <c r="E42" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F42" t="n">
-        <v>1031.605</v>
+        <v>932.4071</v>
       </c>
       <c r="G42" t="n">
-        <v>382.5</v>
+        <v>378.6166666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C43" t="n">
         <v>382</v>
       </c>
       <c r="D43" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E43" t="n">
         <v>382</v>
       </c>
       <c r="F43" t="n">
-        <v>1874.5248</v>
+        <v>1031.605</v>
       </c>
       <c r="G43" t="n">
-        <v>382</v>
+        <v>378.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C44" t="n">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D44" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E44" t="n">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F44" t="n">
-        <v>2913.9994</v>
+        <v>1874.5248</v>
       </c>
       <c r="G44" t="n">
-        <v>380</v>
+        <v>378.9833333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C45" t="n">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D45" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E45" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F45" t="n">
-        <v>142.9842</v>
+        <v>2913.9994</v>
       </c>
       <c r="G45" t="n">
-        <v>381.5</v>
+        <v>379.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C46" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D46" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E46" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F46" t="n">
-        <v>3032.9</v>
+        <v>142.9842</v>
       </c>
       <c r="G46" t="n">
-        <v>384.5</v>
+        <v>379.3666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,19 +2020,23 @@
         <v>384</v>
       </c>
       <c r="F47" t="n">
-        <v>2959</v>
+        <v>3032.9</v>
       </c>
       <c r="G47" t="n">
-        <v>384</v>
+        <v>379.5833333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>385</v>
+      </c>
+      <c r="K47" t="n">
+        <v>385</v>
+      </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
@@ -2046,19 +2050,19 @@
         <v>384</v>
       </c>
       <c r="C48" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D48" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E48" t="n">
         <v>384</v>
       </c>
       <c r="F48" t="n">
-        <v>923</v>
+        <v>2959</v>
       </c>
       <c r="G48" t="n">
-        <v>384.5</v>
+        <v>379.7833333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,8 +2071,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>385</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2081,19 +2091,19 @@
         <v>384</v>
       </c>
       <c r="C49" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D49" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E49" t="n">
         <v>384</v>
       </c>
       <c r="F49" t="n">
-        <v>2030.2483</v>
+        <v>923</v>
       </c>
       <c r="G49" t="n">
-        <v>385.5</v>
+        <v>379.9833333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,8 +2112,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>385</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2129,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C50" t="n">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D50" t="n">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E50" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F50" t="n">
-        <v>2447.6139</v>
+        <v>2030.2483</v>
       </c>
       <c r="G50" t="n">
-        <v>387</v>
+        <v>380.2166666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,8 +2153,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>385</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2170,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C51" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D51" t="n">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E51" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F51" t="n">
-        <v>8772.56800643</v>
+        <v>2447.6139</v>
       </c>
       <c r="G51" t="n">
-        <v>388.5</v>
+        <v>380.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,8 +2194,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>385</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2186,19 +2214,19 @@
         <v>389</v>
       </c>
       <c r="C52" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D52" t="n">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E52" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F52" t="n">
-        <v>2815.6225</v>
+        <v>8772.56800643</v>
       </c>
       <c r="G52" t="n">
-        <v>386.5</v>
+        <v>380.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,8 +2235,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>385</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,7 +2252,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C53" t="n">
         <v>384</v>
@@ -2230,10 +2264,10 @@
         <v>384</v>
       </c>
       <c r="F53" t="n">
-        <v>2484.0378</v>
+        <v>2815.6225</v>
       </c>
       <c r="G53" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,8 +2276,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>385</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2293,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="C54" t="n">
         <v>384</v>
       </c>
       <c r="D54" t="n">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E54" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F54" t="n">
-        <v>4075.0191803</v>
+        <v>2484.0378</v>
       </c>
       <c r="G54" t="n">
-        <v>384</v>
+        <v>381.2333333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,8 +2317,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>385</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2334,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C55" t="n">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D55" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E55" t="n">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F55" t="n">
-        <v>200</v>
+        <v>4075.0191803</v>
       </c>
       <c r="G55" t="n">
-        <v>386.5</v>
+        <v>381.4333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,8 +2358,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>385</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,7 +2375,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C56" t="n">
         <v>389</v>
@@ -2332,13 +2384,13 @@
         <v>389</v>
       </c>
       <c r="E56" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F56" t="n">
-        <v>2641.105</v>
+        <v>200</v>
       </c>
       <c r="G56" t="n">
-        <v>389</v>
+        <v>381.75</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,8 +2399,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>385</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2416,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C57" t="n">
         <v>389</v>
       </c>
       <c r="D57" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E57" t="n">
         <v>384</v>
       </c>
       <c r="F57" t="n">
-        <v>737.9835</v>
+        <v>2641.105</v>
       </c>
       <c r="G57" t="n">
-        <v>389</v>
+        <v>382.0333333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,8 +2440,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>385</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2457,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C58" t="n">
         <v>389</v>
       </c>
       <c r="D58" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E58" t="n">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F58" t="n">
-        <v>497</v>
+        <v>737.9835</v>
       </c>
       <c r="G58" t="n">
-        <v>389</v>
+        <v>382.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,8 +2481,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>385</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2431,19 +2501,19 @@
         <v>389</v>
       </c>
       <c r="C59" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D59" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E59" t="n">
         <v>389</v>
       </c>
       <c r="F59" t="n">
-        <v>1789.7048</v>
+        <v>497</v>
       </c>
       <c r="G59" t="n">
-        <v>389.5</v>
+        <v>382.55</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2452,8 +2522,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>385</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2539,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C60" t="n">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D60" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E60" t="n">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="F60" t="n">
-        <v>1294</v>
+        <v>1789.7048</v>
       </c>
       <c r="G60" t="n">
-        <v>386.5</v>
+        <v>382.8166666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,8 +2563,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>385</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2580,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C61" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E61" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F61" t="n">
-        <v>1435.5346</v>
+        <v>1294</v>
       </c>
       <c r="G61" t="n">
-        <v>382</v>
+        <v>383.0333333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,8 +2604,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>385</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2621,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C62" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D62" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E62" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F62" t="n">
-        <v>745</v>
+        <v>1435.5346</v>
       </c>
       <c r="G62" t="n">
-        <v>383</v>
+        <v>383.1333333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,8 +2645,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>385</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2574,16 +2668,16 @@
         <v>385</v>
       </c>
       <c r="D63" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E63" t="n">
         <v>385</v>
       </c>
       <c r="F63" t="n">
-        <v>81.51730000000001</v>
+        <v>745</v>
       </c>
       <c r="G63" t="n">
-        <v>385</v>
+        <v>383.3833333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,8 +2686,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>385</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2615,10 +2715,10 @@
         <v>385</v>
       </c>
       <c r="F64" t="n">
-        <v>624.8887999999999</v>
+        <v>81.51730000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>385</v>
+        <v>383.6166666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,8 +2727,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>385</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2644,16 +2750,16 @@
         <v>385</v>
       </c>
       <c r="D65" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E65" t="n">
         <v>385</v>
       </c>
       <c r="F65" t="n">
-        <v>2156.9927</v>
+        <v>624.8887999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>385</v>
+        <v>383.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,8 +2768,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>385</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2785,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C66" t="n">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D66" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E66" t="n">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F66" t="n">
-        <v>10259.3689</v>
+        <v>2156.9927</v>
       </c>
       <c r="G66" t="n">
-        <v>387.5</v>
+        <v>383.9833333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,8 +2809,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>385</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2711,19 +2829,19 @@
         <v>390</v>
       </c>
       <c r="C67" t="n">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D67" t="n">
         <v>391</v>
       </c>
       <c r="E67" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F67" t="n">
-        <v>1001.8739</v>
+        <v>10259.3689</v>
       </c>
       <c r="G67" t="n">
-        <v>390.5</v>
+        <v>384.25</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,8 +2850,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>385</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2867,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C68" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D68" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E68" t="n">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F68" t="n">
-        <v>43.3455</v>
+        <v>1001.8739</v>
       </c>
       <c r="G68" t="n">
-        <v>390</v>
+        <v>384.4833333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,8 +2891,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>385</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2790,10 +2920,10 @@
         <v>389</v>
       </c>
       <c r="F69" t="n">
-        <v>673.8638</v>
+        <v>43.3455</v>
       </c>
       <c r="G69" t="n">
-        <v>389</v>
+        <v>384.6833333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,8 +2932,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>385</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2825,10 +2961,10 @@
         <v>389</v>
       </c>
       <c r="F70" t="n">
-        <v>758</v>
+        <v>673.8638</v>
       </c>
       <c r="G70" t="n">
-        <v>389</v>
+        <v>384.8833333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,8 +2973,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>385</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2851,19 +2993,19 @@
         <v>389</v>
       </c>
       <c r="C71" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D71" t="n">
         <v>389</v>
       </c>
       <c r="E71" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F71" t="n">
-        <v>201.5893</v>
+        <v>758</v>
       </c>
       <c r="G71" t="n">
-        <v>387</v>
+        <v>385.0333333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,8 +3014,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>385</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2886,19 +3034,19 @@
         <v>389</v>
       </c>
       <c r="C72" t="n">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D72" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E72" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F72" t="n">
-        <v>109.5893</v>
+        <v>201.5893</v>
       </c>
       <c r="G72" t="n">
-        <v>387.5</v>
+        <v>385.1166666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,8 +3055,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>385</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2927,13 +3081,13 @@
         <v>390</v>
       </c>
       <c r="E73" t="n">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="F73" t="n">
-        <v>1467.6168</v>
+        <v>109.5893</v>
       </c>
       <c r="G73" t="n">
-        <v>390</v>
+        <v>385.2666666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,8 +3096,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>385</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +3113,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>389</v>
+      </c>
+      <c r="C74" t="n">
+        <v>390</v>
+      </c>
+      <c r="D74" t="n">
+        <v>390</v>
+      </c>
+      <c r="E74" t="n">
         <v>383</v>
       </c>
-      <c r="C74" t="n">
-        <v>388</v>
-      </c>
-      <c r="D74" t="n">
-        <v>388</v>
-      </c>
-      <c r="E74" t="n">
-        <v>382</v>
-      </c>
       <c r="F74" t="n">
-        <v>5307.3045</v>
+        <v>1467.6168</v>
       </c>
       <c r="G74" t="n">
-        <v>389</v>
+        <v>385.3833333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,8 +3137,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>385</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +3154,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C75" t="n">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D75" t="n">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="E75" t="n">
         <v>382</v>
       </c>
       <c r="F75" t="n">
-        <v>510.3189</v>
+        <v>5307.3045</v>
       </c>
       <c r="G75" t="n">
-        <v>385</v>
+        <v>385.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,8 +3178,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>385</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3195,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C76" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D76" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E76" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F76" t="n">
-        <v>2131.8143</v>
+        <v>510.3189</v>
       </c>
       <c r="G76" t="n">
-        <v>379.5</v>
+        <v>385.5166666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,8 +3219,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>385</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +3236,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>380</v>
+      </c>
+      <c r="C77" t="n">
         <v>377</v>
       </c>
-      <c r="C77" t="n">
-        <v>382</v>
-      </c>
       <c r="D77" t="n">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E77" t="n">
         <v>377</v>
       </c>
       <c r="F77" t="n">
-        <v>3338.4503</v>
+        <v>2131.8143</v>
       </c>
       <c r="G77" t="n">
-        <v>379.5</v>
+        <v>385.3833333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,8 +3260,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>385</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,22 +3277,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C78" t="n">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D78" t="n">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E78" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F78" t="n">
-        <v>127</v>
+        <v>3338.4503</v>
       </c>
       <c r="G78" t="n">
-        <v>380</v>
+        <v>385.3833333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3117,8 +3301,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>385</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,22 +3318,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C79" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D79" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E79" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F79" t="n">
-        <v>106.2962</v>
+        <v>127</v>
       </c>
       <c r="G79" t="n">
-        <v>377</v>
+        <v>385.3166666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,8 +3342,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>385</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3163,22 +3359,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C80" t="n">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D80" t="n">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E80" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F80" t="n">
-        <v>422</v>
+        <v>106.2962</v>
       </c>
       <c r="G80" t="n">
-        <v>377</v>
+        <v>385.2166666666666</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,8 +3383,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>385</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3198,32 +3400,40 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C81" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D81" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E81" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F81" t="n">
-        <v>3155.348</v>
+        <v>422</v>
       </c>
       <c r="G81" t="n">
-        <v>379.5</v>
+        <v>385.1</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>376</v>
+      </c>
+      <c r="K81" t="n">
+        <v>385</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,32 +3443,40 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C82" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D82" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E82" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F82" t="n">
-        <v>127.596</v>
+        <v>3155.348</v>
       </c>
       <c r="G82" t="n">
-        <v>379</v>
+        <v>385.0666666666667</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>378</v>
+      </c>
+      <c r="K82" t="n">
+        <v>385</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3280,10 +3498,10 @@
         <v>377</v>
       </c>
       <c r="F83" t="n">
-        <v>300</v>
+        <v>127.596</v>
       </c>
       <c r="G83" t="n">
-        <v>377</v>
+        <v>384.9166666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,8 +3510,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>385</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,32 +3527,40 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C84" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D84" t="n">
         <v>377</v>
       </c>
       <c r="E84" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F84" t="n">
-        <v>1150</v>
+        <v>300</v>
       </c>
       <c r="G84" t="n">
-        <v>376.5</v>
+        <v>384.75</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>377</v>
+      </c>
+      <c r="K84" t="n">
+        <v>385</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3570,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C85" t="n">
         <v>376</v>
       </c>
       <c r="D85" t="n">
+        <v>377</v>
+      </c>
+      <c r="E85" t="n">
         <v>376</v>
       </c>
-      <c r="E85" t="n">
-        <v>375</v>
-      </c>
       <c r="F85" t="n">
-        <v>50</v>
+        <v>1150</v>
       </c>
       <c r="G85" t="n">
-        <v>376</v>
+        <v>384.6166666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,8 +3594,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>385</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3376,19 +3614,19 @@
         <v>375</v>
       </c>
       <c r="C86" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D86" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E86" t="n">
         <v>375</v>
       </c>
       <c r="F86" t="n">
-        <v>946</v>
+        <v>50</v>
       </c>
       <c r="G86" t="n">
-        <v>376.5</v>
+        <v>384.4166666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,8 +3635,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>385</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3408,7 +3652,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C87" t="n">
         <v>377</v>
@@ -3417,23 +3661,31 @@
         <v>377</v>
       </c>
       <c r="E87" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F87" t="n">
-        <v>2624.3795</v>
+        <v>946</v>
       </c>
       <c r="G87" t="n">
-        <v>377</v>
+        <v>384.2166666666666</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>376</v>
+      </c>
+      <c r="K87" t="n">
+        <v>385</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3446,29 +3698,37 @@
         <v>377</v>
       </c>
       <c r="C88" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D88" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E88" t="n">
         <v>377</v>
       </c>
       <c r="F88" t="n">
-        <v>145.9212</v>
+        <v>2624.3795</v>
       </c>
       <c r="G88" t="n">
-        <v>377.5</v>
+        <v>384.0166666666667</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>377</v>
+      </c>
+      <c r="K88" t="n">
+        <v>385</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3481,19 +3741,19 @@
         <v>377</v>
       </c>
       <c r="C89" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D89" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E89" t="n">
         <v>377</v>
       </c>
       <c r="F89" t="n">
-        <v>16.9979</v>
+        <v>145.9212</v>
       </c>
       <c r="G89" t="n">
-        <v>377.5</v>
+        <v>383.8333333333333</v>
       </c>
       <c r="H89" t="n">
         <v>1</v>
@@ -3502,12 +3762,16 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K89" t="n">
-        <v>378</v>
-      </c>
-      <c r="L89" t="inlineStr"/>
+        <v>385</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3517,38 +3781,36 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C90" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D90" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E90" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F90" t="n">
-        <v>1.4</v>
+        <v>16.9979</v>
       </c>
       <c r="G90" t="n">
-        <v>379.5</v>
+        <v>383.6333333333333</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>377</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M90" t="n">
@@ -3572,26 +3834,24 @@
         <v>382</v>
       </c>
       <c r="F91" t="n">
-        <v>2000</v>
+        <v>1.4</v>
       </c>
       <c r="G91" t="n">
-        <v>382</v>
+        <v>383.5666666666667</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>382</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M91" t="n">
@@ -3603,22 +3863,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C92" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D92" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E92" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F92" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G92" t="n">
-        <v>381.5</v>
+        <v>383.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3627,8 +3887,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>385</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3650,10 +3916,10 @@
         <v>381</v>
       </c>
       <c r="F93" t="n">
-        <v>337</v>
+        <v>1000</v>
       </c>
       <c r="G93" t="n">
-        <v>381</v>
+        <v>383.45</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3662,8 +3928,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>385</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3673,22 +3945,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C94" t="n">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D94" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E94" t="n">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F94" t="n">
-        <v>617.4453999999999</v>
+        <v>337</v>
       </c>
       <c r="G94" t="n">
-        <v>379.5</v>
+        <v>383.3833333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3697,8 +3969,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>385</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3708,22 +3986,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C95" t="n">
         <v>378</v>
       </c>
       <c r="D95" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E95" t="n">
         <v>378</v>
       </c>
       <c r="F95" t="n">
-        <v>177.0083</v>
+        <v>617.4453999999999</v>
       </c>
       <c r="G95" t="n">
-        <v>378</v>
+        <v>383.3333333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3732,8 +4010,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>385</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3743,22 +4027,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C96" t="n">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D96" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E96" t="n">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F96" t="n">
-        <v>3509.3255</v>
+        <v>177.0083</v>
       </c>
       <c r="G96" t="n">
-        <v>376</v>
+        <v>383.2666666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3767,8 +4051,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>385</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3778,22 +4068,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C97" t="n">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D97" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E97" t="n">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F97" t="n">
-        <v>1.32</v>
+        <v>3509.3255</v>
       </c>
       <c r="G97" t="n">
-        <v>376.5</v>
+        <v>383.0666666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3802,8 +4092,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>385</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3813,36 +4109,38 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C98" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D98" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E98" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F98" t="n">
-        <v>152</v>
+        <v>1.32</v>
       </c>
       <c r="G98" t="n">
-        <v>378</v>
+        <v>382.9333333333333</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>379</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>379</v>
-      </c>
-      <c r="L98" t="inlineStr"/>
+        <v>385</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3852,22 +4150,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C99" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D99" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E99" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F99" t="n">
-        <v>2.0334</v>
+        <v>152</v>
       </c>
       <c r="G99" t="n">
-        <v>378</v>
+        <v>382.8666666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3877,11 +4175,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M99" t="n">
@@ -3893,22 +4191,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C100" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D100" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E100" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F100" t="n">
-        <v>133.5021</v>
+        <v>2.0334</v>
       </c>
       <c r="G100" t="n">
-        <v>378</v>
+        <v>382.8333333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3918,11 +4216,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M100" t="n">
@@ -3937,19 +4235,19 @@
         <v>377</v>
       </c>
       <c r="C101" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D101" t="n">
         <v>377</v>
       </c>
       <c r="E101" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F101" t="n">
-        <v>420</v>
+        <v>133.5021</v>
       </c>
       <c r="G101" t="n">
-        <v>376</v>
+        <v>382.7666666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3958,8 +4256,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>385</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3969,22 +4273,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C102" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D102" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E102" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F102" t="n">
-        <v>1.32</v>
+        <v>420</v>
       </c>
       <c r="G102" t="n">
-        <v>377</v>
+        <v>382.6333333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3993,8 +4297,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>385</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4004,22 +4314,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C103" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D103" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E103" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F103" t="n">
-        <v>255.0533</v>
+        <v>1.32</v>
       </c>
       <c r="G103" t="n">
-        <v>378.5</v>
+        <v>382.5833333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4028,8 +4338,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>385</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4039,22 +4355,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C104" t="n">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D104" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E104" t="n">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F104" t="n">
-        <v>759.0162</v>
+        <v>255.0533</v>
       </c>
       <c r="G104" t="n">
-        <v>376</v>
+        <v>382.5166666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4063,8 +4379,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>385</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4074,22 +4396,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C105" t="n">
         <v>374</v>
       </c>
       <c r="D105" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E105" t="n">
         <v>374</v>
       </c>
       <c r="F105" t="n">
-        <v>1012.9999</v>
+        <v>759.0162</v>
       </c>
       <c r="G105" t="n">
-        <v>374</v>
+        <v>382.45</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4098,8 +4420,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>385</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4121,10 +4449,10 @@
         <v>374</v>
       </c>
       <c r="F106" t="n">
-        <v>155</v>
+        <v>1012.9999</v>
       </c>
       <c r="G106" t="n">
-        <v>374</v>
+        <v>382.2666666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4133,8 +4461,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>385</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4147,33 +4481,33 @@
         <v>374</v>
       </c>
       <c r="C107" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D107" t="n">
         <v>374</v>
       </c>
       <c r="E107" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F107" t="n">
-        <v>601.5001999999999</v>
+        <v>155</v>
       </c>
       <c r="G107" t="n">
-        <v>373.5</v>
+        <v>382.1</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>374</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>385</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M107" t="n">
@@ -4185,22 +4519,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C108" t="n">
         <v>373</v>
       </c>
       <c r="D108" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E108" t="n">
         <v>373</v>
       </c>
       <c r="F108" t="n">
-        <v>135</v>
+        <v>601.5001999999999</v>
       </c>
       <c r="G108" t="n">
-        <v>373</v>
+        <v>381.9166666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4209,7 +4543,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>385</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4236,10 +4572,10 @@
         <v>373</v>
       </c>
       <c r="F109" t="n">
-        <v>632.3253999999999</v>
+        <v>135</v>
       </c>
       <c r="G109" t="n">
-        <v>373</v>
+        <v>381.7166666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4248,7 +4584,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>385</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4266,19 +4604,19 @@
         <v>373</v>
       </c>
       <c r="C110" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D110" t="n">
         <v>373</v>
       </c>
       <c r="E110" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F110" t="n">
-        <v>4</v>
+        <v>632.3253999999999</v>
       </c>
       <c r="G110" t="n">
-        <v>372</v>
+        <v>381.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4287,7 +4625,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>385</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4302,10 +4642,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>373</v>
+      </c>
+      <c r="C111" t="n">
         <v>371</v>
-      </c>
-      <c r="C111" t="n">
-        <v>373</v>
       </c>
       <c r="D111" t="n">
         <v>373</v>
@@ -4314,10 +4654,10 @@
         <v>371</v>
       </c>
       <c r="F111" t="n">
-        <v>3944.6819</v>
+        <v>4</v>
       </c>
       <c r="G111" t="n">
-        <v>372</v>
+        <v>381.2166666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4326,7 +4666,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>385</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4341,22 +4683,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C112" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D112" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E112" t="n">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F112" t="n">
-        <v>185.977</v>
+        <v>3944.6819</v>
       </c>
       <c r="G112" t="n">
-        <v>372.5</v>
+        <v>380.95</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4365,7 +4707,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>385</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4380,22 +4724,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C113" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D113" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E113" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F113" t="n">
-        <v>1115.1911</v>
+        <v>185.977</v>
       </c>
       <c r="G113" t="n">
-        <v>372.5</v>
+        <v>380.75</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4404,7 +4748,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>385</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4419,33 +4765,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C114" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D114" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E114" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F114" t="n">
-        <v>450.5513</v>
+        <v>1115.1911</v>
       </c>
       <c r="G114" t="n">
-        <v>372</v>
+        <v>380.5666666666667</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>373</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>385</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4460,33 +4806,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C115" t="n">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D115" t="n">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E115" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F115" t="n">
-        <v>172.1308</v>
+        <v>450.5513</v>
       </c>
       <c r="G115" t="n">
-        <v>372</v>
+        <v>380.35</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>371</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>385</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4501,33 +4847,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C116" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D116" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E116" t="n">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F116" t="n">
-        <v>91.8412</v>
+        <v>172.1308</v>
       </c>
       <c r="G116" t="n">
-        <v>372.5</v>
+        <v>380.0833333333333</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>373</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>385</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4542,33 +4888,35 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>372</v>
+      </c>
+      <c r="C117" t="n">
+        <v>372</v>
+      </c>
+      <c r="D117" t="n">
+        <v>372</v>
+      </c>
+      <c r="E117" t="n">
+        <v>372</v>
+      </c>
+      <c r="F117" t="n">
+        <v>91.8412</v>
+      </c>
+      <c r="G117" t="n">
+        <v>379.8</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
         <v>373</v>
       </c>
-      <c r="C117" t="n">
-        <v>373</v>
-      </c>
-      <c r="D117" t="n">
-        <v>373</v>
-      </c>
-      <c r="E117" t="n">
-        <v>373</v>
-      </c>
-      <c r="F117" t="n">
-        <v>127</v>
-      </c>
-      <c r="G117" t="n">
-        <v>372.5</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>372</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>385</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4595,19 +4943,23 @@
         <v>373</v>
       </c>
       <c r="F118" t="n">
-        <v>23.9123</v>
+        <v>127</v>
       </c>
       <c r="G118" t="n">
-        <v>373</v>
+        <v>379.5333333333334</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>372</v>
+      </c>
+      <c r="K118" t="n">
+        <v>385</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4622,31 +4974,35 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C119" t="n">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D119" t="n">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E119" t="n">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F119" t="n">
-        <v>2119.0943</v>
+        <v>23.9123</v>
       </c>
       <c r="G119" t="n">
-        <v>376</v>
+        <v>379.2666666666667</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>373</v>
+      </c>
+      <c r="K119" t="n">
+        <v>385</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4661,10 +5017,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>375</v>
+      </c>
+      <c r="C120" t="n">
         <v>379</v>
-      </c>
-      <c r="C120" t="n">
-        <v>375</v>
       </c>
       <c r="D120" t="n">
         <v>379</v>
@@ -4673,10 +5029,10 @@
         <v>375</v>
       </c>
       <c r="F120" t="n">
-        <v>87</v>
+        <v>2119.0943</v>
       </c>
       <c r="G120" t="n">
-        <v>377</v>
+        <v>379.0833333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4685,7 +5041,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>385</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4700,22 +5058,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C121" t="n">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="D121" t="n">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="E121" t="n">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="F121" t="n">
-        <v>858.1083</v>
+        <v>87</v>
       </c>
       <c r="G121" t="n">
-        <v>372.5</v>
+        <v>378.95</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4724,7 +5082,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>385</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4739,22 +5099,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C122" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D122" t="n">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E122" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F122" t="n">
-        <v>9195.921399999999</v>
+        <v>858.1083</v>
       </c>
       <c r="G122" t="n">
-        <v>372.5</v>
+        <v>378.7666666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4763,7 +5123,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>385</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4778,7 +5140,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C123" t="n">
         <v>375</v>
@@ -4787,13 +5149,13 @@
         <v>375</v>
       </c>
       <c r="E123" t="n">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F123" t="n">
-        <v>428.0915</v>
+        <v>9195.921399999999</v>
       </c>
       <c r="G123" t="n">
-        <v>375</v>
+        <v>378.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4802,7 +5164,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>385</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4817,22 +5181,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C124" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D124" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E124" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F124" t="n">
-        <v>1478.7089</v>
+        <v>428.0915</v>
       </c>
       <c r="G124" t="n">
-        <v>375.5</v>
+        <v>378.4333333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4841,7 +5205,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>385</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4856,22 +5222,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C125" t="n">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D125" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E125" t="n">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F125" t="n">
-        <v>1890.4717</v>
+        <v>1478.7089</v>
       </c>
       <c r="G125" t="n">
-        <v>374</v>
+        <v>378.2833333333334</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4880,7 +5246,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>385</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4895,22 +5263,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C126" t="n">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D126" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E126" t="n">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F126" t="n">
-        <v>15</v>
+        <v>1890.4717</v>
       </c>
       <c r="G126" t="n">
-        <v>373</v>
+        <v>378.0666666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4919,7 +5287,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>385</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4949,7 +5319,7 @@
         <v>15</v>
       </c>
       <c r="G127" t="n">
-        <v>374</v>
+        <v>377.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4958,7 +5328,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>385</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4973,22 +5345,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C128" t="n">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D128" t="n">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E128" t="n">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F128" t="n">
-        <v>133.3117</v>
+        <v>15</v>
       </c>
       <c r="G128" t="n">
-        <v>376</v>
+        <v>377.5166666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4997,7 +5369,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>385</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5012,22 +5386,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C129" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D129" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E129" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F129" t="n">
-        <v>166.8526</v>
+        <v>133.3117</v>
       </c>
       <c r="G129" t="n">
-        <v>376.5</v>
+        <v>377.3333333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5036,7 +5410,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>385</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5051,22 +5427,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C130" t="n">
         <v>375</v>
       </c>
       <c r="D130" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E130" t="n">
         <v>375</v>
       </c>
       <c r="F130" t="n">
-        <v>133.3117</v>
+        <v>166.8526</v>
       </c>
       <c r="G130" t="n">
-        <v>375</v>
+        <v>377.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5075,7 +5451,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>385</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5090,22 +5468,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C131" t="n">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D131" t="n">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="E131" t="n">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F131" t="n">
-        <v>12317.8249</v>
+        <v>133.3117</v>
       </c>
       <c r="G131" t="n">
-        <v>376.5</v>
+        <v>376.8666666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5114,7 +5492,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>385</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5129,22 +5509,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C132" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D132" t="n">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="E132" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F132" t="n">
-        <v>444</v>
+        <v>12317.8249</v>
       </c>
       <c r="G132" t="n">
-        <v>376.5</v>
+        <v>376.75</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5153,7 +5533,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>385</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5168,22 +5550,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C133" t="n">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D133" t="n">
         <v>382</v>
       </c>
       <c r="E133" t="n">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F133" t="n">
-        <v>7.1982</v>
+        <v>444</v>
       </c>
       <c r="G133" t="n">
-        <v>378.5</v>
+        <v>376.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5192,7 +5574,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>385</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5210,19 +5594,19 @@
         <v>382</v>
       </c>
       <c r="C134" t="n">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D134" t="n">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E134" t="n">
         <v>382</v>
       </c>
       <c r="F134" t="n">
-        <v>406.7107</v>
+        <v>7.1982</v>
       </c>
       <c r="G134" t="n">
-        <v>384.5</v>
+        <v>376.3666666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5231,7 +5615,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>385</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5246,7 +5632,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C135" t="n">
         <v>387</v>
@@ -5255,13 +5641,13 @@
         <v>387</v>
       </c>
       <c r="E135" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F135" t="n">
-        <v>46.0712</v>
+        <v>406.7107</v>
       </c>
       <c r="G135" t="n">
-        <v>387</v>
+        <v>376.35</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5270,7 +5656,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>385</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5285,7 +5673,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C136" t="n">
         <v>387</v>
@@ -5294,13 +5682,13 @@
         <v>387</v>
       </c>
       <c r="E136" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F136" t="n">
-        <v>161.9678</v>
+        <v>46.0712</v>
       </c>
       <c r="G136" t="n">
-        <v>387</v>
+        <v>376.4333333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5309,7 +5697,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>385</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5327,19 +5717,19 @@
         <v>387</v>
       </c>
       <c r="C137" t="n">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D137" t="n">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E137" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F137" t="n">
-        <v>7995.9508</v>
+        <v>161.9678</v>
       </c>
       <c r="G137" t="n">
-        <v>388.5</v>
+        <v>376.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5348,7 +5738,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>385</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5363,7 +5755,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C138" t="n">
         <v>390</v>
@@ -5375,10 +5767,10 @@
         <v>386</v>
       </c>
       <c r="F138" t="n">
-        <v>2028.4389</v>
+        <v>7995.9508</v>
       </c>
       <c r="G138" t="n">
-        <v>390</v>
+        <v>376.7333333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5387,7 +5779,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>385</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5402,22 +5796,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C139" t="n">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D139" t="n">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E139" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F139" t="n">
-        <v>3588.6601</v>
+        <v>2028.4389</v>
       </c>
       <c r="G139" t="n">
-        <v>390.5</v>
+        <v>376.9333333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5426,7 +5820,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>385</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5441,22 +5837,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
+        <v>389</v>
+      </c>
+      <c r="C140" t="n">
         <v>391</v>
-      </c>
-      <c r="C140" t="n">
-        <v>390</v>
       </c>
       <c r="D140" t="n">
         <v>391</v>
       </c>
       <c r="E140" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F140" t="n">
-        <v>2127.5781</v>
+        <v>3588.6601</v>
       </c>
       <c r="G140" t="n">
-        <v>390.5</v>
+        <v>377.1833333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5465,7 +5861,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>385</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5483,19 +5881,19 @@
         <v>391</v>
       </c>
       <c r="C141" t="n">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D141" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E141" t="n">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F141" t="n">
-        <v>6318.4533</v>
+        <v>2127.5781</v>
       </c>
       <c r="G141" t="n">
-        <v>391</v>
+        <v>377.3833333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5504,7 +5902,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>385</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5522,19 +5922,19 @@
         <v>391</v>
       </c>
       <c r="C142" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D142" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E142" t="n">
         <v>391</v>
       </c>
       <c r="F142" t="n">
-        <v>108.9948</v>
+        <v>6318.4533</v>
       </c>
       <c r="G142" t="n">
-        <v>391.5</v>
+        <v>377.5666666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5543,7 +5943,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>385</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5561,41 +5963,45 @@
         <v>391</v>
       </c>
       <c r="C143" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D143" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E143" t="n">
         <v>391</v>
       </c>
       <c r="F143" t="n">
-        <v>1956.4446</v>
+        <v>108.9948</v>
       </c>
       <c r="G143" t="n">
-        <v>391.5</v>
+        <v>377.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>385</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M143" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C144" t="n">
         <v>392</v>
@@ -5604,13 +6010,13 @@
         <v>392</v>
       </c>
       <c r="E144" t="n">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F144" t="n">
-        <v>5652.7369</v>
+        <v>1956.4446</v>
       </c>
       <c r="G144" t="n">
-        <v>392</v>
+        <v>378.05</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5619,8 +6025,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>385</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5630,22 +6042,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C145" t="n">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D145" t="n">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E145" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F145" t="n">
-        <v>26843.401</v>
+        <v>5652.7369</v>
       </c>
       <c r="G145" t="n">
-        <v>394.5</v>
+        <v>378.3166666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5654,8 +6066,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>385</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5665,22 +6083,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C146" t="n">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D146" t="n">
         <v>397</v>
       </c>
       <c r="E146" t="n">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F146" t="n">
-        <v>2589.6089</v>
+        <v>26843.401</v>
       </c>
       <c r="G146" t="n">
-        <v>396</v>
+        <v>378.6666666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5689,8 +6107,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>385</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5700,22 +6124,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C147" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D147" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E147" t="n">
         <v>394</v>
       </c>
       <c r="F147" t="n">
-        <v>7279.9005</v>
+        <v>2589.6089</v>
       </c>
       <c r="G147" t="n">
-        <v>394.5</v>
+        <v>378.9666666666666</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5724,10 +6148,16 @@
         <v>1</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>385</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M147" t="n">
-        <v>1</v>
+        <v>1.020974025974026</v>
       </c>
     </row>
     <row r="148">
@@ -5735,28 +6165,28 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C148" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D148" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E148" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F148" t="n">
-        <v>89</v>
+        <v>7279.9005</v>
       </c>
       <c r="G148" t="n">
-        <v>394.5</v>
+        <v>379.25</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -5770,22 +6200,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C149" t="n">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D149" t="n">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E149" t="n">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F149" t="n">
-        <v>420</v>
+        <v>89</v>
       </c>
       <c r="G149" t="n">
-        <v>395.5</v>
+        <v>379.5333333333334</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5800,6 +6230,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>392</v>
+      </c>
+      <c r="C150" t="n">
+        <v>396</v>
+      </c>
+      <c r="D150" t="n">
+        <v>396</v>
+      </c>
+      <c r="E150" t="n">
+        <v>392</v>
+      </c>
+      <c r="F150" t="n">
+        <v>420</v>
+      </c>
+      <c r="G150" t="n">
+        <v>379.85</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-18 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-18 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M150"/>
+  <dimension ref="A1:N160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1.4</v>
       </c>
       <c r="G2" t="n">
+        <v>372.0666666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>369.2</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>1883.3258</v>
       </c>
       <c r="G3" t="n">
+        <v>371.9333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>369.2833333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>375</v>
+      </c>
+      <c r="L3" t="n">
+        <v>375</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>243.9935</v>
       </c>
       <c r="G4" t="n">
+        <v>371.8</v>
+      </c>
+      <c r="H4" t="n">
         <v>369.3833333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>370</v>
+      </c>
+      <c r="L4" t="n">
+        <v>375</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>1.4</v>
       </c>
       <c r="G5" t="n">
+        <v>371.9333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>369.5333333333334</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>371</v>
+      </c>
+      <c r="L5" t="n">
+        <v>375</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,27 @@
         <v>1402.0526</v>
       </c>
       <c r="G6" t="n">
+        <v>372.1333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>369.6833333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="L6" t="n">
+        <v>375</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +669,27 @@
         <v>504.6205</v>
       </c>
       <c r="G7" t="n">
+        <v>372.3333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>369.8333333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="L7" t="n">
+        <v>375</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +713,27 @@
         <v>1836.6837</v>
       </c>
       <c r="G8" t="n">
+        <v>372.6666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>370.0333333333334</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>375</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +757,27 @@
         <v>860</v>
       </c>
       <c r="G9" t="n">
+        <v>373.1333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>370.2333333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>375</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +801,27 @@
         <v>1010</v>
       </c>
       <c r="G10" t="n">
+        <v>373.4666666666666</v>
+      </c>
+      <c r="H10" t="n">
         <v>370.4333333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>375</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +845,27 @@
         <v>11765.3933</v>
       </c>
       <c r="G11" t="n">
+        <v>374.1333333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>370.6833333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>375</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +889,27 @@
         <v>90</v>
       </c>
       <c r="G12" t="n">
+        <v>374.6666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>370.9166666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>375</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +933,27 @@
         <v>204</v>
       </c>
       <c r="G13" t="n">
+        <v>375.2</v>
+      </c>
+      <c r="H13" t="n">
         <v>371.1666666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>375</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +977,27 @@
         <v>4840.6341</v>
       </c>
       <c r="G14" t="n">
+        <v>375.8</v>
+      </c>
+      <c r="H14" t="n">
         <v>371.45</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>375</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1021,27 @@
         <v>5348.2509</v>
       </c>
       <c r="G15" t="n">
+        <v>376.2666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>371.6666666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>375</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1065,27 @@
         <v>7957.47321324</v>
       </c>
       <c r="G16" t="n">
+        <v>377</v>
+      </c>
+      <c r="H16" t="n">
         <v>371.8833333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>375</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1109,27 @@
         <v>7055.41288676</v>
       </c>
       <c r="G17" t="n">
+        <v>377.6666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>372.15</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>375</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1153,27 @@
         <v>4897</v>
       </c>
       <c r="G18" t="n">
+        <v>378.4666666666666</v>
+      </c>
+      <c r="H18" t="n">
         <v>372.3666666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>375</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1197,27 @@
         <v>3126.0734</v>
       </c>
       <c r="G19" t="n">
+        <v>379.2</v>
+      </c>
+      <c r="H19" t="n">
         <v>372.6333333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>375</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1241,27 @@
         <v>4435.23499357</v>
       </c>
       <c r="G20" t="n">
+        <v>379.7333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>372.8666666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>375</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1285,27 @@
         <v>50</v>
       </c>
       <c r="G21" t="n">
+        <v>380.4666666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>373.1333333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>375</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1329,27 @@
         <v>28</v>
       </c>
       <c r="G22" t="n">
+        <v>381.0666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>373.3833333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>375</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1373,27 @@
         <v>245.1417</v>
       </c>
       <c r="G23" t="n">
+        <v>381.6666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>373.6833333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>375</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1417,27 @@
         <v>2913.9994</v>
       </c>
       <c r="G24" t="n">
+        <v>382.3333333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>374</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>375</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1461,27 @@
         <v>212.4112</v>
       </c>
       <c r="G25" t="n">
+        <v>382.8</v>
+      </c>
+      <c r="H25" t="n">
         <v>374.2666666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>375</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1505,27 @@
         <v>466</v>
       </c>
       <c r="G26" t="n">
+        <v>383.3333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>374.6</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>375</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1549,27 @@
         <v>2166.4963</v>
       </c>
       <c r="G27" t="n">
+        <v>383.9333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>374.95</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>375</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1593,27 @@
         <v>2265.36090643</v>
       </c>
       <c r="G28" t="n">
+        <v>384.4666666666666</v>
+      </c>
+      <c r="H28" t="n">
         <v>375.3</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>375</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1637,27 @@
         <v>2331.28099357</v>
       </c>
       <c r="G29" t="n">
+        <v>384.8666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>375.65</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>375</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1681,27 @@
         <v>2596.4657</v>
       </c>
       <c r="G30" t="n">
+        <v>385.4</v>
+      </c>
+      <c r="H30" t="n">
         <v>376</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>375</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1725,27 @@
         <v>391.6872</v>
       </c>
       <c r="G31" t="n">
+        <v>385.7333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>376.3</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>375</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1769,27 @@
         <v>81</v>
       </c>
       <c r="G32" t="n">
+        <v>385.8</v>
+      </c>
+      <c r="H32" t="n">
         <v>376.6</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>375</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1813,27 @@
         <v>1142.7117</v>
       </c>
       <c r="G33" t="n">
+        <v>385.9333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>376.85</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>375</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1857,27 @@
         <v>208</v>
       </c>
       <c r="G34" t="n">
+        <v>386.1333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>377.1166666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>375</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1901,27 @@
         <v>2425.3249</v>
       </c>
       <c r="G35" t="n">
+        <v>386.0666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>377.3166666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>375</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1945,27 @@
         <v>4548.2854</v>
       </c>
       <c r="G36" t="n">
+        <v>385.8666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>377.4833333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>375</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1989,27 @@
         <v>548.7564</v>
       </c>
       <c r="G37" t="n">
+        <v>386.0666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>377.7333333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>375</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2033,27 @@
         <v>1580.9147</v>
       </c>
       <c r="G38" t="n">
+        <v>386.1333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>377.95</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>375</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2077,27 @@
         <v>7694.0787</v>
       </c>
       <c r="G39" t="n">
+        <v>385.7333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>378.1166666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>375</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2121,27 @@
         <v>2369.2982</v>
       </c>
       <c r="G40" t="n">
+        <v>385.5333333333334</v>
+      </c>
+      <c r="H40" t="n">
         <v>378.2666666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>375</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2165,27 @@
         <v>2286.8328</v>
       </c>
       <c r="G41" t="n">
+        <v>385.0666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>378.4166666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>375</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2209,27 @@
         <v>932.4071</v>
       </c>
       <c r="G42" t="n">
+        <v>384.6666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>378.6166666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>375</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2253,27 @@
         <v>1031.605</v>
       </c>
       <c r="G43" t="n">
+        <v>384.2</v>
+      </c>
+      <c r="H43" t="n">
         <v>378.8</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>375</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2297,27 @@
         <v>1874.5248</v>
       </c>
       <c r="G44" t="n">
+        <v>383.7333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>378.9833333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>375</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2341,27 @@
         <v>2913.9994</v>
       </c>
       <c r="G45" t="n">
+        <v>383</v>
+      </c>
+      <c r="H45" t="n">
         <v>379.1</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>375</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2385,27 @@
         <v>142.9842</v>
       </c>
       <c r="G46" t="n">
+        <v>382.9333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>379.3666666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>375</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,22 +2429,27 @@
         <v>3032.9</v>
       </c>
       <c r="G47" t="n">
+        <v>382.8</v>
+      </c>
+      <c r="H47" t="n">
         <v>379.5833333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>385</v>
-      </c>
-      <c r="K47" t="n">
-        <v>385</v>
-      </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>375</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2062,24 +2473,27 @@
         <v>2959</v>
       </c>
       <c r="G48" t="n">
+        <v>382.8</v>
+      </c>
+      <c r="H48" t="n">
         <v>379.7833333333334</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>385</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>375</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2103,24 +2517,27 @@
         <v>923</v>
       </c>
       <c r="G49" t="n">
+        <v>382.8</v>
+      </c>
+      <c r="H49" t="n">
         <v>379.9833333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>385</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>375</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2144,24 +2561,27 @@
         <v>2030.2483</v>
       </c>
       <c r="G50" t="n">
+        <v>383.1333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>380.2166666666666</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>385</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>375</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2185,24 +2605,27 @@
         <v>2447.6139</v>
       </c>
       <c r="G51" t="n">
+        <v>383.5333333333334</v>
+      </c>
+      <c r="H51" t="n">
         <v>380.5</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>385</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>375</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2226,24 +2649,27 @@
         <v>8772.56800643</v>
       </c>
       <c r="G52" t="n">
+        <v>383.7333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>380.8</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>385</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>375</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2267,24 +2693,27 @@
         <v>2815.6225</v>
       </c>
       <c r="G53" t="n">
+        <v>383.5333333333334</v>
+      </c>
+      <c r="H53" t="n">
         <v>381</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>385</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>375</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2308,24 +2737,27 @@
         <v>2484.0378</v>
       </c>
       <c r="G54" t="n">
+        <v>383.7333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>381.2333333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>385</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>375</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2349,24 +2781,27 @@
         <v>4075.0191803</v>
       </c>
       <c r="G55" t="n">
+        <v>383.9333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>381.4333333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>385</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>375</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2390,24 +2825,27 @@
         <v>200</v>
       </c>
       <c r="G56" t="n">
+        <v>384.4666666666666</v>
+      </c>
+      <c r="H56" t="n">
         <v>381.75</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>385</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>375</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2431,24 +2869,27 @@
         <v>2641.105</v>
       </c>
       <c r="G57" t="n">
+        <v>384.8666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>382.0333333333334</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>385</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>375</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2472,24 +2913,27 @@
         <v>737.9835</v>
       </c>
       <c r="G58" t="n">
+        <v>385.3333333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>382.3</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>385</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>375</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,24 +2957,27 @@
         <v>497</v>
       </c>
       <c r="G59" t="n">
+        <v>385.8</v>
+      </c>
+      <c r="H59" t="n">
         <v>382.55</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>385</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>375</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2554,24 +3001,27 @@
         <v>1789.7048</v>
       </c>
       <c r="G60" t="n">
+        <v>386.6</v>
+      </c>
+      <c r="H60" t="n">
         <v>382.8166666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>385</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>375</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2595,24 +3045,27 @@
         <v>1294</v>
       </c>
       <c r="G61" t="n">
+        <v>386.4666666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>383.0333333333334</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>385</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>375</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2636,24 +3089,27 @@
         <v>1435.5346</v>
       </c>
       <c r="G62" t="n">
+        <v>386.2666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>383.1333333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>385</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>375</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2677,24 +3133,27 @@
         <v>745</v>
       </c>
       <c r="G63" t="n">
+        <v>386.3333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>383.3833333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>385</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>375</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,24 +3177,27 @@
         <v>81.51730000000001</v>
       </c>
       <c r="G64" t="n">
+        <v>386.3333333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>383.6166666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>385</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>375</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2759,24 +3221,27 @@
         <v>624.8887999999999</v>
       </c>
       <c r="G65" t="n">
+        <v>386.2666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>383.8</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>385</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>375</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2800,24 +3265,27 @@
         <v>2156.9927</v>
       </c>
       <c r="G66" t="n">
+        <v>386.0666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>383.9833333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>385</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>375</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2841,24 +3309,27 @@
         <v>10259.3689</v>
       </c>
       <c r="G67" t="n">
+        <v>386.1333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>384.25</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>385</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>375</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2882,24 +3353,27 @@
         <v>1001.8739</v>
       </c>
       <c r="G68" t="n">
+        <v>386.6</v>
+      </c>
+      <c r="H68" t="n">
         <v>384.4833333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>385</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>375</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2923,24 +3397,27 @@
         <v>43.3455</v>
       </c>
       <c r="G69" t="n">
+        <v>386.9333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>384.6833333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>385</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>375</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2964,24 +3441,27 @@
         <v>673.8638</v>
       </c>
       <c r="G70" t="n">
+        <v>387.2666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>384.8833333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>385</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>375</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3005,24 +3485,27 @@
         <v>758</v>
       </c>
       <c r="G71" t="n">
+        <v>387.2666666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>385.0333333333334</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>385</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>375</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3046,24 +3529,27 @@
         <v>201.5893</v>
       </c>
       <c r="G72" t="n">
+        <v>387</v>
+      </c>
+      <c r="H72" t="n">
         <v>385.1166666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>385</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>375</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3087,24 +3573,27 @@
         <v>109.5893</v>
       </c>
       <c r="G73" t="n">
+        <v>387.0666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>385.2666666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>385</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>375</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3128,24 +3617,27 @@
         <v>1467.6168</v>
       </c>
       <c r="G74" t="n">
+        <v>387.1333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>385.3833333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>385</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>375</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3169,24 +3661,27 @@
         <v>5307.3045</v>
       </c>
       <c r="G75" t="n">
+        <v>387</v>
+      </c>
+      <c r="H75" t="n">
         <v>385.5</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>385</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>375</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3210,24 +3705,27 @@
         <v>510.3189</v>
       </c>
       <c r="G76" t="n">
+        <v>386.9333333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>385.5166666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>385</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>375</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3251,24 +3749,27 @@
         <v>2131.8143</v>
       </c>
       <c r="G77" t="n">
+        <v>386.6666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>385.3833333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>385</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>375</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3292,24 +3793,27 @@
         <v>3338.4503</v>
       </c>
       <c r="G78" t="n">
+        <v>386.4666666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>385.3833333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>385</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>375</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3333,24 +3837,27 @@
         <v>127</v>
       </c>
       <c r="G79" t="n">
+        <v>386</v>
+      </c>
+      <c r="H79" t="n">
         <v>385.3166666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>385</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>375</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3374,24 +3881,27 @@
         <v>106.2962</v>
       </c>
       <c r="G80" t="n">
+        <v>385.4</v>
+      </c>
+      <c r="H80" t="n">
         <v>385.2166666666666</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>385</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>375</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3415,26 +3925,27 @@
         <v>422</v>
       </c>
       <c r="G81" t="n">
+        <v>384.9333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>385.1</v>
       </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>376</v>
-      </c>
-      <c r="K81" t="n">
-        <v>385</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>375</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,26 +3969,27 @@
         <v>3155.348</v>
       </c>
       <c r="G82" t="n">
+        <v>384.3333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>385.0666666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>378</v>
-      </c>
-      <c r="K82" t="n">
-        <v>385</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>375</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3501,24 +4013,27 @@
         <v>127.596</v>
       </c>
       <c r="G83" t="n">
+        <v>383.4</v>
+      </c>
+      <c r="H83" t="n">
         <v>384.9166666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>385</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>375</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3542,26 +4057,27 @@
         <v>300</v>
       </c>
       <c r="G84" t="n">
+        <v>382.6</v>
+      </c>
+      <c r="H84" t="n">
         <v>384.75</v>
       </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>377</v>
-      </c>
-      <c r="K84" t="n">
-        <v>385</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>375</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3585,24 +4101,27 @@
         <v>1150</v>
       </c>
       <c r="G85" t="n">
+        <v>381.7333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>384.6166666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>385</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>375</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3626,24 +4145,27 @@
         <v>50</v>
       </c>
       <c r="G86" t="n">
+        <v>380.8666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>384.4166666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>385</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>375</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3667,26 +4189,27 @@
         <v>946</v>
       </c>
       <c r="G87" t="n">
+        <v>380.3333333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>384.2166666666666</v>
       </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>376</v>
-      </c>
-      <c r="K87" t="n">
-        <v>385</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>375</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3710,26 +4233,27 @@
         <v>2624.3795</v>
       </c>
       <c r="G88" t="n">
+        <v>379.4666666666666</v>
+      </c>
+      <c r="H88" t="n">
         <v>384.0166666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>377</v>
-      </c>
-      <c r="K88" t="n">
-        <v>385</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>375</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3753,26 +4277,27 @@
         <v>145.9212</v>
       </c>
       <c r="G89" t="n">
+        <v>378.6666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>383.8333333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>377</v>
-      </c>
-      <c r="K89" t="n">
-        <v>385</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>375</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3796,24 +4321,27 @@
         <v>16.9979</v>
       </c>
       <c r="G90" t="n">
+        <v>377.9333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>383.6333333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>385</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>375</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3837,24 +4365,27 @@
         <v>1.4</v>
       </c>
       <c r="G91" t="n">
+        <v>377.9333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>383.5666666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>385</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>375</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,24 +4409,27 @@
         <v>2000</v>
       </c>
       <c r="G92" t="n">
+        <v>378.2666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>383.5</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>385</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>375</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3919,24 +4453,27 @@
         <v>1000</v>
       </c>
       <c r="G93" t="n">
+        <v>378.2</v>
+      </c>
+      <c r="H93" t="n">
         <v>383.45</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>385</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>375</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3960,24 +4497,27 @@
         <v>337</v>
       </c>
       <c r="G94" t="n">
+        <v>378.4</v>
+      </c>
+      <c r="H94" t="n">
         <v>383.3833333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>385</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>375</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4001,24 +4541,27 @@
         <v>617.4453999999999</v>
       </c>
       <c r="G95" t="n">
+        <v>378.5333333333334</v>
+      </c>
+      <c r="H95" t="n">
         <v>383.3333333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>385</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>375</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4042,24 +4585,27 @@
         <v>177.0083</v>
       </c>
       <c r="G96" t="n">
+        <v>378.5333333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>383.2666666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>385</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>375</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4083,24 +4629,27 @@
         <v>3509.3255</v>
       </c>
       <c r="G97" t="n">
+        <v>378.0666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>383.0666666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>385</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>375</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,24 +4673,27 @@
         <v>1.32</v>
       </c>
       <c r="G98" t="n">
+        <v>378.2</v>
+      </c>
+      <c r="H98" t="n">
         <v>382.9333333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>385</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>375</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4165,24 +4717,27 @@
         <v>152</v>
       </c>
       <c r="G99" t="n">
+        <v>378.2</v>
+      </c>
+      <c r="H99" t="n">
         <v>382.8666666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>385</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>375</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4206,24 +4761,27 @@
         <v>2.0334</v>
       </c>
       <c r="G100" t="n">
+        <v>378.4</v>
+      </c>
+      <c r="H100" t="n">
         <v>382.8333333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>385</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>375</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4247,24 +4805,27 @@
         <v>133.5021</v>
       </c>
       <c r="G101" t="n">
+        <v>378.4666666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>382.7666666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>385</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>375</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4288,24 +4849,27 @@
         <v>420</v>
       </c>
       <c r="G102" t="n">
+        <v>378.3333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>382.6333333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>385</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>375</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4329,24 +4893,27 @@
         <v>1.32</v>
       </c>
       <c r="G103" t="n">
+        <v>378.4666666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>382.5833333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>385</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>375</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4370,24 +4937,27 @@
         <v>255.0533</v>
       </c>
       <c r="G104" t="n">
+        <v>378.4666666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>382.5166666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>385</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>375</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4411,24 +4981,27 @@
         <v>759.0162</v>
       </c>
       <c r="G105" t="n">
+        <v>378.2666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>382.45</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>385</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>375</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4452,24 +5025,27 @@
         <v>1012.9999</v>
       </c>
       <c r="G106" t="n">
+        <v>377.7333333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>382.2666666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>385</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>375</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4493,24 +5069,27 @@
         <v>155</v>
       </c>
       <c r="G107" t="n">
+        <v>377.2</v>
+      </c>
+      <c r="H107" t="n">
         <v>382.1</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>385</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>375</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4534,24 +5113,27 @@
         <v>601.5001999999999</v>
       </c>
       <c r="G108" t="n">
+        <v>376.6666666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>381.9166666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>385</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>375</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4575,24 +5157,27 @@
         <v>135</v>
       </c>
       <c r="G109" t="n">
+        <v>376.1333333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>381.7166666666666</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>385</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>375</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4616,24 +5201,27 @@
         <v>632.3253999999999</v>
       </c>
       <c r="G110" t="n">
+        <v>375.8</v>
+      </c>
+      <c r="H110" t="n">
         <v>381.5</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>385</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>375</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4657,24 +5245,27 @@
         <v>4</v>
       </c>
       <c r="G111" t="n">
+        <v>375.3333333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>381.2166666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>385</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>375</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4698,24 +5289,27 @@
         <v>3944.6819</v>
       </c>
       <c r="G112" t="n">
+        <v>375.2666666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>380.95</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>385</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>375</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4739,24 +5333,27 @@
         <v>185.977</v>
       </c>
       <c r="G113" t="n">
+        <v>374.8</v>
+      </c>
+      <c r="H113" t="n">
         <v>380.75</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>385</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>375</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4780,24 +5377,27 @@
         <v>1115.1911</v>
       </c>
       <c r="G114" t="n">
+        <v>374.5333333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>380.5666666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>385</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>375</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4821,24 +5421,27 @@
         <v>450.5513</v>
       </c>
       <c r="G115" t="n">
+        <v>374</v>
+      </c>
+      <c r="H115" t="n">
         <v>380.35</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>385</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>375</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4862,24 +5465,27 @@
         <v>172.1308</v>
       </c>
       <c r="G116" t="n">
+        <v>373.7333333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>380.0833333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>385</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>375</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4903,26 +5509,27 @@
         <v>91.8412</v>
       </c>
       <c r="G117" t="n">
+        <v>373.5333333333334</v>
+      </c>
+      <c r="H117" t="n">
         <v>379.8</v>
       </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>373</v>
-      </c>
-      <c r="K117" t="n">
-        <v>385</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>375</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,26 +5553,27 @@
         <v>127</v>
       </c>
       <c r="G118" t="n">
+        <v>373.1333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>379.5333333333334</v>
       </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>372</v>
-      </c>
-      <c r="K118" t="n">
-        <v>385</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>375</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4989,26 +5597,27 @@
         <v>23.9123</v>
       </c>
       <c r="G119" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="H119" t="n">
         <v>379.2666666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>373</v>
-      </c>
-      <c r="K119" t="n">
-        <v>385</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>375</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5032,24 +5641,27 @@
         <v>2119.0943</v>
       </c>
       <c r="G120" t="n">
+        <v>373.1333333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>379.0833333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>385</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>375</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5073,24 +5685,27 @@
         <v>87</v>
       </c>
       <c r="G121" t="n">
+        <v>373.2</v>
+      </c>
+      <c r="H121" t="n">
         <v>378.95</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>385</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>375</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5114,24 +5729,27 @@
         <v>858.1083</v>
       </c>
       <c r="G122" t="n">
+        <v>372.9333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>378.7666666666667</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>385</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>375</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5155,24 +5773,27 @@
         <v>9195.921399999999</v>
       </c>
       <c r="G123" t="n">
+        <v>373.0666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>378.6</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>385</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>375</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5196,24 +5817,27 @@
         <v>428.0915</v>
       </c>
       <c r="G124" t="n">
+        <v>373.2</v>
+      </c>
+      <c r="H124" t="n">
         <v>378.4333333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>385</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>375</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5237,24 +5861,27 @@
         <v>1478.7089</v>
       </c>
       <c r="G125" t="n">
+        <v>373.4</v>
+      </c>
+      <c r="H125" t="n">
         <v>378.2833333333334</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>385</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>375</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,24 +5905,27 @@
         <v>1890.4717</v>
       </c>
       <c r="G126" t="n">
+        <v>373.4666666666666</v>
+      </c>
+      <c r="H126" t="n">
         <v>378.0666666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>385</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>375</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5319,24 +5949,27 @@
         <v>15</v>
       </c>
       <c r="G127" t="n">
+        <v>373.5333333333334</v>
+      </c>
+      <c r="H127" t="n">
         <v>377.8</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>385</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>375</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5360,24 +5993,27 @@
         <v>15</v>
       </c>
       <c r="G128" t="n">
+        <v>373.6666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>377.5166666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>385</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>375</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5401,24 +6037,27 @@
         <v>133.3117</v>
       </c>
       <c r="G129" t="n">
+        <v>374</v>
+      </c>
+      <c r="H129" t="n">
         <v>377.3333333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>385</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>375</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5442,24 +6081,27 @@
         <v>166.8526</v>
       </c>
       <c r="G130" t="n">
+        <v>374.2666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>377.1</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>385</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>375</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5483,24 +6125,27 @@
         <v>133.3117</v>
       </c>
       <c r="G131" t="n">
+        <v>374.4</v>
+      </c>
+      <c r="H131" t="n">
         <v>376.8666666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>385</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>375</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5524,24 +6169,27 @@
         <v>12317.8249</v>
       </c>
       <c r="G132" t="n">
+        <v>374.8</v>
+      </c>
+      <c r="H132" t="n">
         <v>376.75</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>385</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>375</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5565,24 +6213,27 @@
         <v>444</v>
       </c>
       <c r="G133" t="n">
+        <v>374.9333333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>376.5</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>385</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>375</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5606,24 +6257,27 @@
         <v>7.1982</v>
       </c>
       <c r="G134" t="n">
+        <v>375.5333333333334</v>
+      </c>
+      <c r="H134" t="n">
         <v>376.3666666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>385</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>375</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5647,24 +6301,27 @@
         <v>406.7107</v>
       </c>
       <c r="G135" t="n">
+        <v>376.0666666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>376.35</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>385</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>375</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5688,24 +6345,27 @@
         <v>46.0712</v>
       </c>
       <c r="G136" t="n">
+        <v>376.8666666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>376.4333333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>385</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>375</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5729,24 +6389,27 @@
         <v>161.9678</v>
       </c>
       <c r="G137" t="n">
+        <v>378</v>
+      </c>
+      <c r="H137" t="n">
         <v>376.6</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>385</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>375</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5770,24 +6433,27 @@
         <v>7995.9508</v>
       </c>
       <c r="G138" t="n">
+        <v>379</v>
+      </c>
+      <c r="H138" t="n">
         <v>376.7333333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>385</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>375</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5811,24 +6477,27 @@
         <v>2028.4389</v>
       </c>
       <c r="G139" t="n">
+        <v>380</v>
+      </c>
+      <c r="H139" t="n">
         <v>376.9333333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>385</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>375</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5852,24 +6521,27 @@
         <v>3588.6601</v>
       </c>
       <c r="G140" t="n">
+        <v>381</v>
+      </c>
+      <c r="H140" t="n">
         <v>377.1833333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>385</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>375</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5893,24 +6565,27 @@
         <v>2127.5781</v>
       </c>
       <c r="G141" t="n">
+        <v>382.2</v>
+      </c>
+      <c r="H141" t="n">
         <v>377.3833333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>385</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>375</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5934,24 +6609,27 @@
         <v>6318.4533</v>
       </c>
       <c r="G142" t="n">
+        <v>383.4</v>
+      </c>
+      <c r="H142" t="n">
         <v>377.5666666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>385</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>375</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5975,24 +6653,27 @@
         <v>108.9948</v>
       </c>
       <c r="G143" t="n">
+        <v>384.5333333333334</v>
+      </c>
+      <c r="H143" t="n">
         <v>377.8</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>385</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>375</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6016,24 +6697,27 @@
         <v>1956.4446</v>
       </c>
       <c r="G144" t="n">
+        <v>385.4666666666666</v>
+      </c>
+      <c r="H144" t="n">
         <v>378.05</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>385</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>375</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6057,24 +6741,27 @@
         <v>5652.7369</v>
       </c>
       <c r="G145" t="n">
+        <v>386.6</v>
+      </c>
+      <c r="H145" t="n">
         <v>378.3166666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>385</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>375</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6098,24 +6785,27 @@
         <v>26843.401</v>
       </c>
       <c r="G146" t="n">
+        <v>388.0666666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>378.6666666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>385</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>375</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6139,25 +6829,28 @@
         <v>2589.6089</v>
       </c>
       <c r="G147" t="n">
+        <v>389.2</v>
+      </c>
+      <c r="H147" t="n">
         <v>378.9666666666666</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>385</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1.020974025974026</v>
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>375</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -6180,18 +6873,27 @@
         <v>7279.9005</v>
       </c>
       <c r="G148" t="n">
+        <v>390.4666666666666</v>
+      </c>
+      <c r="H148" t="n">
         <v>379.25</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
-        <v>1</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>375</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6215,19 +6917,28 @@
         <v>89</v>
       </c>
       <c r="G149" t="n">
+        <v>391.3333333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>379.5333333333334</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
+      <c r="L149" t="n">
+        <v>375</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>1.048333333333333</v>
       </c>
     </row>
     <row r="150">
@@ -6250,18 +6961,401 @@
         <v>420</v>
       </c>
       <c r="G150" t="n">
+        <v>391.9333333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>379.85</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>396</v>
+      </c>
+      <c r="C151" t="n">
+        <v>394</v>
+      </c>
+      <c r="D151" t="n">
+        <v>398</v>
+      </c>
+      <c r="E151" t="n">
+        <v>394</v>
+      </c>
+      <c r="F151" t="n">
+        <v>11651.0271</v>
+      </c>
+      <c r="G151" t="n">
+        <v>392.4</v>
+      </c>
+      <c r="H151" t="n">
+        <v>380.05</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>394</v>
+      </c>
+      <c r="C152" t="n">
+        <v>396</v>
+      </c>
+      <c r="D152" t="n">
+        <v>396</v>
+      </c>
+      <c r="E152" t="n">
+        <v>390</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2050.0654</v>
+      </c>
+      <c r="G152" t="n">
+        <v>393</v>
+      </c>
+      <c r="H152" t="n">
+        <v>380.2833333333334</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>395</v>
+      </c>
+      <c r="C153" t="n">
+        <v>396</v>
+      </c>
+      <c r="D153" t="n">
+        <v>396</v>
+      </c>
+      <c r="E153" t="n">
+        <v>393</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2430.6989</v>
+      </c>
+      <c r="G153" t="n">
+        <v>393.4</v>
+      </c>
+      <c r="H153" t="n">
+        <v>380.5333333333334</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>394</v>
+      </c>
+      <c r="C154" t="n">
+        <v>395</v>
+      </c>
+      <c r="D154" t="n">
+        <v>396</v>
+      </c>
+      <c r="E154" t="n">
+        <v>390</v>
+      </c>
+      <c r="F154" t="n">
+        <v>9797.756600000001</v>
+      </c>
+      <c r="G154" t="n">
+        <v>393.7333333333333</v>
+      </c>
+      <c r="H154" t="n">
+        <v>380.7666666666667</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>389</v>
+      </c>
+      <c r="C155" t="n">
+        <v>391</v>
+      </c>
+      <c r="D155" t="n">
+        <v>394</v>
+      </c>
+      <c r="E155" t="n">
+        <v>388</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3108.9211</v>
+      </c>
+      <c r="G155" t="n">
+        <v>393.7333333333333</v>
+      </c>
+      <c r="H155" t="n">
+        <v>380.9833333333333</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>389</v>
+      </c>
+      <c r="C156" t="n">
+        <v>389</v>
+      </c>
+      <c r="D156" t="n">
+        <v>390</v>
+      </c>
+      <c r="E156" t="n">
+        <v>389</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1414.1999</v>
+      </c>
+      <c r="G156" t="n">
+        <v>393.6666666666667</v>
+      </c>
+      <c r="H156" t="n">
+        <v>381.1666666666667</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>387</v>
+      </c>
+      <c r="C157" t="n">
+        <v>390</v>
+      </c>
+      <c r="D157" t="n">
+        <v>390</v>
+      </c>
+      <c r="E157" t="n">
+        <v>386</v>
+      </c>
+      <c r="F157" t="n">
+        <v>8066.6737</v>
+      </c>
+      <c r="G157" t="n">
+        <v>393.5333333333334</v>
+      </c>
+      <c r="H157" t="n">
+        <v>381.4333333333333</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>389</v>
+      </c>
+      <c r="C158" t="n">
+        <v>389</v>
+      </c>
+      <c r="D158" t="n">
+        <v>389</v>
+      </c>
+      <c r="E158" t="n">
+        <v>389</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2267.4766</v>
+      </c>
+      <c r="G158" t="n">
+        <v>393.4</v>
+      </c>
+      <c r="H158" t="n">
+        <v>381.6</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>389</v>
+      </c>
+      <c r="C159" t="n">
+        <v>389</v>
+      </c>
+      <c r="D159" t="n">
+        <v>390</v>
+      </c>
+      <c r="E159" t="n">
+        <v>389</v>
+      </c>
+      <c r="F159" t="n">
+        <v>4254.7892</v>
+      </c>
+      <c r="G159" t="n">
+        <v>393.2</v>
+      </c>
+      <c r="H159" t="n">
+        <v>381.8</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>389</v>
+      </c>
+      <c r="C160" t="n">
+        <v>389</v>
+      </c>
+      <c r="D160" t="n">
+        <v>389</v>
+      </c>
+      <c r="E160" t="n">
+        <v>389</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1611.4633</v>
+      </c>
+      <c r="G160" t="n">
+        <v>393</v>
+      </c>
+      <c r="H160" t="n">
+        <v>381.9666666666666</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-18 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-18 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M189"/>
+  <dimension ref="A1:N147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="C2" t="n">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="D2" t="n">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="E2" t="n">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="F2" t="n">
-        <v>220</v>
+        <v>5348.2509</v>
       </c>
       <c r="G2" t="n">
-        <v>11221.5465</v>
+        <v>382</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,273 +467,323 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="C3" t="n">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="D3" t="n">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="E3" t="n">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="F3" t="n">
-        <v>1922</v>
+        <v>7957.47321324</v>
       </c>
       <c r="G3" t="n">
-        <v>11221.5465</v>
+        <v>381</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>381</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="C4" t="n">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="D4" t="n">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="E4" t="n">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="F4" t="n">
-        <v>925.1208</v>
+        <v>7055.41288676</v>
       </c>
       <c r="G4" t="n">
-        <v>11221.5465</v>
+        <v>383</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>381</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="C5" t="n">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="D5" t="n">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="E5" t="n">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="F5" t="n">
-        <v>571</v>
+        <v>4897</v>
       </c>
       <c r="G5" t="n">
-        <v>11792.5465</v>
+        <v>383.5</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>385</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="C6" t="n">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="D6" t="n">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="E6" t="n">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>3126.0734</v>
       </c>
       <c r="G6" t="n">
-        <v>11742.5465</v>
+        <v>382</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>382</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="C7" t="n">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="D7" t="n">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="E7" t="n">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="F7" t="n">
-        <v>740</v>
+        <v>4435.23499357</v>
       </c>
       <c r="G7" t="n">
-        <v>12482.5465</v>
+        <v>382</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>382</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="C8" t="n">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="D8" t="n">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="E8" t="n">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="F8" t="n">
-        <v>7670.9511</v>
+        <v>50</v>
       </c>
       <c r="G8" t="n">
-        <v>4811.595399999997</v>
+        <v>383.5</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>382</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="C9" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="D9" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="E9" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="F9" t="n">
-        <v>316.8434</v>
+        <v>28</v>
       </c>
       <c r="G9" t="n">
-        <v>5128.438799999996</v>
+        <v>384</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>385</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="C10" t="n">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="D10" t="n">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="E10" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="F10" t="n">
-        <v>341.0594</v>
+        <v>245.1417</v>
       </c>
       <c r="G10" t="n">
-        <v>5128.438799999996</v>
+        <v>384.5</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -737,78 +792,82 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>372</v>
-      </c>
-      <c r="K10" t="n">
-        <v>372</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
+        <v>383</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="C11" t="n">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="D11" t="n">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="E11" t="n">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="F11" t="n">
-        <v>1007.0816</v>
+        <v>2913.9994</v>
       </c>
       <c r="G11" t="n">
-        <v>4121.357199999997</v>
+        <v>386.5</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>372</v>
-      </c>
+      <c r="J11" t="n">
+        <v>386</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="C12" t="n">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="D12" t="n">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="E12" t="n">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="F12" t="n">
-        <v>1508</v>
+        <v>212.4112</v>
       </c>
       <c r="G12" t="n">
-        <v>4121.357199999997</v>
+        <v>385.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -817,39 +876,38 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>372</v>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="C13" t="n">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="D13" t="n">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="E13" t="n">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="F13" t="n">
-        <v>220</v>
+        <v>466</v>
       </c>
       <c r="G13" t="n">
-        <v>4121.357199999997</v>
+        <v>386</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -859,32 +917,37 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="C14" t="n">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="D14" t="n">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="E14" t="n">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="F14" t="n">
-        <v>220</v>
+        <v>2166.4963</v>
       </c>
       <c r="G14" t="n">
-        <v>4121.357199999997</v>
+        <v>388.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -894,83 +957,85 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="C15" t="n">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="D15" t="n">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="E15" t="n">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="F15" t="n">
-        <v>3421.8348</v>
+        <v>2265.36090643</v>
       </c>
       <c r="G15" t="n">
-        <v>699.5223999999967</v>
+        <v>389</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>371</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="C16" t="n">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="D16" t="n">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="E16" t="n">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="F16" t="n">
-        <v>1.4</v>
+        <v>2331.28099357</v>
       </c>
       <c r="G16" t="n">
-        <v>700.9223999999966</v>
+        <v>389</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>369</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
@@ -980,38 +1045,37 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="C17" t="n">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="D17" t="n">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="E17" t="n">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="F17" t="n">
-        <v>770</v>
+        <v>2596.4657</v>
       </c>
       <c r="G17" t="n">
-        <v>1470.922399999997</v>
+        <v>389</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>371</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
@@ -1021,38 +1085,37 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="C18" t="n">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D18" t="n">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="E18" t="n">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="F18" t="n">
-        <v>130</v>
+        <v>391.6872</v>
       </c>
       <c r="G18" t="n">
-        <v>1600.922399999997</v>
+        <v>387.5</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>372</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
@@ -1062,28 +1125,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="C19" t="n">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="D19" t="n">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="E19" t="n">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="F19" t="n">
-        <v>263.0845</v>
+        <v>81</v>
       </c>
       <c r="G19" t="n">
-        <v>1337.837899999997</v>
+        <v>386</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1101,28 +1165,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="C20" t="n">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="D20" t="n">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="E20" t="n">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="F20" t="n">
-        <v>1569.419</v>
+        <v>1142.7117</v>
       </c>
       <c r="G20" t="n">
-        <v>-231.5811000000033</v>
+        <v>385</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1140,28 +1205,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="C21" t="n">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="D21" t="n">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E21" t="n">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="F21" t="n">
-        <v>329.99</v>
+        <v>208</v>
       </c>
       <c r="G21" t="n">
-        <v>-231.5811000000033</v>
+        <v>384.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1179,28 +1245,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="C22" t="n">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="D22" t="n">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="E22" t="n">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>2425.3249</v>
       </c>
       <c r="G22" t="n">
-        <v>-229.5811000000033</v>
+        <v>383</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1218,28 +1285,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="C23" t="n">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="D23" t="n">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="E23" t="n">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="F23" t="n">
-        <v>853</v>
+        <v>4548.2854</v>
       </c>
       <c r="G23" t="n">
-        <v>-1082.581100000003</v>
+        <v>381.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1257,28 +1325,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="C24" t="n">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="D24" t="n">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="E24" t="n">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="F24" t="n">
-        <v>6.7204301</v>
+        <v>548.7564</v>
       </c>
       <c r="G24" t="n">
-        <v>-1075.860669900003</v>
+        <v>384</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1296,28 +1365,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="C25" t="n">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="D25" t="n">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="E25" t="n">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="F25" t="n">
-        <v>6.72</v>
+        <v>1580.9147</v>
       </c>
       <c r="G25" t="n">
-        <v>-1082.580669900003</v>
+        <v>386.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1335,28 +1405,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C26" t="n">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="D26" t="n">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="E26" t="n">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="F26" t="n">
-        <v>1.4</v>
+        <v>7694.0787</v>
       </c>
       <c r="G26" t="n">
-        <v>-1081.180669900003</v>
+        <v>384</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1374,28 +1445,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C27" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="D27" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="E27" t="n">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="F27" t="n">
-        <v>2743.8998</v>
+        <v>2369.2982</v>
       </c>
       <c r="G27" t="n">
-        <v>1662.719130099997</v>
+        <v>381</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1413,38 +1485,37 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="C28" t="n">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="D28" t="n">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="E28" t="n">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="F28" t="n">
-        <v>8147.8319</v>
+        <v>2286.8328</v>
       </c>
       <c r="G28" t="n">
-        <v>9810.551030099998</v>
+        <v>381</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>373</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
@@ -1454,28 +1525,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="C29" t="n">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="D29" t="n">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="E29" t="n">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="F29" t="n">
-        <v>3636.2315</v>
+        <v>932.4071</v>
       </c>
       <c r="G29" t="n">
-        <v>9810.551030099998</v>
+        <v>382</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1493,38 +1565,37 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="C30" t="n">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="D30" t="n">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="E30" t="n">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="F30" t="n">
-        <v>7.8948</v>
+        <v>1031.605</v>
       </c>
       <c r="G30" t="n">
-        <v>9802.656230099998</v>
+        <v>382.5</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>374</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
@@ -1534,38 +1605,37 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C31" t="n">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D31" t="n">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="E31" t="n">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="F31" t="n">
-        <v>1.4</v>
+        <v>1874.5248</v>
       </c>
       <c r="G31" t="n">
-        <v>9804.056230099997</v>
+        <v>382</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>370</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
@@ -1575,28 +1645,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="C32" t="n">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="D32" t="n">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="E32" t="n">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F32" t="n">
-        <v>1883.3258</v>
+        <v>2913.9994</v>
       </c>
       <c r="G32" t="n">
-        <v>7920.730430099997</v>
+        <v>380</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1614,28 +1685,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C33" t="n">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="D33" t="n">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="E33" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F33" t="n">
-        <v>243.9935</v>
+        <v>142.9842</v>
       </c>
       <c r="G33" t="n">
-        <v>8164.723930099996</v>
+        <v>381.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1653,28 +1725,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C34" t="n">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="D34" t="n">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="E34" t="n">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="F34" t="n">
-        <v>1.4</v>
+        <v>3032.9</v>
       </c>
       <c r="G34" t="n">
-        <v>8166.123930099996</v>
+        <v>384.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1692,28 +1765,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="C35" t="n">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="D35" t="n">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="E35" t="n">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="F35" t="n">
-        <v>1402.0526</v>
+        <v>2959</v>
       </c>
       <c r="G35" t="n">
-        <v>8166.123930099996</v>
+        <v>384</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1731,38 +1805,37 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C36" t="n">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="D36" t="n">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="E36" t="n">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="F36" t="n">
-        <v>504.6205</v>
+        <v>923</v>
       </c>
       <c r="G36" t="n">
-        <v>8166.123930099996</v>
+        <v>384.5</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>374</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
@@ -1772,28 +1845,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C37" t="n">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="D37" t="n">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="E37" t="n">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="F37" t="n">
-        <v>1836.6837</v>
+        <v>2030.2483</v>
       </c>
       <c r="G37" t="n">
-        <v>10002.8076301</v>
+        <v>385.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1811,28 +1885,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C38" t="n">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="D38" t="n">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E38" t="n">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F38" t="n">
-        <v>860</v>
+        <v>2447.6139</v>
       </c>
       <c r="G38" t="n">
-        <v>10002.8076301</v>
+        <v>387</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1850,28 +1925,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="C39" t="n">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="D39" t="n">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="E39" t="n">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F39" t="n">
-        <v>1010</v>
+        <v>8772.56800643</v>
       </c>
       <c r="G39" t="n">
-        <v>10002.8076301</v>
+        <v>388.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1889,28 +1965,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="C40" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D40" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="E40" t="n">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F40" t="n">
-        <v>11765.3933</v>
+        <v>2815.6225</v>
       </c>
       <c r="G40" t="n">
-        <v>21768.2009301</v>
+        <v>386.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1928,28 +2005,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="C41" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D41" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="E41" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F41" t="n">
-        <v>90</v>
+        <v>2484.0378</v>
       </c>
       <c r="G41" t="n">
-        <v>21768.2009301</v>
+        <v>384</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1967,28 +2045,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C42" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D42" t="n">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="E42" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F42" t="n">
-        <v>204</v>
+        <v>4075.0191803</v>
       </c>
       <c r="G42" t="n">
-        <v>21972.2009301</v>
+        <v>384</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2006,28 +2085,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C43" t="n">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D43" t="n">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="E43" t="n">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="F43" t="n">
-        <v>4840.6341</v>
+        <v>200</v>
       </c>
       <c r="G43" t="n">
-        <v>26812.8350301</v>
+        <v>386.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2045,28 +2125,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C44" t="n">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="D44" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E44" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F44" t="n">
-        <v>5348.2509</v>
+        <v>2641.105</v>
       </c>
       <c r="G44" t="n">
-        <v>21464.5841301</v>
+        <v>389</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2084,28 +2165,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>390</v>
+      </c>
+      <c r="C45" t="n">
+        <v>389</v>
+      </c>
+      <c r="D45" t="n">
+        <v>390</v>
+      </c>
+      <c r="E45" t="n">
         <v>384</v>
       </c>
-      <c r="C45" t="n">
-        <v>381</v>
-      </c>
-      <c r="D45" t="n">
-        <v>385</v>
-      </c>
-      <c r="E45" t="n">
-        <v>381</v>
-      </c>
       <c r="F45" t="n">
-        <v>7957.47321324</v>
+        <v>737.9835</v>
       </c>
       <c r="G45" t="n">
-        <v>21464.5841301</v>
+        <v>389</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2123,162 +2205,153 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C46" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D46" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E46" t="n">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="F46" t="n">
-        <v>7055.41288676</v>
+        <v>497</v>
       </c>
       <c r="G46" t="n">
-        <v>28519.99701686</v>
+        <v>389</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C47" t="n">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="D47" t="n">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="E47" t="n">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="F47" t="n">
-        <v>4897</v>
+        <v>1789.7048</v>
       </c>
       <c r="G47" t="n">
-        <v>23622.99701686</v>
+        <v>389.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>387</v>
+      </c>
+      <c r="C48" t="n">
         <v>383</v>
       </c>
-      <c r="C48" t="n">
-        <v>382</v>
-      </c>
       <c r="D48" t="n">
+        <v>387</v>
+      </c>
+      <c r="E48" t="n">
         <v>383</v>
       </c>
-      <c r="E48" t="n">
-        <v>382</v>
-      </c>
       <c r="F48" t="n">
-        <v>3126.0734</v>
+        <v>1294</v>
       </c>
       <c r="G48" t="n">
-        <v>23622.99701686</v>
+        <v>386.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C49" t="n">
+        <v>381</v>
+      </c>
+      <c r="D49" t="n">
+        <v>388</v>
+      </c>
+      <c r="E49" t="n">
+        <v>381</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1435.5346</v>
+      </c>
+      <c r="G49" t="n">
         <v>382</v>
       </c>
-      <c r="D49" t="n">
-        <v>389</v>
-      </c>
-      <c r="E49" t="n">
-        <v>382</v>
-      </c>
-      <c r="F49" t="n">
-        <v>4435.23499357</v>
-      </c>
-      <c r="G49" t="n">
-        <v>23622.99701686</v>
-      </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2291,16 +2364,16 @@
         <v>385</v>
       </c>
       <c r="D50" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E50" t="n">
         <v>385</v>
       </c>
       <c r="F50" t="n">
-        <v>50</v>
+        <v>745</v>
       </c>
       <c r="G50" t="n">
-        <v>23672.99701686</v>
+        <v>383</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2310,36 +2383,33 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C51" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D51" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E51" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F51" t="n">
-        <v>28</v>
+        <v>81.51730000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>23644.99701686</v>
+        <v>385</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2349,36 +2419,33 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C52" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D52" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E52" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F52" t="n">
-        <v>245.1417</v>
+        <v>624.8887999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>23890.13871686</v>
+        <v>385</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2388,36 +2455,33 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C53" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D53" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E53" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F53" t="n">
-        <v>2913.9994</v>
+        <v>2156.9927</v>
       </c>
       <c r="G53" t="n">
-        <v>26804.13811686</v>
+        <v>385</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2427,99 +2491,90 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C54" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D54" t="n">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="E54" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F54" t="n">
-        <v>212.4112</v>
+        <v>10259.3689</v>
       </c>
       <c r="G54" t="n">
-        <v>26591.72691686</v>
+        <v>387.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C55" t="n">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D55" t="n">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E55" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F55" t="n">
-        <v>466</v>
+        <v>1001.8739</v>
       </c>
       <c r="G55" t="n">
-        <v>27057.72691686</v>
+        <v>390.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C56" t="n">
         <v>389</v>
@@ -2528,30 +2583,27 @@
         <v>389</v>
       </c>
       <c r="E56" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F56" t="n">
-        <v>2166.4963</v>
+        <v>43.3455</v>
       </c>
       <c r="G56" t="n">
-        <v>29224.22321686</v>
+        <v>390</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2570,27 +2622,24 @@
         <v>389</v>
       </c>
       <c r="F57" t="n">
-        <v>2265.36090643</v>
+        <v>673.8638</v>
       </c>
       <c r="G57" t="n">
-        <v>29224.22321686</v>
+        <v>389</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2603,250 +2652,232 @@
         <v>389</v>
       </c>
       <c r="D58" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E58" t="n">
         <v>389</v>
       </c>
       <c r="F58" t="n">
-        <v>2331.28099357</v>
+        <v>758</v>
       </c>
       <c r="G58" t="n">
-        <v>29224.22321686</v>
+        <v>389</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C59" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D59" t="n">
         <v>389</v>
       </c>
       <c r="E59" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F59" t="n">
-        <v>2596.4657</v>
+        <v>201.5893</v>
       </c>
       <c r="G59" t="n">
-        <v>29224.22321686</v>
+        <v>387</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C60" t="n">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D60" t="n">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E60" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F60" t="n">
-        <v>391.6872</v>
+        <v>109.5893</v>
       </c>
       <c r="G60" t="n">
-        <v>28832.53601686</v>
+        <v>387.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C61" t="n">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D61" t="n">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E61" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F61" t="n">
-        <v>81</v>
+        <v>1467.6168</v>
       </c>
       <c r="G61" t="n">
-        <v>28832.53601686</v>
+        <v>390</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C62" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D62" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E62" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F62" t="n">
-        <v>1142.7117</v>
+        <v>5307.3045</v>
       </c>
       <c r="G62" t="n">
-        <v>27689.82431686</v>
+        <v>389</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>382</v>
+      </c>
+      <c r="C63" t="n">
+        <v>382</v>
+      </c>
+      <c r="D63" t="n">
+        <v>382</v>
+      </c>
+      <c r="E63" t="n">
+        <v>382</v>
+      </c>
+      <c r="F63" t="n">
+        <v>510.3189</v>
+      </c>
+      <c r="G63" t="n">
         <v>385</v>
       </c>
-      <c r="C63" t="n">
-        <v>385</v>
-      </c>
-      <c r="D63" t="n">
-        <v>385</v>
-      </c>
-      <c r="E63" t="n">
-        <v>385</v>
-      </c>
-      <c r="F63" t="n">
-        <v>208</v>
-      </c>
-      <c r="G63" t="n">
-        <v>27897.82431686</v>
-      </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C64" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D64" t="n">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E64" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F64" t="n">
-        <v>2425.3249</v>
+        <v>2131.8143</v>
       </c>
       <c r="G64" t="n">
-        <v>25472.49941686</v>
+        <v>379.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2856,36 +2887,33 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C65" t="n">
         <v>382</v>
       </c>
       <c r="D65" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E65" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F65" t="n">
-        <v>4548.2854</v>
+        <v>3338.4503</v>
       </c>
       <c r="G65" t="n">
-        <v>30020.78481686</v>
+        <v>379.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2895,36 +2923,33 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C66" t="n">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D66" t="n">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E66" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F66" t="n">
-        <v>548.7564</v>
+        <v>127</v>
       </c>
       <c r="G66" t="n">
-        <v>30569.54121686</v>
+        <v>380</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2934,36 +2959,33 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C67" t="n">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="D67" t="n">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="E67" t="n">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F67" t="n">
-        <v>1580.9147</v>
+        <v>106.2962</v>
       </c>
       <c r="G67" t="n">
-        <v>32150.45591686</v>
+        <v>377</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2973,36 +2995,33 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C68" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D68" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E68" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F68" t="n">
-        <v>7694.0787</v>
+        <v>422</v>
       </c>
       <c r="G68" t="n">
-        <v>24456.37721686</v>
+        <v>377</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3012,21 +3031,18 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C69" t="n">
         <v>381</v>
@@ -3035,13 +3051,13 @@
         <v>381</v>
       </c>
       <c r="E69" t="n">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F69" t="n">
-        <v>2369.2982</v>
+        <v>3155.348</v>
       </c>
       <c r="G69" t="n">
-        <v>24456.37721686</v>
+        <v>379.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3051,36 +3067,33 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C70" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D70" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E70" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F70" t="n">
-        <v>2286.8328</v>
+        <v>127.596</v>
       </c>
       <c r="G70" t="n">
-        <v>24456.37721686</v>
+        <v>379</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3090,36 +3103,33 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C71" t="n">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D71" t="n">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E71" t="n">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F71" t="n">
-        <v>932.4071</v>
+        <v>300</v>
       </c>
       <c r="G71" t="n">
-        <v>25388.78431686</v>
+        <v>377</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3129,36 +3139,33 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C72" t="n">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D72" t="n">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E72" t="n">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F72" t="n">
-        <v>1031.605</v>
+        <v>1150</v>
       </c>
       <c r="G72" t="n">
-        <v>24357.17931686</v>
+        <v>376.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3168,36 +3175,33 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C73" t="n">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D73" t="n">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E73" t="n">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F73" t="n">
-        <v>1874.5248</v>
+        <v>50</v>
       </c>
       <c r="G73" t="n">
-        <v>24357.17931686</v>
+        <v>376</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3207,36 +3211,33 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C74" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D74" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E74" t="n">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F74" t="n">
-        <v>2913.9994</v>
+        <v>946</v>
       </c>
       <c r="G74" t="n">
-        <v>21443.17991686</v>
+        <v>376.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3246,75 +3247,73 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C75" t="n">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D75" t="n">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E75" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F75" t="n">
-        <v>142.9842</v>
+        <v>2624.3795</v>
       </c>
       <c r="G75" t="n">
-        <v>21586.16411686</v>
+        <v>377</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="n">
+        <v>377</v>
+      </c>
+      <c r="K75" t="n">
+        <v>377</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C76" t="n">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D76" t="n">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E76" t="n">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F76" t="n">
-        <v>3032.9</v>
+        <v>145.9212</v>
       </c>
       <c r="G76" t="n">
-        <v>18553.26411685999</v>
+        <v>377.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3323,46 +3322,53 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>377</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C77" t="n">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D77" t="n">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E77" t="n">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F77" t="n">
-        <v>2959</v>
+        <v>16.9979</v>
       </c>
       <c r="G77" t="n">
-        <v>18553.26411685999</v>
+        <v>377.5</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>378</v>
+      </c>
+      <c r="K77" t="n">
+        <v>377</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3371,28 +3377,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C78" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D78" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E78" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F78" t="n">
-        <v>923</v>
+        <v>1.4</v>
       </c>
       <c r="G78" t="n">
-        <v>19476.26411685999</v>
+        <v>379.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3401,7 +3408,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>377</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3410,28 +3419,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C79" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D79" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E79" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F79" t="n">
-        <v>2030.2483</v>
+        <v>2000</v>
       </c>
       <c r="G79" t="n">
-        <v>21506.51241685999</v>
+        <v>382</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3440,7 +3450,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>377</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3449,28 +3461,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C80" t="n">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D80" t="n">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E80" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F80" t="n">
-        <v>2447.6139</v>
+        <v>1000</v>
       </c>
       <c r="G80" t="n">
-        <v>23954.12631685999</v>
+        <v>381.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3479,7 +3492,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>377</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3488,28 +3503,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C81" t="n">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D81" t="n">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="E81" t="n">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F81" t="n">
-        <v>8772.56800643</v>
+        <v>337</v>
       </c>
       <c r="G81" t="n">
-        <v>32726.69432328999</v>
+        <v>381</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3518,7 +3534,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>377</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3527,28 +3545,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C82" t="n">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D82" t="n">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="E82" t="n">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F82" t="n">
-        <v>2815.6225</v>
+        <v>617.4453999999999</v>
       </c>
       <c r="G82" t="n">
-        <v>29911.07182328999</v>
+        <v>379.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3557,7 +3576,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>377</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3566,37 +3587,42 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C83" t="n">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D83" t="n">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="E83" t="n">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F83" t="n">
-        <v>2484.0378</v>
+        <v>177.0083</v>
       </c>
       <c r="G83" t="n">
-        <v>29911.07182328999</v>
+        <v>378</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>378</v>
+      </c>
+      <c r="K83" t="n">
+        <v>377</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3605,28 +3631,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C84" t="n">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D84" t="n">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="E84" t="n">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F84" t="n">
-        <v>4075.0191803</v>
+        <v>3509.3255</v>
       </c>
       <c r="G84" t="n">
-        <v>29911.07182328999</v>
+        <v>376</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3635,7 +3662,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>377</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3644,37 +3673,42 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C85" t="n">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D85" t="n">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="E85" t="n">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="F85" t="n">
-        <v>200</v>
+        <v>1.32</v>
       </c>
       <c r="G85" t="n">
-        <v>30111.07182328999</v>
+        <v>376.5</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>374</v>
+      </c>
+      <c r="K85" t="n">
+        <v>377</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3683,28 +3717,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C86" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D86" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="E86" t="n">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F86" t="n">
-        <v>2641.105</v>
+        <v>152</v>
       </c>
       <c r="G86" t="n">
-        <v>30111.07182328999</v>
+        <v>378</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3713,7 +3748,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>377</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3722,37 +3759,42 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C87" t="n">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D87" t="n">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="E87" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F87" t="n">
-        <v>737.9835</v>
+        <v>2.0334</v>
       </c>
       <c r="G87" t="n">
-        <v>30111.07182328999</v>
+        <v>378</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>377</v>
+      </c>
+      <c r="K87" t="n">
+        <v>377</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3761,28 +3803,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C88" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D88" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="E88" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="F88" t="n">
-        <v>497</v>
+        <v>133.5021</v>
       </c>
       <c r="G88" t="n">
-        <v>30111.07182328999</v>
+        <v>378</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3791,7 +3834,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>377</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3800,28 +3845,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C89" t="n">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="D89" t="n">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="E89" t="n">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="F89" t="n">
-        <v>1789.7048</v>
+        <v>420</v>
       </c>
       <c r="G89" t="n">
-        <v>31900.77662328999</v>
+        <v>376</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3830,7 +3876,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>377</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3839,28 +3887,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C90" t="n">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D90" t="n">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E90" t="n">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F90" t="n">
-        <v>1294</v>
+        <v>1.32</v>
       </c>
       <c r="G90" t="n">
-        <v>30606.77662328999</v>
+        <v>377</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3869,7 +3918,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>377</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3878,37 +3929,42 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C91" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D91" t="n">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="E91" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F91" t="n">
-        <v>1435.5346</v>
+        <v>255.0533</v>
       </c>
       <c r="G91" t="n">
-        <v>29171.24202328999</v>
+        <v>378.5</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>379</v>
+      </c>
+      <c r="K91" t="n">
+        <v>377</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3917,28 +3973,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C92" t="n">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D92" t="n">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="E92" t="n">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="F92" t="n">
-        <v>745</v>
+        <v>759.0162</v>
       </c>
       <c r="G92" t="n">
-        <v>29916.24202328999</v>
+        <v>376</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3947,7 +4004,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>377</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3956,37 +4015,42 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C93" t="n">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D93" t="n">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E93" t="n">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="F93" t="n">
-        <v>81.51730000000001</v>
+        <v>1012.9999</v>
       </c>
       <c r="G93" t="n">
-        <v>29916.24202328999</v>
+        <v>374</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>374</v>
+      </c>
+      <c r="K93" t="n">
+        <v>377</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3995,28 +4059,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C94" t="n">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D94" t="n">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E94" t="n">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="F94" t="n">
-        <v>624.8887999999999</v>
+        <v>155</v>
       </c>
       <c r="G94" t="n">
-        <v>29916.24202328999</v>
+        <v>374</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4025,7 +4090,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>377</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4034,28 +4101,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C95" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="D95" t="n">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="E95" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F95" t="n">
-        <v>2156.9927</v>
+        <v>601.5001999999999</v>
       </c>
       <c r="G95" t="n">
-        <v>29916.24202328999</v>
+        <v>373.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4064,7 +4132,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>377</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4073,28 +4143,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C96" t="n">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="D96" t="n">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="E96" t="n">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="F96" t="n">
-        <v>10259.3689</v>
+        <v>135</v>
       </c>
       <c r="G96" t="n">
-        <v>40175.61092328999</v>
+        <v>373</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4103,7 +4174,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>377</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4112,37 +4185,42 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C97" t="n">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="D97" t="n">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="E97" t="n">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="F97" t="n">
-        <v>1001.8739</v>
+        <v>632.3253999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>41177.48482328999</v>
+        <v>373</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>373</v>
+      </c>
+      <c r="K97" t="n">
+        <v>377</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4151,28 +4229,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="C98" t="n">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="D98" t="n">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="E98" t="n">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="F98" t="n">
-        <v>43.3455</v>
+        <v>4</v>
       </c>
       <c r="G98" t="n">
-        <v>41134.13932328999</v>
+        <v>372</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4181,7 +4260,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>377</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4190,37 +4271,42 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="C99" t="n">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="D99" t="n">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="E99" t="n">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="F99" t="n">
-        <v>673.8638</v>
+        <v>3944.6819</v>
       </c>
       <c r="G99" t="n">
-        <v>41134.13932328999</v>
+        <v>372</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>371</v>
+      </c>
+      <c r="K99" t="n">
+        <v>377</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4229,37 +4315,42 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="C100" t="n">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="D100" t="n">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="E100" t="n">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="F100" t="n">
-        <v>758</v>
+        <v>185.977</v>
       </c>
       <c r="G100" t="n">
-        <v>41134.13932328999</v>
+        <v>372.5</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>373</v>
+      </c>
+      <c r="K100" t="n">
+        <v>377</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4268,37 +4359,42 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="C101" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="D101" t="n">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="E101" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F101" t="n">
-        <v>201.5893</v>
+        <v>1115.1911</v>
       </c>
       <c r="G101" t="n">
-        <v>40932.55002328999</v>
+        <v>372.5</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>372</v>
+      </c>
+      <c r="K101" t="n">
+        <v>377</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4307,37 +4403,42 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="C102" t="n">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="D102" t="n">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="E102" t="n">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="F102" t="n">
-        <v>109.5893</v>
+        <v>450.5513</v>
       </c>
       <c r="G102" t="n">
-        <v>41042.13932328999</v>
+        <v>372</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>373</v>
+      </c>
+      <c r="K102" t="n">
+        <v>377</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4346,37 +4447,42 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="C103" t="n">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="D103" t="n">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="E103" t="n">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="F103" t="n">
-        <v>1467.6168</v>
+        <v>172.1308</v>
       </c>
       <c r="G103" t="n">
-        <v>41042.13932328999</v>
+        <v>372</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>371</v>
+      </c>
+      <c r="K103" t="n">
+        <v>377</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4385,37 +4491,42 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C104" t="n">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="D104" t="n">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="E104" t="n">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F104" t="n">
-        <v>5307.3045</v>
+        <v>91.8412</v>
       </c>
       <c r="G104" t="n">
-        <v>35734.83482328999</v>
+        <v>372.5</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>373</v>
+      </c>
+      <c r="K104" t="n">
+        <v>377</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4424,37 +4535,42 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C105" t="n">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D105" t="n">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="E105" t="n">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="F105" t="n">
-        <v>510.3189</v>
+        <v>127</v>
       </c>
       <c r="G105" t="n">
-        <v>35224.51592328999</v>
+        <v>372.5</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>372</v>
+      </c>
+      <c r="K105" t="n">
+        <v>377</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4463,37 +4579,42 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C106" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D106" t="n">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E106" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F106" t="n">
-        <v>2131.8143</v>
+        <v>23.9123</v>
       </c>
       <c r="G106" t="n">
-        <v>33092.70162328999</v>
+        <v>373</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>373</v>
+      </c>
+      <c r="K106" t="n">
+        <v>377</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4502,37 +4623,42 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C107" t="n">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D107" t="n">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E107" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F107" t="n">
-        <v>3338.4503</v>
+        <v>2119.0943</v>
       </c>
       <c r="G107" t="n">
-        <v>36431.15192328999</v>
+        <v>376</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>373</v>
+      </c>
+      <c r="K107" t="n">
+        <v>377</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4541,37 +4667,42 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C108" t="n">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D108" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E108" t="n">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F108" t="n">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="G108" t="n">
-        <v>36304.15192328999</v>
+        <v>377</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>379</v>
+      </c>
+      <c r="K108" t="n">
+        <v>377</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4580,28 +4711,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C109" t="n">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D109" t="n">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E109" t="n">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F109" t="n">
-        <v>106.2962</v>
+        <v>858.1083</v>
       </c>
       <c r="G109" t="n">
-        <v>36197.85572328999</v>
+        <v>372.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4610,7 +4742,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>377</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4619,37 +4753,42 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C110" t="n">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D110" t="n">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E110" t="n">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F110" t="n">
-        <v>422</v>
+        <v>9195.921399999999</v>
       </c>
       <c r="G110" t="n">
-        <v>36619.85572328999</v>
+        <v>372.5</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>370</v>
+      </c>
+      <c r="K110" t="n">
+        <v>377</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4658,6 +4797,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4667,19 +4807,19 @@
         <v>375</v>
       </c>
       <c r="C111" t="n">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D111" t="n">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E111" t="n">
         <v>375</v>
       </c>
       <c r="F111" t="n">
-        <v>3155.348</v>
+        <v>428.0915</v>
       </c>
       <c r="G111" t="n">
-        <v>39775.20372328999</v>
+        <v>375</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4688,7 +4828,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>377</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4697,28 +4839,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C112" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D112" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E112" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F112" t="n">
-        <v>127.596</v>
+        <v>1478.7089</v>
       </c>
       <c r="G112" t="n">
-        <v>39647.60772328999</v>
+        <v>375.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4727,7 +4870,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>377</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4736,6 +4881,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4745,19 +4891,19 @@
         <v>377</v>
       </c>
       <c r="C113" t="n">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D113" t="n">
         <v>377</v>
       </c>
       <c r="E113" t="n">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F113" t="n">
-        <v>300</v>
+        <v>1890.4717</v>
       </c>
       <c r="G113" t="n">
-        <v>39647.60772328999</v>
+        <v>374</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4766,7 +4912,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>377</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4775,28 +4923,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C114" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D114" t="n">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E114" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F114" t="n">
-        <v>1150</v>
+        <v>15</v>
       </c>
       <c r="G114" t="n">
-        <v>38497.60772328999</v>
+        <v>373</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4805,7 +4954,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>377</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4814,28 +4965,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C115" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D115" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E115" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F115" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G115" t="n">
-        <v>38497.60772328999</v>
+        <v>374</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4844,7 +4996,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>377</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4853,37 +5007,42 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C116" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D116" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E116" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F116" t="n">
-        <v>946</v>
+        <v>133.3117</v>
       </c>
       <c r="G116" t="n">
-        <v>39443.60772328999</v>
+        <v>376</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>374</v>
+      </c>
+      <c r="K116" t="n">
+        <v>377</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4892,28 +5051,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C117" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D117" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E117" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F117" t="n">
-        <v>2624.3795</v>
+        <v>166.8526</v>
       </c>
       <c r="G117" t="n">
-        <v>39443.60772328999</v>
+        <v>376.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4922,7 +5082,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>377</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4931,28 +5093,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C118" t="n">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D118" t="n">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E118" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F118" t="n">
-        <v>145.9212</v>
+        <v>133.3117</v>
       </c>
       <c r="G118" t="n">
-        <v>39589.52892328999</v>
+        <v>375</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4961,7 +5124,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>377</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4970,37 +5135,42 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C119" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D119" t="n">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E119" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F119" t="n">
-        <v>16.9979</v>
+        <v>12317.8249</v>
       </c>
       <c r="G119" t="n">
-        <v>39572.53102328999</v>
+        <v>376.5</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>375</v>
+      </c>
+      <c r="K119" t="n">
+        <v>377</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5009,28 +5179,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C120" t="n">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D120" t="n">
         <v>382</v>
       </c>
       <c r="E120" t="n">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F120" t="n">
-        <v>1.4</v>
+        <v>444</v>
       </c>
       <c r="G120" t="n">
-        <v>39573.93102328999</v>
+        <v>376.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5039,7 +5210,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>377</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5048,6 +5221,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5066,10 +5240,10 @@
         <v>382</v>
       </c>
       <c r="F121" t="n">
-        <v>2000</v>
+        <v>7.1982</v>
       </c>
       <c r="G121" t="n">
-        <v>39573.93102328999</v>
+        <v>378.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5078,7 +5252,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>377</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5087,39 +5263,40 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C122" t="n">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D122" t="n">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="E122" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F122" t="n">
-        <v>1000</v>
+        <v>406.7107</v>
       </c>
       <c r="G122" t="n">
-        <v>38573.93102328999</v>
+        <v>384.5</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>382</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>377</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5128,28 +5305,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C123" t="n">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D123" t="n">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="E123" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F123" t="n">
-        <v>337</v>
+        <v>46.0712</v>
       </c>
       <c r="G123" t="n">
-        <v>38573.93102328999</v>
+        <v>387</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5158,7 +5336,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>377</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5167,28 +5347,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C124" t="n">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="D124" t="n">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="E124" t="n">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="F124" t="n">
-        <v>617.4453999999999</v>
+        <v>161.9678</v>
       </c>
       <c r="G124" t="n">
-        <v>37956.48562328999</v>
+        <v>387</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5197,7 +5378,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>377</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5206,28 +5389,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C125" t="n">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="D125" t="n">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="E125" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F125" t="n">
-        <v>177.0083</v>
+        <v>7995.9508</v>
       </c>
       <c r="G125" t="n">
-        <v>37956.48562328999</v>
+        <v>388.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5236,7 +5420,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>377</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5245,28 +5431,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="C126" t="n">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="D126" t="n">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="E126" t="n">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="F126" t="n">
-        <v>3509.3255</v>
+        <v>2028.4389</v>
       </c>
       <c r="G126" t="n">
-        <v>34447.16012328999</v>
+        <v>390</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5275,7 +5462,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>377</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5284,28 +5473,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C127" t="n">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="D127" t="n">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="E127" t="n">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="F127" t="n">
-        <v>1.32</v>
+        <v>3588.6601</v>
       </c>
       <c r="G127" t="n">
-        <v>34448.48012328999</v>
+        <v>390.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5314,7 +5504,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>377</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5323,223 +5515,215 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="C128" t="n">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="D128" t="n">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="E128" t="n">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="F128" t="n">
-        <v>152</v>
+        <v>2127.5781</v>
       </c>
       <c r="G128" t="n">
-        <v>34296.48012328999</v>
+        <v>390.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>377</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>1</v>
-      </c>
+        <v>1.02948275862069</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="C129" t="n">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="D129" t="n">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="E129" t="n">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="F129" t="n">
-        <v>2.0334</v>
+        <v>6318.4533</v>
       </c>
       <c r="G129" t="n">
-        <v>34298.51352328999</v>
+        <v>391</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="C130" t="n">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="D130" t="n">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="E130" t="n">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="F130" t="n">
-        <v>133.5021</v>
+        <v>108.9948</v>
       </c>
       <c r="G130" t="n">
-        <v>34165.01142328999</v>
+        <v>391.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="C131" t="n">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="D131" t="n">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="E131" t="n">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="F131" t="n">
-        <v>420</v>
+        <v>1956.4446</v>
       </c>
       <c r="G131" t="n">
-        <v>33745.01142328999</v>
+        <v>391.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="C132" t="n">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="D132" t="n">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="E132" t="n">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="F132" t="n">
-        <v>1.32</v>
+        <v>5652.7369</v>
       </c>
       <c r="G132" t="n">
-        <v>33746.33142328999</v>
+        <v>392</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="C133" t="n">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="D133" t="n">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="E133" t="n">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="F133" t="n">
-        <v>255.0533</v>
+        <v>26843.401</v>
       </c>
       <c r="G133" t="n">
-        <v>33491.27812328999</v>
+        <v>394.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5549,2158 +5733,515 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="C134" t="n">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="D134" t="n">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="E134" t="n">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="F134" t="n">
-        <v>759.0162</v>
+        <v>2589.6089</v>
       </c>
       <c r="G134" t="n">
-        <v>32732.26192329</v>
+        <v>396</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="C135" t="n">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="D135" t="n">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="E135" t="n">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="F135" t="n">
-        <v>1012.9999</v>
+        <v>7279.9005</v>
       </c>
       <c r="G135" t="n">
-        <v>32732.26192329</v>
+        <v>394.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="C136" t="n">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="D136" t="n">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="E136" t="n">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="F136" t="n">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="G136" t="n">
-        <v>32732.26192329</v>
+        <v>394.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="C137" t="n">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="D137" t="n">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="E137" t="n">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="F137" t="n">
-        <v>601.5001999999999</v>
+        <v>420</v>
       </c>
       <c r="G137" t="n">
-        <v>32130.76172329</v>
+        <v>395.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="C138" t="n">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="D138" t="n">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="E138" t="n">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="F138" t="n">
-        <v>135</v>
+        <v>11651.0271</v>
       </c>
       <c r="G138" t="n">
-        <v>32130.76172329</v>
+        <v>395</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="C139" t="n">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="D139" t="n">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="E139" t="n">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="F139" t="n">
-        <v>632.3253999999999</v>
+        <v>2050.0654</v>
       </c>
       <c r="G139" t="n">
-        <v>32130.76172329</v>
+        <v>395</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="C140" t="n">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="D140" t="n">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="E140" t="n">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="F140" t="n">
-        <v>4</v>
+        <v>2430.6989</v>
       </c>
       <c r="G140" t="n">
-        <v>32126.76172329</v>
+        <v>396</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="C141" t="n">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="D141" t="n">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="E141" t="n">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="F141" t="n">
-        <v>3944.6819</v>
+        <v>9797.756600000001</v>
       </c>
       <c r="G141" t="n">
-        <v>36071.44362329</v>
+        <v>395.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="C142" t="n">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="D142" t="n">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="E142" t="n">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="F142" t="n">
-        <v>185.977</v>
+        <v>3108.9211</v>
       </c>
       <c r="G142" t="n">
-        <v>35885.46662329</v>
+        <v>393</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>373</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="C143" t="n">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="D143" t="n">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="E143" t="n">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="F143" t="n">
-        <v>1115.1911</v>
+        <v>1414.1999</v>
       </c>
       <c r="G143" t="n">
-        <v>37000.65772329</v>
+        <v>390</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="C144" t="n">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="D144" t="n">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="E144" t="n">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="F144" t="n">
-        <v>450.5513</v>
+        <v>8066.6737</v>
       </c>
       <c r="G144" t="n">
-        <v>36550.10642329</v>
+        <v>389.5</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>373</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C145" t="n">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="D145" t="n">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="E145" t="n">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="F145" t="n">
-        <v>172.1308</v>
+        <v>2267.4766</v>
       </c>
       <c r="G145" t="n">
-        <v>36722.23722329</v>
+        <v>389.5</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>371</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="C146" t="n">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="D146" t="n">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="E146" t="n">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="F146" t="n">
-        <v>91.8412</v>
+        <v>4254.7892</v>
       </c>
       <c r="G146" t="n">
-        <v>36630.39602329</v>
+        <v>389</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>373</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="C147" t="n">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="D147" t="n">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="E147" t="n">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="F147" t="n">
-        <v>127</v>
+        <v>1611.4633</v>
       </c>
       <c r="G147" t="n">
-        <v>36757.39602329</v>
+        <v>389</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>372</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>373</v>
-      </c>
-      <c r="C148" t="n">
-        <v>373</v>
-      </c>
-      <c r="D148" t="n">
-        <v>373</v>
-      </c>
-      <c r="E148" t="n">
-        <v>373</v>
-      </c>
-      <c r="F148" t="n">
-        <v>23.9123</v>
-      </c>
-      <c r="G148" t="n">
-        <v>36757.39602329</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>373</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>375</v>
-      </c>
-      <c r="C149" t="n">
-        <v>379</v>
-      </c>
-      <c r="D149" t="n">
-        <v>379</v>
-      </c>
-      <c r="E149" t="n">
-        <v>375</v>
-      </c>
-      <c r="F149" t="n">
-        <v>2119.0943</v>
-      </c>
-      <c r="G149" t="n">
-        <v>38876.49032329</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>373</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>379</v>
-      </c>
-      <c r="C150" t="n">
-        <v>375</v>
-      </c>
-      <c r="D150" t="n">
-        <v>379</v>
-      </c>
-      <c r="E150" t="n">
-        <v>375</v>
-      </c>
-      <c r="F150" t="n">
-        <v>87</v>
-      </c>
-      <c r="G150" t="n">
-        <v>38789.49032329</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>373</v>
-      </c>
-      <c r="C151" t="n">
-        <v>370</v>
-      </c>
-      <c r="D151" t="n">
-        <v>373</v>
-      </c>
-      <c r="E151" t="n">
-        <v>370</v>
-      </c>
-      <c r="F151" t="n">
-        <v>858.1083</v>
-      </c>
-      <c r="G151" t="n">
-        <v>37931.38202329</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>371</v>
-      </c>
-      <c r="C152" t="n">
-        <v>375</v>
-      </c>
-      <c r="D152" t="n">
-        <v>375</v>
-      </c>
-      <c r="E152" t="n">
-        <v>371</v>
-      </c>
-      <c r="F152" t="n">
-        <v>9195.921399999999</v>
-      </c>
-      <c r="G152" t="n">
-        <v>47127.30342329</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>375</v>
-      </c>
-      <c r="C153" t="n">
-        <v>375</v>
-      </c>
-      <c r="D153" t="n">
-        <v>375</v>
-      </c>
-      <c r="E153" t="n">
-        <v>375</v>
-      </c>
-      <c r="F153" t="n">
-        <v>428.0915</v>
-      </c>
-      <c r="G153" t="n">
-        <v>47127.30342329</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>376</v>
-      </c>
-      <c r="C154" t="n">
-        <v>376</v>
-      </c>
-      <c r="D154" t="n">
-        <v>376</v>
-      </c>
-      <c r="E154" t="n">
-        <v>376</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1478.7089</v>
-      </c>
-      <c r="G154" t="n">
-        <v>48606.01232328999</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>377</v>
-      </c>
-      <c r="C155" t="n">
-        <v>372</v>
-      </c>
-      <c r="D155" t="n">
-        <v>377</v>
-      </c>
-      <c r="E155" t="n">
-        <v>372</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1890.4717</v>
-      </c>
-      <c r="G155" t="n">
-        <v>46715.54062328999</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>374</v>
-      </c>
-      <c r="C156" t="n">
-        <v>374</v>
-      </c>
-      <c r="D156" t="n">
-        <v>374</v>
-      </c>
-      <c r="E156" t="n">
-        <v>374</v>
-      </c>
-      <c r="F156" t="n">
-        <v>15</v>
-      </c>
-      <c r="G156" t="n">
-        <v>46730.54062328999</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>374</v>
-      </c>
-      <c r="C157" t="n">
-        <v>374</v>
-      </c>
-      <c r="D157" t="n">
-        <v>374</v>
-      </c>
-      <c r="E157" t="n">
-        <v>374</v>
-      </c>
-      <c r="F157" t="n">
-        <v>15</v>
-      </c>
-      <c r="G157" t="n">
-        <v>46730.54062328999</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>378</v>
-      </c>
-      <c r="C158" t="n">
-        <v>378</v>
-      </c>
-      <c r="D158" t="n">
-        <v>378</v>
-      </c>
-      <c r="E158" t="n">
-        <v>378</v>
-      </c>
-      <c r="F158" t="n">
-        <v>133.3117</v>
-      </c>
-      <c r="G158" t="n">
-        <v>46863.85232328999</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>376</v>
-      </c>
-      <c r="C159" t="n">
-        <v>375</v>
-      </c>
-      <c r="D159" t="n">
-        <v>376</v>
-      </c>
-      <c r="E159" t="n">
-        <v>375</v>
-      </c>
-      <c r="F159" t="n">
-        <v>166.8526</v>
-      </c>
-      <c r="G159" t="n">
-        <v>46696.99972328999</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>375</v>
-      </c>
-      <c r="C160" t="n">
-        <v>375</v>
-      </c>
-      <c r="D160" t="n">
-        <v>375</v>
-      </c>
-      <c r="E160" t="n">
-        <v>375</v>
-      </c>
-      <c r="F160" t="n">
-        <v>133.3117</v>
-      </c>
-      <c r="G160" t="n">
-        <v>46696.99972328999</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>379</v>
-      </c>
-      <c r="C161" t="n">
-        <v>378</v>
-      </c>
-      <c r="D161" t="n">
-        <v>388</v>
-      </c>
-      <c r="E161" t="n">
-        <v>378</v>
-      </c>
-      <c r="F161" t="n">
-        <v>12317.8249</v>
-      </c>
-      <c r="G161" t="n">
-        <v>59014.82462328999</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>381</v>
-      </c>
-      <c r="C162" t="n">
-        <v>375</v>
-      </c>
-      <c r="D162" t="n">
-        <v>382</v>
-      </c>
-      <c r="E162" t="n">
-        <v>375</v>
-      </c>
-      <c r="F162" t="n">
-        <v>444</v>
-      </c>
-      <c r="G162" t="n">
-        <v>58570.82462328999</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>382</v>
-      </c>
-      <c r="C163" t="n">
-        <v>382</v>
-      </c>
-      <c r="D163" t="n">
-        <v>382</v>
-      </c>
-      <c r="E163" t="n">
-        <v>382</v>
-      </c>
-      <c r="F163" t="n">
-        <v>7.1982</v>
-      </c>
-      <c r="G163" t="n">
-        <v>58578.02282328999</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>382</v>
-      </c>
-      <c r="C164" t="n">
-        <v>387</v>
-      </c>
-      <c r="D164" t="n">
-        <v>387</v>
-      </c>
-      <c r="E164" t="n">
-        <v>382</v>
-      </c>
-      <c r="F164" t="n">
-        <v>406.7107</v>
-      </c>
-      <c r="G164" t="n">
-        <v>58984.73352328999</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>386</v>
-      </c>
-      <c r="C165" t="n">
-        <v>387</v>
-      </c>
-      <c r="D165" t="n">
-        <v>387</v>
-      </c>
-      <c r="E165" t="n">
-        <v>386</v>
-      </c>
-      <c r="F165" t="n">
-        <v>46.0712</v>
-      </c>
-      <c r="G165" t="n">
-        <v>58984.73352328999</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>387</v>
-      </c>
-      <c r="C166" t="n">
-        <v>387</v>
-      </c>
-      <c r="D166" t="n">
-        <v>387</v>
-      </c>
-      <c r="E166" t="n">
-        <v>387</v>
-      </c>
-      <c r="F166" t="n">
-        <v>161.9678</v>
-      </c>
-      <c r="G166" t="n">
-        <v>58984.73352328999</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>387</v>
-      </c>
-      <c r="C167" t="n">
-        <v>390</v>
-      </c>
-      <c r="D167" t="n">
-        <v>390</v>
-      </c>
-      <c r="E167" t="n">
-        <v>386</v>
-      </c>
-      <c r="F167" t="n">
-        <v>7995.9508</v>
-      </c>
-      <c r="G167" t="n">
-        <v>66980.68432329</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>390</v>
-      </c>
-      <c r="C168" t="n">
-        <v>390</v>
-      </c>
-      <c r="D168" t="n">
-        <v>390</v>
-      </c>
-      <c r="E168" t="n">
-        <v>386</v>
-      </c>
-      <c r="F168" t="n">
-        <v>2028.4389</v>
-      </c>
-      <c r="G168" t="n">
-        <v>66980.68432329</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>389</v>
-      </c>
-      <c r="C169" t="n">
-        <v>391</v>
-      </c>
-      <c r="D169" t="n">
-        <v>391</v>
-      </c>
-      <c r="E169" t="n">
-        <v>389</v>
-      </c>
-      <c r="F169" t="n">
-        <v>3588.6601</v>
-      </c>
-      <c r="G169" t="n">
-        <v>70569.34442328999</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>391</v>
-      </c>
-      <c r="C170" t="n">
-        <v>390</v>
-      </c>
-      <c r="D170" t="n">
-        <v>391</v>
-      </c>
-      <c r="E170" t="n">
-        <v>390</v>
-      </c>
-      <c r="F170" t="n">
-        <v>2127.5781</v>
-      </c>
-      <c r="G170" t="n">
-        <v>68441.76632328999</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>391</v>
-      </c>
-      <c r="C171" t="n">
-        <v>392</v>
-      </c>
-      <c r="D171" t="n">
-        <v>392</v>
-      </c>
-      <c r="E171" t="n">
-        <v>391</v>
-      </c>
-      <c r="F171" t="n">
-        <v>6318.4533</v>
-      </c>
-      <c r="G171" t="n">
-        <v>74760.21962328999</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>391</v>
-      </c>
-      <c r="C172" t="n">
-        <v>391</v>
-      </c>
-      <c r="D172" t="n">
-        <v>391</v>
-      </c>
-      <c r="E172" t="n">
-        <v>391</v>
-      </c>
-      <c r="F172" t="n">
-        <v>108.9948</v>
-      </c>
-      <c r="G172" t="n">
-        <v>74651.22482328999</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>391</v>
-      </c>
-      <c r="C173" t="n">
-        <v>392</v>
-      </c>
-      <c r="D173" t="n">
-        <v>392</v>
-      </c>
-      <c r="E173" t="n">
-        <v>391</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1956.4446</v>
-      </c>
-      <c r="G173" t="n">
-        <v>76607.66942328999</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>392</v>
-      </c>
-      <c r="C174" t="n">
-        <v>392</v>
-      </c>
-      <c r="D174" t="n">
-        <v>392</v>
-      </c>
-      <c r="E174" t="n">
-        <v>388</v>
-      </c>
-      <c r="F174" t="n">
-        <v>5652.7369</v>
-      </c>
-      <c r="G174" t="n">
-        <v>76607.66942328999</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>391</v>
-      </c>
-      <c r="C175" t="n">
-        <v>397</v>
-      </c>
-      <c r="D175" t="n">
-        <v>397</v>
-      </c>
-      <c r="E175" t="n">
-        <v>391</v>
-      </c>
-      <c r="F175" t="n">
-        <v>26843.401</v>
-      </c>
-      <c r="G175" t="n">
-        <v>103451.07042329</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>395</v>
-      </c>
-      <c r="C176" t="n">
-        <v>395</v>
-      </c>
-      <c r="D176" t="n">
-        <v>397</v>
-      </c>
-      <c r="E176" t="n">
-        <v>394</v>
-      </c>
-      <c r="F176" t="n">
-        <v>2589.6089</v>
-      </c>
-      <c r="G176" t="n">
-        <v>100861.46152329</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>396</v>
-      </c>
-      <c r="C177" t="n">
-        <v>394</v>
-      </c>
-      <c r="D177" t="n">
-        <v>396</v>
-      </c>
-      <c r="E177" t="n">
-        <v>394</v>
-      </c>
-      <c r="F177" t="n">
-        <v>7279.9005</v>
-      </c>
-      <c r="G177" t="n">
-        <v>93581.56102328998</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>395</v>
-      </c>
-      <c r="C178" t="n">
-        <v>395</v>
-      </c>
-      <c r="D178" t="n">
-        <v>395</v>
-      </c>
-      <c r="E178" t="n">
-        <v>395</v>
-      </c>
-      <c r="F178" t="n">
-        <v>89</v>
-      </c>
-      <c r="G178" t="n">
-        <v>93670.56102328998</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>392</v>
-      </c>
-      <c r="C179" t="n">
-        <v>396</v>
-      </c>
-      <c r="D179" t="n">
-        <v>396</v>
-      </c>
-      <c r="E179" t="n">
-        <v>392</v>
-      </c>
-      <c r="F179" t="n">
-        <v>420</v>
-      </c>
-      <c r="G179" t="n">
-        <v>94090.56102328998</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>396</v>
-      </c>
-      <c r="C180" t="n">
-        <v>394</v>
-      </c>
-      <c r="D180" t="n">
-        <v>398</v>
-      </c>
-      <c r="E180" t="n">
-        <v>394</v>
-      </c>
-      <c r="F180" t="n">
-        <v>11651.0271</v>
-      </c>
-      <c r="G180" t="n">
-        <v>82439.53392328997</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>394</v>
-      </c>
-      <c r="C181" t="n">
-        <v>396</v>
-      </c>
-      <c r="D181" t="n">
-        <v>396</v>
-      </c>
-      <c r="E181" t="n">
-        <v>390</v>
-      </c>
-      <c r="F181" t="n">
-        <v>2050.0654</v>
-      </c>
-      <c r="G181" t="n">
-        <v>84489.59932328998</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>395</v>
-      </c>
-      <c r="C182" t="n">
-        <v>396</v>
-      </c>
-      <c r="D182" t="n">
-        <v>396</v>
-      </c>
-      <c r="E182" t="n">
-        <v>393</v>
-      </c>
-      <c r="F182" t="n">
-        <v>2430.6989</v>
-      </c>
-      <c r="G182" t="n">
-        <v>84489.59932328998</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>394</v>
-      </c>
-      <c r="C183" t="n">
-        <v>395</v>
-      </c>
-      <c r="D183" t="n">
-        <v>396</v>
-      </c>
-      <c r="E183" t="n">
-        <v>390</v>
-      </c>
-      <c r="F183" t="n">
-        <v>9797.756600000001</v>
-      </c>
-      <c r="G183" t="n">
-        <v>74691.84272328997</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>389</v>
-      </c>
-      <c r="C184" t="n">
-        <v>391</v>
-      </c>
-      <c r="D184" t="n">
-        <v>394</v>
-      </c>
-      <c r="E184" t="n">
-        <v>388</v>
-      </c>
-      <c r="F184" t="n">
-        <v>3108.9211</v>
-      </c>
-      <c r="G184" t="n">
-        <v>71582.92162328996</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>389</v>
-      </c>
-      <c r="C185" t="n">
-        <v>389</v>
-      </c>
-      <c r="D185" t="n">
-        <v>390</v>
-      </c>
-      <c r="E185" t="n">
-        <v>389</v>
-      </c>
-      <c r="F185" t="n">
-        <v>1414.1999</v>
-      </c>
-      <c r="G185" t="n">
-        <v>70168.72172328996</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>387</v>
-      </c>
-      <c r="C186" t="n">
-        <v>390</v>
-      </c>
-      <c r="D186" t="n">
-        <v>390</v>
-      </c>
-      <c r="E186" t="n">
-        <v>386</v>
-      </c>
-      <c r="F186" t="n">
-        <v>8066.6737</v>
-      </c>
-      <c r="G186" t="n">
-        <v>78235.39542328996</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>389</v>
-      </c>
-      <c r="C187" t="n">
-        <v>389</v>
-      </c>
-      <c r="D187" t="n">
-        <v>389</v>
-      </c>
-      <c r="E187" t="n">
-        <v>389</v>
-      </c>
-      <c r="F187" t="n">
-        <v>2267.4766</v>
-      </c>
-      <c r="G187" t="n">
-        <v>75967.91882328996</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>389</v>
-      </c>
-      <c r="C188" t="n">
-        <v>389</v>
-      </c>
-      <c r="D188" t="n">
-        <v>390</v>
-      </c>
-      <c r="E188" t="n">
-        <v>389</v>
-      </c>
-      <c r="F188" t="n">
-        <v>4254.7892</v>
-      </c>
-      <c r="G188" t="n">
-        <v>75967.91882328996</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>389</v>
-      </c>
-      <c r="C189" t="n">
-        <v>389</v>
-      </c>
-      <c r="D189" t="n">
-        <v>389</v>
-      </c>
-      <c r="E189" t="n">
-        <v>389</v>
-      </c>
-      <c r="F189" t="n">
-        <v>1611.4633</v>
-      </c>
-      <c r="G189" t="n">
-        <v>75967.91882328996</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
+      <c r="N147" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-18 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-18 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N147"/>
+  <dimension ref="A1:N218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="C2" t="n">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="D2" t="n">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="E2" t="n">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="F2" t="n">
-        <v>5348.2509</v>
+        <v>345</v>
       </c>
       <c r="G2" t="n">
-        <v>382</v>
+        <v>11317.7697</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="C3" t="n">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="D3" t="n">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="E3" t="n">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="F3" t="n">
-        <v>7957.47321324</v>
+        <v>278.7454</v>
       </c>
       <c r="G3" t="n">
-        <v>381</v>
+        <v>11317.7697</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,14 +498,12 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>381</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="K3" t="n">
+        <v>365</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -516,22 +514,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="C4" t="n">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="D4" t="n">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="E4" t="n">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="F4" t="n">
-        <v>7055.41288676</v>
+        <v>2508.7333</v>
       </c>
       <c r="G4" t="n">
-        <v>383</v>
+        <v>11317.7697</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -540,12 +538,14 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>381</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>365</v>
+      </c>
+      <c r="K4" t="n">
+        <v>365</v>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -558,22 +558,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="C5" t="n">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="D5" t="n">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="E5" t="n">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="F5" t="n">
-        <v>4897</v>
+        <v>650</v>
       </c>
       <c r="G5" t="n">
-        <v>383.5</v>
+        <v>11317.7697</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -582,12 +582,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>385</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>365</v>
+      </c>
+      <c r="K5" t="n">
+        <v>365</v>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -600,22 +602,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="C6" t="n">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="D6" t="n">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="E6" t="n">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="F6" t="n">
-        <v>3126.0734</v>
+        <v>1700</v>
       </c>
       <c r="G6" t="n">
-        <v>382</v>
+        <v>11317.7697</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -624,14 +626,12 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>382</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="K6" t="n">
+        <v>365</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -642,22 +642,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="C7" t="n">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="D7" t="n">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="E7" t="n">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="F7" t="n">
-        <v>4435.23499357</v>
+        <v>400</v>
       </c>
       <c r="G7" t="n">
-        <v>382</v>
+        <v>11317.7697</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -666,12 +666,14 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>382</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>365</v>
+      </c>
+      <c r="K7" t="n">
+        <v>365</v>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -684,22 +686,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="C8" t="n">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="D8" t="n">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="E8" t="n">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>1450</v>
       </c>
       <c r="G8" t="n">
-        <v>383.5</v>
+        <v>11317.7697</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -708,12 +710,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>382</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>365</v>
+      </c>
+      <c r="K8" t="n">
+        <v>365</v>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -726,22 +730,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="C9" t="n">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="D9" t="n">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="E9" t="n">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="F9" t="n">
-        <v>28</v>
+        <v>254.0519</v>
       </c>
       <c r="G9" t="n">
-        <v>384</v>
+        <v>11317.7697</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -750,14 +754,12 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>385</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="K9" t="n">
+        <v>365</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -768,22 +770,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="C10" t="n">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="D10" t="n">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="E10" t="n">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="F10" t="n">
-        <v>245.1417</v>
+        <v>275</v>
       </c>
       <c r="G10" t="n">
-        <v>384.5</v>
+        <v>11592.7697</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -792,12 +794,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>383</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+        <v>365</v>
+      </c>
+      <c r="K10" t="n">
+        <v>365</v>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -810,22 +814,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="C11" t="n">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="D11" t="n">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="E11" t="n">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="F11" t="n">
-        <v>2913.9994</v>
+        <v>52</v>
       </c>
       <c r="G11" t="n">
-        <v>386.5</v>
+        <v>11592.7697</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -834,12 +838,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>386</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+        <v>366</v>
+      </c>
+      <c r="K11" t="n">
+        <v>365</v>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -852,36 +858,36 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="C12" t="n">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="D12" t="n">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="E12" t="n">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="F12" t="n">
-        <v>212.4112</v>
+        <v>101</v>
       </c>
       <c r="G12" t="n">
-        <v>385.5</v>
+        <v>11592.7697</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="n">
+        <v>366</v>
+      </c>
+      <c r="K12" t="n">
+        <v>366</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -892,34 +898,38 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="C13" t="n">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="D13" t="n">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="E13" t="n">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="F13" t="n">
-        <v>466</v>
+        <v>370</v>
       </c>
       <c r="G13" t="n">
-        <v>386</v>
+        <v>11962.7697</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>366</v>
+      </c>
+      <c r="K13" t="n">
+        <v>366</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -932,31 +942,35 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="C14" t="n">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="D14" t="n">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="E14" t="n">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="F14" t="n">
-        <v>2166.4963</v>
+        <v>50</v>
       </c>
       <c r="G14" t="n">
-        <v>388.5</v>
+        <v>11962.7697</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>368</v>
+      </c>
+      <c r="K14" t="n">
+        <v>366</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -972,22 +986,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="C15" t="n">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="D15" t="n">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="E15" t="n">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="F15" t="n">
-        <v>2265.36090643</v>
+        <v>420</v>
       </c>
       <c r="G15" t="n">
-        <v>389</v>
+        <v>12382.7697</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -996,7 +1010,9 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>366</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1012,22 +1028,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="C16" t="n">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="D16" t="n">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="E16" t="n">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="F16" t="n">
-        <v>2331.28099357</v>
+        <v>470</v>
       </c>
       <c r="G16" t="n">
-        <v>389</v>
+        <v>12382.7697</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1036,7 +1052,9 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>366</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1052,22 +1070,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="C17" t="n">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="D17" t="n">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="E17" t="n">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="F17" t="n">
-        <v>2596.4657</v>
+        <v>1379.6389</v>
       </c>
       <c r="G17" t="n">
-        <v>389</v>
+        <v>11003.1308</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1076,7 +1094,9 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>366</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1092,22 +1112,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="C18" t="n">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="D18" t="n">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="E18" t="n">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="F18" t="n">
-        <v>391.6872</v>
+        <v>95.7081</v>
       </c>
       <c r="G18" t="n">
-        <v>387.5</v>
+        <v>11098.8389</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1116,7 +1136,9 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>366</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1132,22 +1154,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="C19" t="n">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="D19" t="n">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="E19" t="n">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="F19" t="n">
-        <v>81</v>
+        <v>170.7076</v>
       </c>
       <c r="G19" t="n">
-        <v>386</v>
+        <v>11269.5465</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1156,7 +1178,9 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>366</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1172,22 +1196,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="C20" t="n">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="D20" t="n">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="E20" t="n">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="F20" t="n">
-        <v>1142.7117</v>
+        <v>268</v>
       </c>
       <c r="G20" t="n">
-        <v>385</v>
+        <v>11001.5465</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1196,7 +1220,9 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>366</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1212,31 +1238,35 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="C21" t="n">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="D21" t="n">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="E21" t="n">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="F21" t="n">
-        <v>208</v>
+        <v>2620</v>
       </c>
       <c r="G21" t="n">
-        <v>384.5</v>
+        <v>11001.5465</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>368</v>
+      </c>
+      <c r="K21" t="n">
+        <v>366</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1252,31 +1282,35 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="C22" t="n">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="D22" t="n">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="E22" t="n">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="F22" t="n">
-        <v>2425.3249</v>
+        <v>495</v>
       </c>
       <c r="G22" t="n">
-        <v>383</v>
+        <v>11001.5465</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>368</v>
+      </c>
+      <c r="K22" t="n">
+        <v>366</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1292,31 +1326,35 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="C23" t="n">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="D23" t="n">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="E23" t="n">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="F23" t="n">
-        <v>4548.2854</v>
+        <v>1165</v>
       </c>
       <c r="G23" t="n">
-        <v>381.5</v>
+        <v>11001.5465</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>368</v>
+      </c>
+      <c r="K23" t="n">
+        <v>366</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1332,31 +1370,35 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C24" t="n">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="D24" t="n">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="E24" t="n">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="F24" t="n">
-        <v>548.7564</v>
+        <v>798</v>
       </c>
       <c r="G24" t="n">
-        <v>384</v>
+        <v>11001.5465</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>368</v>
+      </c>
+      <c r="K24" t="n">
+        <v>366</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1372,31 +1414,35 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="C25" t="n">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="D25" t="n">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="E25" t="n">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="F25" t="n">
-        <v>1580.9147</v>
+        <v>1180</v>
       </c>
       <c r="G25" t="n">
-        <v>386.5</v>
+        <v>11001.5465</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>368</v>
+      </c>
+      <c r="K25" t="n">
+        <v>366</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1412,31 +1458,35 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="C26" t="n">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="D26" t="n">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="E26" t="n">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="F26" t="n">
-        <v>7694.0787</v>
+        <v>524</v>
       </c>
       <c r="G26" t="n">
-        <v>384</v>
+        <v>11001.5465</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>368</v>
+      </c>
+      <c r="K26" t="n">
+        <v>366</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1452,31 +1502,35 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="C27" t="n">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="D27" t="n">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="E27" t="n">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="F27" t="n">
-        <v>2369.2982</v>
+        <v>2002.6958</v>
       </c>
       <c r="G27" t="n">
-        <v>381</v>
+        <v>11001.5465</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>368</v>
+      </c>
+      <c r="K27" t="n">
+        <v>366</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1492,31 +1546,35 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="C28" t="n">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="D28" t="n">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="E28" t="n">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="F28" t="n">
-        <v>2286.8328</v>
+        <v>150</v>
       </c>
       <c r="G28" t="n">
-        <v>381</v>
+        <v>11001.5465</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>368</v>
+      </c>
+      <c r="K28" t="n">
+        <v>366</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1532,31 +1590,35 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C29" t="n">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="D29" t="n">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="E29" t="n">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="F29" t="n">
-        <v>932.4071</v>
+        <v>1833.614</v>
       </c>
       <c r="G29" t="n">
-        <v>382</v>
+        <v>11001.5465</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>368</v>
+      </c>
+      <c r="K29" t="n">
+        <v>366</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1572,31 +1634,35 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C30" t="n">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="D30" t="n">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="E30" t="n">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="F30" t="n">
-        <v>1031.605</v>
+        <v>830.3053</v>
       </c>
       <c r="G30" t="n">
-        <v>382.5</v>
+        <v>11001.5465</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>368</v>
+      </c>
+      <c r="K30" t="n">
+        <v>366</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1612,31 +1678,35 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C31" t="n">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="D31" t="n">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="E31" t="n">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="F31" t="n">
-        <v>1874.5248</v>
+        <v>220</v>
       </c>
       <c r="G31" t="n">
-        <v>382</v>
+        <v>11221.5465</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>368</v>
+      </c>
+      <c r="K31" t="n">
+        <v>366</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1652,31 +1722,35 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C32" t="n">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D32" t="n">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="E32" t="n">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="F32" t="n">
-        <v>2913.9994</v>
+        <v>1922</v>
       </c>
       <c r="G32" t="n">
-        <v>380</v>
+        <v>11221.5465</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>369</v>
+      </c>
+      <c r="K32" t="n">
+        <v>366</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1692,31 +1766,35 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C33" t="n">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="D33" t="n">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="E33" t="n">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F33" t="n">
-        <v>142.9842</v>
+        <v>925.1208</v>
       </c>
       <c r="G33" t="n">
-        <v>381.5</v>
+        <v>11221.5465</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>369</v>
+      </c>
+      <c r="K33" t="n">
+        <v>366</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1732,31 +1810,35 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="C34" t="n">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="D34" t="n">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="E34" t="n">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="F34" t="n">
-        <v>3032.9</v>
+        <v>571</v>
       </c>
       <c r="G34" t="n">
-        <v>384.5</v>
+        <v>11792.5465</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>369</v>
+      </c>
+      <c r="K34" t="n">
+        <v>366</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1772,31 +1854,35 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="C35" t="n">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="D35" t="n">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="E35" t="n">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="F35" t="n">
-        <v>2959</v>
+        <v>50</v>
       </c>
       <c r="G35" t="n">
-        <v>384</v>
+        <v>11742.5465</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>372</v>
+      </c>
+      <c r="K35" t="n">
+        <v>366</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1812,31 +1898,35 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="C36" t="n">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D36" t="n">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E36" t="n">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="F36" t="n">
-        <v>923</v>
+        <v>740</v>
       </c>
       <c r="G36" t="n">
-        <v>384.5</v>
+        <v>12482.5465</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>371</v>
+      </c>
+      <c r="K36" t="n">
+        <v>366</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1852,31 +1942,35 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C37" t="n">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="D37" t="n">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="E37" t="n">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="F37" t="n">
-        <v>2030.2483</v>
+        <v>7670.9511</v>
       </c>
       <c r="G37" t="n">
-        <v>385.5</v>
+        <v>4811.595399999997</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>374</v>
+      </c>
+      <c r="K37" t="n">
+        <v>366</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1892,31 +1986,35 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="C38" t="n">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="D38" t="n">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="E38" t="n">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="F38" t="n">
-        <v>2447.6139</v>
+        <v>316.8434</v>
       </c>
       <c r="G38" t="n">
-        <v>387</v>
+        <v>5128.438799999996</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>371</v>
+      </c>
+      <c r="K38" t="n">
+        <v>366</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1932,31 +2030,35 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="C39" t="n">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="D39" t="n">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="E39" t="n">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="F39" t="n">
-        <v>8772.56800643</v>
+        <v>341.0594</v>
       </c>
       <c r="G39" t="n">
-        <v>388.5</v>
+        <v>5128.438799999996</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>372</v>
+      </c>
+      <c r="K39" t="n">
+        <v>366</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1972,31 +2074,35 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="C40" t="n">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="D40" t="n">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="E40" t="n">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="F40" t="n">
-        <v>2815.6225</v>
+        <v>1007.0816</v>
       </c>
       <c r="G40" t="n">
-        <v>386.5</v>
+        <v>4121.357199999997</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>372</v>
+      </c>
+      <c r="K40" t="n">
+        <v>366</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2012,31 +2118,35 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="C41" t="n">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="D41" t="n">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="E41" t="n">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="F41" t="n">
-        <v>2484.0378</v>
+        <v>1508</v>
       </c>
       <c r="G41" t="n">
-        <v>384</v>
+        <v>4121.357199999997</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>371</v>
+      </c>
+      <c r="K41" t="n">
+        <v>366</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2052,31 +2162,35 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C42" t="n">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="D42" t="n">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="E42" t="n">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="F42" t="n">
-        <v>4075.0191803</v>
+        <v>220</v>
       </c>
       <c r="G42" t="n">
-        <v>384</v>
+        <v>4121.357199999997</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>371</v>
+      </c>
+      <c r="K42" t="n">
+        <v>366</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2092,31 +2206,35 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="C43" t="n">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="D43" t="n">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="E43" t="n">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="F43" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="G43" t="n">
-        <v>386.5</v>
+        <v>4121.357199999997</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>371</v>
+      </c>
+      <c r="K43" t="n">
+        <v>366</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2132,31 +2250,35 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="C44" t="n">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="D44" t="n">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="E44" t="n">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="F44" t="n">
-        <v>2641.105</v>
+        <v>3421.8348</v>
       </c>
       <c r="G44" t="n">
-        <v>389</v>
+        <v>699.5223999999967</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>371</v>
+      </c>
+      <c r="K44" t="n">
+        <v>366</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2172,31 +2294,35 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="C45" t="n">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="D45" t="n">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="E45" t="n">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="F45" t="n">
-        <v>737.9835</v>
+        <v>1.4</v>
       </c>
       <c r="G45" t="n">
-        <v>389</v>
+        <v>700.9223999999966</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>369</v>
+      </c>
+      <c r="K45" t="n">
+        <v>366</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2212,37 +2338,41 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="C46" t="n">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="D46" t="n">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="E46" t="n">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="F46" t="n">
-        <v>497</v>
+        <v>770</v>
       </c>
       <c r="G46" t="n">
-        <v>389</v>
+        <v>1470.922399999997</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>366</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
       <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -2250,32 +2380,40 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="C47" t="n">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="D47" t="n">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="E47" t="n">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="F47" t="n">
-        <v>1789.7048</v>
+        <v>130</v>
       </c>
       <c r="G47" t="n">
-        <v>389.5</v>
+        <v>1600.922399999997</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>372</v>
+      </c>
+      <c r="K47" t="n">
+        <v>366</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2286,32 +2424,38 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C48" t="n">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D48" t="n">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="E48" t="n">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="F48" t="n">
-        <v>1294</v>
+        <v>263.0845</v>
       </c>
       <c r="G48" t="n">
-        <v>386.5</v>
+        <v>1337.837899999997</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>366</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2322,32 +2466,38 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C49" t="n">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="D49" t="n">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="E49" t="n">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F49" t="n">
-        <v>1435.5346</v>
+        <v>1569.419</v>
       </c>
       <c r="G49" t="n">
-        <v>382</v>
+        <v>-231.5811000000033</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>366</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2508,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="C50" t="n">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="D50" t="n">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="E50" t="n">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="F50" t="n">
-        <v>745</v>
+        <v>329.99</v>
       </c>
       <c r="G50" t="n">
-        <v>383</v>
+        <v>-231.5811000000033</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2382,8 +2532,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>366</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2394,32 +2550,40 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="C51" t="n">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="D51" t="n">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="E51" t="n">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="F51" t="n">
-        <v>81.51730000000001</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>385</v>
+        <v>-229.5811000000033</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>371</v>
+      </c>
+      <c r="K51" t="n">
+        <v>366</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2430,22 +2594,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="C52" t="n">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="D52" t="n">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="E52" t="n">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="F52" t="n">
-        <v>624.8887999999999</v>
+        <v>853</v>
       </c>
       <c r="G52" t="n">
-        <v>385</v>
+        <v>-1082.581100000003</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2454,8 +2618,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>366</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2466,32 +2636,40 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="C53" t="n">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="D53" t="n">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="E53" t="n">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="F53" t="n">
-        <v>2156.9927</v>
+        <v>6.7204301</v>
       </c>
       <c r="G53" t="n">
-        <v>385</v>
+        <v>-1075.860669900003</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>370</v>
+      </c>
+      <c r="K53" t="n">
+        <v>366</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2502,32 +2680,38 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="C54" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="D54" t="n">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="E54" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="F54" t="n">
-        <v>10259.3689</v>
+        <v>6.72</v>
       </c>
       <c r="G54" t="n">
-        <v>387.5</v>
+        <v>-1082.580669900003</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>366</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2538,32 +2722,40 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="C55" t="n">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="D55" t="n">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="E55" t="n">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="F55" t="n">
-        <v>1001.8739</v>
+        <v>1.4</v>
       </c>
       <c r="G55" t="n">
-        <v>390.5</v>
+        <v>-1081.180669900003</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>370</v>
+      </c>
+      <c r="K55" t="n">
+        <v>366</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2574,32 +2766,38 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="C56" t="n">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="D56" t="n">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="E56" t="n">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="F56" t="n">
-        <v>43.3455</v>
+        <v>2743.8998</v>
       </c>
       <c r="G56" t="n">
-        <v>390</v>
+        <v>1662.719130099997</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>366</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2610,32 +2808,38 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="C57" t="n">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="D57" t="n">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="E57" t="n">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="F57" t="n">
-        <v>673.8638</v>
+        <v>8147.8319</v>
       </c>
       <c r="G57" t="n">
-        <v>389</v>
+        <v>9810.551030099998</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>366</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2646,32 +2850,38 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="C58" t="n">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="D58" t="n">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="E58" t="n">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="F58" t="n">
-        <v>758</v>
+        <v>3636.2315</v>
       </c>
       <c r="G58" t="n">
-        <v>389</v>
+        <v>9810.551030099998</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>366</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2682,32 +2892,38 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="C59" t="n">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="D59" t="n">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="E59" t="n">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="F59" t="n">
-        <v>201.5893</v>
+        <v>7.8948</v>
       </c>
       <c r="G59" t="n">
-        <v>387</v>
+        <v>9802.656230099998</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>366</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2718,32 +2934,38 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C60" t="n">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="D60" t="n">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="E60" t="n">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="F60" t="n">
-        <v>109.5893</v>
+        <v>1.4</v>
       </c>
       <c r="G60" t="n">
-        <v>387.5</v>
+        <v>9804.056230099997</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>366</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2754,32 +2976,38 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="C61" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="D61" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="E61" t="n">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="F61" t="n">
-        <v>1467.6168</v>
+        <v>1883.3258</v>
       </c>
       <c r="G61" t="n">
-        <v>390</v>
+        <v>7920.730430099997</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>366</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2790,32 +3018,38 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C62" t="n">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="D62" t="n">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="E62" t="n">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="F62" t="n">
-        <v>5307.3045</v>
+        <v>243.9935</v>
       </c>
       <c r="G62" t="n">
-        <v>389</v>
+        <v>8164.723930099996</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>366</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2826,32 +3060,38 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C63" t="n">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D63" t="n">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E63" t="n">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F63" t="n">
-        <v>510.3189</v>
+        <v>1.4</v>
       </c>
       <c r="G63" t="n">
-        <v>385</v>
+        <v>8166.123930099996</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>366</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2862,22 +3102,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C64" t="n">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D64" t="n">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E64" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F64" t="n">
-        <v>2131.8143</v>
+        <v>1402.0526</v>
       </c>
       <c r="G64" t="n">
-        <v>379.5</v>
+        <v>8166.123930099996</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2886,8 +3126,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>366</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2898,22 +3144,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C65" t="n">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D65" t="n">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E65" t="n">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F65" t="n">
-        <v>3338.4503</v>
+        <v>504.6205</v>
       </c>
       <c r="G65" t="n">
-        <v>379.5</v>
+        <v>8166.123930099996</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2922,8 +3168,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>366</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2934,22 +3186,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C66" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D66" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E66" t="n">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F66" t="n">
-        <v>127</v>
+        <v>1836.6837</v>
       </c>
       <c r="G66" t="n">
-        <v>380</v>
+        <v>10002.8076301</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2958,8 +3210,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>366</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2970,22 +3228,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C67" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D67" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E67" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F67" t="n">
-        <v>106.2962</v>
+        <v>860</v>
       </c>
       <c r="G67" t="n">
-        <v>377</v>
+        <v>10002.8076301</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2994,8 +3252,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>366</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3009,19 +3273,19 @@
         <v>377</v>
       </c>
       <c r="C68" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D68" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E68" t="n">
         <v>377</v>
       </c>
       <c r="F68" t="n">
-        <v>422</v>
+        <v>1010</v>
       </c>
       <c r="G68" t="n">
-        <v>377</v>
+        <v>10002.8076301</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3030,8 +3294,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>366</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3042,22 +3312,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C69" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D69" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E69" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F69" t="n">
-        <v>3155.348</v>
+        <v>11765.3933</v>
       </c>
       <c r="G69" t="n">
-        <v>379.5</v>
+        <v>21768.2009301</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3066,8 +3336,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>366</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3078,22 +3354,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C70" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D70" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E70" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F70" t="n">
-        <v>127.596</v>
+        <v>90</v>
       </c>
       <c r="G70" t="n">
-        <v>379</v>
+        <v>21768.2009301</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3102,8 +3378,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>366</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3114,22 +3396,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C71" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D71" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E71" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F71" t="n">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="G71" t="n">
-        <v>377</v>
+        <v>21972.2009301</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3138,8 +3420,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>366</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3150,22 +3438,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C72" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="D72" t="n">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E72" t="n">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="F72" t="n">
-        <v>1150</v>
+        <v>4840.6341</v>
       </c>
       <c r="G72" t="n">
-        <v>376.5</v>
+        <v>26812.8350301</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3174,8 +3462,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>366</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3186,22 +3480,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C73" t="n">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D73" t="n">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="E73" t="n">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F73" t="n">
-        <v>50</v>
+        <v>5348.2509</v>
       </c>
       <c r="G73" t="n">
-        <v>376</v>
+        <v>21464.5841301</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3210,8 +3504,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>366</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3222,22 +3522,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="C74" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D74" t="n">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="E74" t="n">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F74" t="n">
-        <v>946</v>
+        <v>7957.47321324</v>
       </c>
       <c r="G74" t="n">
-        <v>376.5</v>
+        <v>21464.5841301</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3246,8 +3546,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>366</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3258,36 +3564,38 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C75" t="n">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D75" t="n">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="E75" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F75" t="n">
-        <v>2624.3795</v>
+        <v>7055.41288676</v>
       </c>
       <c r="G75" t="n">
-        <v>377</v>
+        <v>28519.99701686</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>377</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>377</v>
-      </c>
-      <c r="L75" t="inlineStr"/>
+        <v>366</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3298,22 +3606,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C76" t="n">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D76" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E76" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F76" t="n">
-        <v>145.9212</v>
+        <v>4897</v>
       </c>
       <c r="G76" t="n">
-        <v>377.5</v>
+        <v>23622.99701686</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3323,11 +3631,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M76" t="n">
@@ -3340,34 +3648,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C77" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D77" t="n">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E77" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F77" t="n">
-        <v>16.9979</v>
+        <v>3126.0734</v>
       </c>
       <c r="G77" t="n">
-        <v>377.5</v>
+        <v>23622.99701686</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>378</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3384,22 +3690,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C78" t="n">
         <v>382</v>
       </c>
       <c r="D78" t="n">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="E78" t="n">
         <v>382</v>
       </c>
       <c r="F78" t="n">
-        <v>1.4</v>
+        <v>4435.23499357</v>
       </c>
       <c r="G78" t="n">
-        <v>379.5</v>
+        <v>23622.99701686</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3409,7 +3715,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3426,22 +3732,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C79" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D79" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E79" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F79" t="n">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="G79" t="n">
-        <v>382</v>
+        <v>23672.99701686</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3451,7 +3757,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3468,22 +3774,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C80" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D80" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E80" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F80" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="G80" t="n">
-        <v>381.5</v>
+        <v>23644.99701686</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3493,7 +3799,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3510,22 +3816,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C81" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D81" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E81" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F81" t="n">
-        <v>337</v>
+        <v>245.1417</v>
       </c>
       <c r="G81" t="n">
-        <v>381</v>
+        <v>23890.13871686</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3535,7 +3841,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3552,22 +3858,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C82" t="n">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="D82" t="n">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="E82" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F82" t="n">
-        <v>617.4453999999999</v>
+        <v>2913.9994</v>
       </c>
       <c r="G82" t="n">
-        <v>379.5</v>
+        <v>26804.13811686</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3577,7 +3883,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3594,34 +3900,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C83" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D83" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="E83" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F83" t="n">
-        <v>177.0083</v>
+        <v>212.4112</v>
       </c>
       <c r="G83" t="n">
-        <v>378</v>
+        <v>26591.72691686</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>378</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3638,22 +3942,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="C84" t="n">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D84" t="n">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E84" t="n">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="F84" t="n">
-        <v>3509.3255</v>
+        <v>466</v>
       </c>
       <c r="G84" t="n">
-        <v>376</v>
+        <v>27057.72691686</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3663,7 +3967,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3680,34 +3984,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="C85" t="n">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="D85" t="n">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="E85" t="n">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="F85" t="n">
-        <v>1.32</v>
+        <v>2166.4963</v>
       </c>
       <c r="G85" t="n">
-        <v>376.5</v>
+        <v>29224.22321686</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>374</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3724,22 +4026,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="C86" t="n">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="D86" t="n">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="E86" t="n">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F86" t="n">
-        <v>152</v>
+        <v>2265.36090643</v>
       </c>
       <c r="G86" t="n">
-        <v>378</v>
+        <v>29224.22321686</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3749,7 +4051,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3766,34 +4068,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C87" t="n">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="D87" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="E87" t="n">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="F87" t="n">
-        <v>2.0334</v>
+        <v>2331.28099357</v>
       </c>
       <c r="G87" t="n">
-        <v>378</v>
+        <v>29224.22321686</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>377</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3810,22 +4110,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="C88" t="n">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="D88" t="n">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="E88" t="n">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F88" t="n">
-        <v>133.5021</v>
+        <v>2596.4657</v>
       </c>
       <c r="G88" t="n">
-        <v>378</v>
+        <v>29224.22321686</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3835,7 +4135,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3852,22 +4152,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C89" t="n">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="D89" t="n">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="E89" t="n">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="F89" t="n">
-        <v>420</v>
+        <v>391.6872</v>
       </c>
       <c r="G89" t="n">
-        <v>376</v>
+        <v>28832.53601686</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3877,7 +4177,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3894,22 +4194,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C90" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D90" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E90" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="F90" t="n">
-        <v>1.32</v>
+        <v>81</v>
       </c>
       <c r="G90" t="n">
-        <v>377</v>
+        <v>28832.53601686</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3919,7 +4219,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3936,34 +4236,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C91" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D91" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E91" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F91" t="n">
-        <v>255.0533</v>
+        <v>1142.7117</v>
       </c>
       <c r="G91" t="n">
-        <v>378.5</v>
+        <v>27689.82431686</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>379</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3980,22 +4278,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="C92" t="n">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="D92" t="n">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="E92" t="n">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="F92" t="n">
-        <v>759.0162</v>
+        <v>208</v>
       </c>
       <c r="G92" t="n">
-        <v>376</v>
+        <v>27897.82431686</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4005,7 +4303,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4022,34 +4320,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C93" t="n">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="D93" t="n">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="E93" t="n">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="F93" t="n">
-        <v>1012.9999</v>
+        <v>2425.3249</v>
       </c>
       <c r="G93" t="n">
-        <v>374</v>
+        <v>25472.49941686</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>374</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4066,22 +4362,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C94" t="n">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="D94" t="n">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="E94" t="n">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="F94" t="n">
-        <v>155</v>
+        <v>4548.2854</v>
       </c>
       <c r="G94" t="n">
-        <v>374</v>
+        <v>30020.78481686</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4091,7 +4387,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4108,22 +4404,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C95" t="n">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D95" t="n">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="E95" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="F95" t="n">
-        <v>601.5001999999999</v>
+        <v>548.7564</v>
       </c>
       <c r="G95" t="n">
-        <v>373.5</v>
+        <v>30569.54121686</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4133,7 +4429,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4150,22 +4446,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C96" t="n">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="D96" t="n">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="E96" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="F96" t="n">
-        <v>135</v>
+        <v>1580.9147</v>
       </c>
       <c r="G96" t="n">
-        <v>373</v>
+        <v>32150.45591686</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4175,7 +4471,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4192,34 +4488,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C97" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="D97" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="E97" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="F97" t="n">
-        <v>632.3253999999999</v>
+        <v>7694.0787</v>
       </c>
       <c r="G97" t="n">
-        <v>373</v>
+        <v>24456.37721686</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>373</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4236,22 +4530,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C98" t="n">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="D98" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="E98" t="n">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="F98" t="n">
-        <v>4</v>
+        <v>2369.2982</v>
       </c>
       <c r="G98" t="n">
-        <v>372</v>
+        <v>24456.37721686</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4261,7 +4555,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4278,34 +4572,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C99" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="D99" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="E99" t="n">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="F99" t="n">
-        <v>3944.6819</v>
+        <v>2286.8328</v>
       </c>
       <c r="G99" t="n">
-        <v>372</v>
+        <v>24456.37721686</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>371</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4322,34 +4614,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="C100" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="D100" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="E100" t="n">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="F100" t="n">
-        <v>185.977</v>
+        <v>932.4071</v>
       </c>
       <c r="G100" t="n">
-        <v>372.5</v>
+        <v>25388.78431686</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>373</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4366,34 +4656,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="C101" t="n">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D101" t="n">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="E101" t="n">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="F101" t="n">
-        <v>1115.1911</v>
+        <v>1031.605</v>
       </c>
       <c r="G101" t="n">
-        <v>372.5</v>
+        <v>24357.17931686</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>372</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4410,34 +4698,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="C102" t="n">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="D102" t="n">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="E102" t="n">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="F102" t="n">
-        <v>450.5513</v>
+        <v>1874.5248</v>
       </c>
       <c r="G102" t="n">
-        <v>372</v>
+        <v>24357.17931686</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>373</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4454,34 +4740,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="C103" t="n">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D103" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="E103" t="n">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F103" t="n">
-        <v>172.1308</v>
+        <v>2913.9994</v>
       </c>
       <c r="G103" t="n">
-        <v>372</v>
+        <v>21443.17991686</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>371</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4498,34 +4782,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C104" t="n">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="D104" t="n">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="E104" t="n">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F104" t="n">
-        <v>91.8412</v>
+        <v>142.9842</v>
       </c>
       <c r="G104" t="n">
-        <v>372.5</v>
+        <v>21586.16411686</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>373</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4542,34 +4824,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="C105" t="n">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="D105" t="n">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="E105" t="n">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="F105" t="n">
-        <v>127</v>
+        <v>3032.9</v>
       </c>
       <c r="G105" t="n">
-        <v>372.5</v>
+        <v>18553.26411685999</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>372</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4586,34 +4866,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="C106" t="n">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="D106" t="n">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="E106" t="n">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="F106" t="n">
-        <v>23.9123</v>
+        <v>2959</v>
       </c>
       <c r="G106" t="n">
-        <v>373</v>
+        <v>18553.26411685999</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>373</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4630,34 +4908,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="C107" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D107" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="E107" t="n">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="F107" t="n">
-        <v>2119.0943</v>
+        <v>923</v>
       </c>
       <c r="G107" t="n">
-        <v>376</v>
+        <v>19476.26411685999</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>373</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4674,34 +4950,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C108" t="n">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="D108" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E108" t="n">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="F108" t="n">
-        <v>87</v>
+        <v>2030.2483</v>
       </c>
       <c r="G108" t="n">
-        <v>377</v>
+        <v>21506.51241685999</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>379</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4718,22 +4992,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="C109" t="n">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="D109" t="n">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="E109" t="n">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="F109" t="n">
-        <v>858.1083</v>
+        <v>2447.6139</v>
       </c>
       <c r="G109" t="n">
-        <v>372.5</v>
+        <v>23954.12631685999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4743,7 +5017,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4760,34 +5034,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="C110" t="n">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="D110" t="n">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="E110" t="n">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="F110" t="n">
-        <v>9195.921399999999</v>
+        <v>8772.56800643</v>
       </c>
       <c r="G110" t="n">
-        <v>372.5</v>
+        <v>32726.69432328999</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>370</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4804,22 +5076,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="C111" t="n">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="D111" t="n">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="E111" t="n">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="F111" t="n">
-        <v>428.0915</v>
+        <v>2815.6225</v>
       </c>
       <c r="G111" t="n">
-        <v>375</v>
+        <v>29911.07182328999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4829,7 +5101,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4846,22 +5118,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="C112" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="D112" t="n">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="E112" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="F112" t="n">
-        <v>1478.7089</v>
+        <v>2484.0378</v>
       </c>
       <c r="G112" t="n">
-        <v>375.5</v>
+        <v>29911.07182328999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4871,7 +5143,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4888,22 +5160,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C113" t="n">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="D113" t="n">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="E113" t="n">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="F113" t="n">
-        <v>1890.4717</v>
+        <v>4075.0191803</v>
       </c>
       <c r="G113" t="n">
-        <v>374</v>
+        <v>29911.07182328999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4913,7 +5185,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4930,22 +5202,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="C114" t="n">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="D114" t="n">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="E114" t="n">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="F114" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="G114" t="n">
-        <v>373</v>
+        <v>30111.07182328999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4955,7 +5227,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4972,22 +5244,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="C115" t="n">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="D115" t="n">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="E115" t="n">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="F115" t="n">
-        <v>15</v>
+        <v>2641.105</v>
       </c>
       <c r="G115" t="n">
-        <v>374</v>
+        <v>30111.07182328999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4997,7 +5269,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5014,34 +5286,32 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="C116" t="n">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="D116" t="n">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="E116" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F116" t="n">
-        <v>133.3117</v>
+        <v>737.9835</v>
       </c>
       <c r="G116" t="n">
-        <v>376</v>
+        <v>30111.07182328999</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>374</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5058,22 +5328,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="C117" t="n">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="D117" t="n">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="E117" t="n">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="F117" t="n">
-        <v>166.8526</v>
+        <v>497</v>
       </c>
       <c r="G117" t="n">
-        <v>376.5</v>
+        <v>30111.07182328999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5083,7 +5353,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5100,22 +5370,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="C118" t="n">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="D118" t="n">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="E118" t="n">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="F118" t="n">
-        <v>133.3117</v>
+        <v>1789.7048</v>
       </c>
       <c r="G118" t="n">
-        <v>375</v>
+        <v>31900.77662328999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5125,7 +5395,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5142,34 +5412,32 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C119" t="n">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D119" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E119" t="n">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F119" t="n">
-        <v>12317.8249</v>
+        <v>1294</v>
       </c>
       <c r="G119" t="n">
-        <v>376.5</v>
+        <v>30606.77662328999</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>375</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5186,22 +5454,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>388</v>
+      </c>
+      <c r="C120" t="n">
         <v>381</v>
       </c>
-      <c r="C120" t="n">
-        <v>375</v>
-      </c>
       <c r="D120" t="n">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="E120" t="n">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F120" t="n">
-        <v>444</v>
+        <v>1435.5346</v>
       </c>
       <c r="G120" t="n">
-        <v>376.5</v>
+        <v>29171.24202328999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5211,7 +5479,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5228,22 +5496,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C121" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D121" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E121" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F121" t="n">
-        <v>7.1982</v>
+        <v>745</v>
       </c>
       <c r="G121" t="n">
-        <v>378.5</v>
+        <v>29916.24202328999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5253,7 +5521,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5270,22 +5538,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C122" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D122" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E122" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F122" t="n">
-        <v>406.7107</v>
+        <v>81.51730000000001</v>
       </c>
       <c r="G122" t="n">
-        <v>384.5</v>
+        <v>29916.24202328999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5295,7 +5563,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5312,22 +5580,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C123" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D123" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E123" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F123" t="n">
-        <v>46.0712</v>
+        <v>624.8887999999999</v>
       </c>
       <c r="G123" t="n">
-        <v>387</v>
+        <v>29916.24202328999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5337,7 +5605,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5354,22 +5622,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C124" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D124" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E124" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F124" t="n">
-        <v>161.9678</v>
+        <v>2156.9927</v>
       </c>
       <c r="G124" t="n">
-        <v>387</v>
+        <v>29916.24202328999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5379,7 +5647,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5396,22 +5664,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C125" t="n">
         <v>390</v>
       </c>
       <c r="D125" t="n">
+        <v>391</v>
+      </c>
+      <c r="E125" t="n">
         <v>390</v>
       </c>
-      <c r="E125" t="n">
-        <v>386</v>
-      </c>
       <c r="F125" t="n">
-        <v>7995.9508</v>
+        <v>10259.3689</v>
       </c>
       <c r="G125" t="n">
-        <v>388.5</v>
+        <v>40175.61092328999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5421,7 +5689,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5441,19 +5709,19 @@
         <v>390</v>
       </c>
       <c r="C126" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D126" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E126" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F126" t="n">
-        <v>2028.4389</v>
+        <v>1001.8739</v>
       </c>
       <c r="G126" t="n">
-        <v>390</v>
+        <v>41177.48482328999</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5463,7 +5731,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5483,19 +5751,19 @@
         <v>389</v>
       </c>
       <c r="C127" t="n">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D127" t="n">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E127" t="n">
         <v>389</v>
       </c>
       <c r="F127" t="n">
-        <v>3588.6601</v>
+        <v>43.3455</v>
       </c>
       <c r="G127" t="n">
-        <v>390.5</v>
+        <v>41134.13932328999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5505,7 +5773,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5522,40 +5790,40 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C128" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D128" t="n">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E128" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F128" t="n">
-        <v>2127.5781</v>
+        <v>673.8638</v>
       </c>
       <c r="G128" t="n">
-        <v>390.5</v>
+        <v>41134.13932328999</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>1.02948275862069</v>
+        <v>1</v>
       </c>
       <c r="N128" t="inlineStr"/>
     </row>
@@ -5564,32 +5832,38 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C129" t="n">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D129" t="n">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E129" t="n">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F129" t="n">
-        <v>6318.4533</v>
+        <v>758</v>
       </c>
       <c r="G129" t="n">
-        <v>391</v>
+        <v>41134.13932328999</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>366</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5600,32 +5874,38 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C130" t="n">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D130" t="n">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E130" t="n">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F130" t="n">
-        <v>108.9948</v>
+        <v>201.5893</v>
       </c>
       <c r="G130" t="n">
-        <v>391.5</v>
+        <v>40932.55002328999</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>366</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5636,32 +5916,38 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C131" t="n">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D131" t="n">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E131" t="n">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F131" t="n">
-        <v>1956.4446</v>
+        <v>109.5893</v>
       </c>
       <c r="G131" t="n">
-        <v>391.5</v>
+        <v>41042.13932328999</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>366</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5672,32 +5958,38 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C132" t="n">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D132" t="n">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E132" t="n">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F132" t="n">
-        <v>5652.7369</v>
+        <v>1467.6168</v>
       </c>
       <c r="G132" t="n">
-        <v>392</v>
+        <v>41042.13932328999</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>366</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5708,22 +6000,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C133" t="n">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D133" t="n">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="E133" t="n">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F133" t="n">
-        <v>26843.401</v>
+        <v>5307.3045</v>
       </c>
       <c r="G133" t="n">
-        <v>394.5</v>
+        <v>35734.83482328999</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5732,8 +6024,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>366</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5744,32 +6042,38 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="C134" t="n">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="D134" t="n">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="E134" t="n">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="F134" t="n">
-        <v>2589.6089</v>
+        <v>510.3189</v>
       </c>
       <c r="G134" t="n">
-        <v>396</v>
+        <v>35224.51592328999</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>366</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5780,32 +6084,38 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="C135" t="n">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="D135" t="n">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="E135" t="n">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="F135" t="n">
-        <v>7279.9005</v>
+        <v>2131.8143</v>
       </c>
       <c r="G135" t="n">
-        <v>394.5</v>
+        <v>33092.70162328999</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>366</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5816,32 +6126,38 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="C136" t="n">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="D136" t="n">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E136" t="n">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="F136" t="n">
-        <v>89</v>
+        <v>3338.4503</v>
       </c>
       <c r="G136" t="n">
-        <v>394.5</v>
+        <v>36431.15192328999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>366</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5852,32 +6168,38 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="C137" t="n">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="D137" t="n">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="E137" t="n">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="F137" t="n">
-        <v>420</v>
+        <v>127</v>
       </c>
       <c r="G137" t="n">
-        <v>395.5</v>
+        <v>36304.15192328999</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>366</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5888,32 +6210,38 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="C138" t="n">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="D138" t="n">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="E138" t="n">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="F138" t="n">
-        <v>11651.0271</v>
+        <v>106.2962</v>
       </c>
       <c r="G138" t="n">
-        <v>395</v>
+        <v>36197.85572328999</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>366</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5924,32 +6252,38 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="C139" t="n">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="D139" t="n">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="E139" t="n">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="F139" t="n">
-        <v>2050.0654</v>
+        <v>422</v>
       </c>
       <c r="G139" t="n">
-        <v>395</v>
+        <v>36619.85572328999</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>366</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5960,32 +6294,38 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="C140" t="n">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="D140" t="n">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="E140" t="n">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="F140" t="n">
-        <v>2430.6989</v>
+        <v>3155.348</v>
       </c>
       <c r="G140" t="n">
-        <v>396</v>
+        <v>39775.20372328999</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>366</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5996,32 +6336,38 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="C141" t="n">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="D141" t="n">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="E141" t="n">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="F141" t="n">
-        <v>9797.756600000001</v>
+        <v>127.596</v>
       </c>
       <c r="G141" t="n">
-        <v>395.5</v>
+        <v>39647.60772328999</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>366</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6032,32 +6378,38 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C142" t="n">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="D142" t="n">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="E142" t="n">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="F142" t="n">
-        <v>3108.9211</v>
+        <v>300</v>
       </c>
       <c r="G142" t="n">
-        <v>393</v>
+        <v>39647.60772328999</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>366</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6068,32 +6420,38 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="C143" t="n">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="D143" t="n">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="E143" t="n">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="F143" t="n">
-        <v>1414.1999</v>
+        <v>1150</v>
       </c>
       <c r="G143" t="n">
-        <v>390</v>
+        <v>38497.60772328999</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>366</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6104,32 +6462,38 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="C144" t="n">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="D144" t="n">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E144" t="n">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="F144" t="n">
-        <v>8066.6737</v>
+        <v>50</v>
       </c>
       <c r="G144" t="n">
-        <v>389.5</v>
+        <v>38497.60772328999</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>366</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6140,32 +6504,38 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C145" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D145" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="E145" t="n">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="F145" t="n">
-        <v>2267.4766</v>
+        <v>946</v>
       </c>
       <c r="G145" t="n">
-        <v>389.5</v>
+        <v>39443.60772328999</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>366</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6176,32 +6546,38 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C146" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D146" t="n">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="E146" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="F146" t="n">
-        <v>4254.7892</v>
+        <v>2624.3795</v>
       </c>
       <c r="G146" t="n">
-        <v>389</v>
+        <v>39443.60772328999</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>366</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6212,36 +6588,2924 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
+        <v>377</v>
+      </c>
+      <c r="C147" t="n">
+        <v>378</v>
+      </c>
+      <c r="D147" t="n">
+        <v>378</v>
+      </c>
+      <c r="E147" t="n">
+        <v>377</v>
+      </c>
+      <c r="F147" t="n">
+        <v>145.9212</v>
+      </c>
+      <c r="G147" t="n">
+        <v>39589.52892328999</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>366</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>377</v>
+      </c>
+      <c r="C148" t="n">
+        <v>377</v>
+      </c>
+      <c r="D148" t="n">
+        <v>377</v>
+      </c>
+      <c r="E148" t="n">
+        <v>377</v>
+      </c>
+      <c r="F148" t="n">
+        <v>16.9979</v>
+      </c>
+      <c r="G148" t="n">
+        <v>39572.53102328999</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>366</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>382</v>
+      </c>
+      <c r="C149" t="n">
+        <v>382</v>
+      </c>
+      <c r="D149" t="n">
+        <v>382</v>
+      </c>
+      <c r="E149" t="n">
+        <v>382</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G149" t="n">
+        <v>39573.93102328999</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>366</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>382</v>
+      </c>
+      <c r="C150" t="n">
+        <v>382</v>
+      </c>
+      <c r="D150" t="n">
+        <v>382</v>
+      </c>
+      <c r="E150" t="n">
+        <v>382</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G150" t="n">
+        <v>39573.93102328999</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>366</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>381</v>
+      </c>
+      <c r="C151" t="n">
+        <v>381</v>
+      </c>
+      <c r="D151" t="n">
+        <v>381</v>
+      </c>
+      <c r="E151" t="n">
+        <v>381</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G151" t="n">
+        <v>38573.93102328999</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>366</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>381</v>
+      </c>
+      <c r="C152" t="n">
+        <v>381</v>
+      </c>
+      <c r="D152" t="n">
+        <v>381</v>
+      </c>
+      <c r="E152" t="n">
+        <v>381</v>
+      </c>
+      <c r="F152" t="n">
+        <v>337</v>
+      </c>
+      <c r="G152" t="n">
+        <v>38573.93102328999</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>366</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>379</v>
+      </c>
+      <c r="C153" t="n">
+        <v>378</v>
+      </c>
+      <c r="D153" t="n">
+        <v>379</v>
+      </c>
+      <c r="E153" t="n">
+        <v>378</v>
+      </c>
+      <c r="F153" t="n">
+        <v>617.4453999999999</v>
+      </c>
+      <c r="G153" t="n">
+        <v>37956.48562328999</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>366</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>378</v>
+      </c>
+      <c r="C154" t="n">
+        <v>378</v>
+      </c>
+      <c r="D154" t="n">
+        <v>378</v>
+      </c>
+      <c r="E154" t="n">
+        <v>378</v>
+      </c>
+      <c r="F154" t="n">
+        <v>177.0083</v>
+      </c>
+      <c r="G154" t="n">
+        <v>37956.48562328999</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>366</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>377</v>
+      </c>
+      <c r="C155" t="n">
+        <v>374</v>
+      </c>
+      <c r="D155" t="n">
+        <v>377</v>
+      </c>
+      <c r="E155" t="n">
+        <v>374</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3509.3255</v>
+      </c>
+      <c r="G155" t="n">
+        <v>34447.16012328999</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>366</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>379</v>
+      </c>
+      <c r="C156" t="n">
+        <v>379</v>
+      </c>
+      <c r="D156" t="n">
+        <v>379</v>
+      </c>
+      <c r="E156" t="n">
+        <v>379</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G156" t="n">
+        <v>34448.48012328999</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>366</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>377</v>
+      </c>
+      <c r="C157" t="n">
+        <v>377</v>
+      </c>
+      <c r="D157" t="n">
+        <v>377</v>
+      </c>
+      <c r="E157" t="n">
+        <v>377</v>
+      </c>
+      <c r="F157" t="n">
+        <v>152</v>
+      </c>
+      <c r="G157" t="n">
+        <v>34296.48012328999</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>366</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>379</v>
+      </c>
+      <c r="C158" t="n">
+        <v>379</v>
+      </c>
+      <c r="D158" t="n">
+        <v>379</v>
+      </c>
+      <c r="E158" t="n">
+        <v>379</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2.0334</v>
+      </c>
+      <c r="G158" t="n">
+        <v>34298.51352328999</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>366</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>377</v>
+      </c>
+      <c r="C159" t="n">
+        <v>377</v>
+      </c>
+      <c r="D159" t="n">
+        <v>377</v>
+      </c>
+      <c r="E159" t="n">
+        <v>377</v>
+      </c>
+      <c r="F159" t="n">
+        <v>133.5021</v>
+      </c>
+      <c r="G159" t="n">
+        <v>34165.01142328999</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>366</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>377</v>
+      </c>
+      <c r="C160" t="n">
+        <v>375</v>
+      </c>
+      <c r="D160" t="n">
+        <v>377</v>
+      </c>
+      <c r="E160" t="n">
+        <v>375</v>
+      </c>
+      <c r="F160" t="n">
+        <v>420</v>
+      </c>
+      <c r="G160" t="n">
+        <v>33745.01142328999</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>366</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>379</v>
+      </c>
+      <c r="C161" t="n">
+        <v>379</v>
+      </c>
+      <c r="D161" t="n">
+        <v>379</v>
+      </c>
+      <c r="E161" t="n">
+        <v>379</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G161" t="n">
+        <v>33746.33142328999</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>366</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>378</v>
+      </c>
+      <c r="C162" t="n">
+        <v>378</v>
+      </c>
+      <c r="D162" t="n">
+        <v>378</v>
+      </c>
+      <c r="E162" t="n">
+        <v>378</v>
+      </c>
+      <c r="F162" t="n">
+        <v>255.0533</v>
+      </c>
+      <c r="G162" t="n">
+        <v>33491.27812328999</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>366</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>375</v>
+      </c>
+      <c r="C163" t="n">
+        <v>374</v>
+      </c>
+      <c r="D163" t="n">
+        <v>375</v>
+      </c>
+      <c r="E163" t="n">
+        <v>374</v>
+      </c>
+      <c r="F163" t="n">
+        <v>759.0162</v>
+      </c>
+      <c r="G163" t="n">
+        <v>32732.26192329</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>366</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>374</v>
+      </c>
+      <c r="C164" t="n">
+        <v>374</v>
+      </c>
+      <c r="D164" t="n">
+        <v>374</v>
+      </c>
+      <c r="E164" t="n">
+        <v>374</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1012.9999</v>
+      </c>
+      <c r="G164" t="n">
+        <v>32732.26192329</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>366</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>374</v>
+      </c>
+      <c r="C165" t="n">
+        <v>374</v>
+      </c>
+      <c r="D165" t="n">
+        <v>374</v>
+      </c>
+      <c r="E165" t="n">
+        <v>374</v>
+      </c>
+      <c r="F165" t="n">
+        <v>155</v>
+      </c>
+      <c r="G165" t="n">
+        <v>32732.26192329</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>366</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>374</v>
+      </c>
+      <c r="C166" t="n">
+        <v>373</v>
+      </c>
+      <c r="D166" t="n">
+        <v>374</v>
+      </c>
+      <c r="E166" t="n">
+        <v>373</v>
+      </c>
+      <c r="F166" t="n">
+        <v>601.5001999999999</v>
+      </c>
+      <c r="G166" t="n">
+        <v>32130.76172329</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>366</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>373</v>
+      </c>
+      <c r="C167" t="n">
+        <v>373</v>
+      </c>
+      <c r="D167" t="n">
+        <v>373</v>
+      </c>
+      <c r="E167" t="n">
+        <v>373</v>
+      </c>
+      <c r="F167" t="n">
+        <v>135</v>
+      </c>
+      <c r="G167" t="n">
+        <v>32130.76172329</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>366</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>373</v>
+      </c>
+      <c r="C168" t="n">
+        <v>373</v>
+      </c>
+      <c r="D168" t="n">
+        <v>373</v>
+      </c>
+      <c r="E168" t="n">
+        <v>373</v>
+      </c>
+      <c r="F168" t="n">
+        <v>632.3253999999999</v>
+      </c>
+      <c r="G168" t="n">
+        <v>32130.76172329</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>366</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>373</v>
+      </c>
+      <c r="C169" t="n">
+        <v>371</v>
+      </c>
+      <c r="D169" t="n">
+        <v>373</v>
+      </c>
+      <c r="E169" t="n">
+        <v>371</v>
+      </c>
+      <c r="F169" t="n">
+        <v>4</v>
+      </c>
+      <c r="G169" t="n">
+        <v>32126.76172329</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>366</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>371</v>
+      </c>
+      <c r="C170" t="n">
+        <v>373</v>
+      </c>
+      <c r="D170" t="n">
+        <v>373</v>
+      </c>
+      <c r="E170" t="n">
+        <v>371</v>
+      </c>
+      <c r="F170" t="n">
+        <v>3944.6819</v>
+      </c>
+      <c r="G170" t="n">
+        <v>36071.44362329</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>366</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>372</v>
+      </c>
+      <c r="C171" t="n">
+        <v>372</v>
+      </c>
+      <c r="D171" t="n">
+        <v>372</v>
+      </c>
+      <c r="E171" t="n">
+        <v>372</v>
+      </c>
+      <c r="F171" t="n">
+        <v>185.977</v>
+      </c>
+      <c r="G171" t="n">
+        <v>35885.46662329</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>366</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>373</v>
+      </c>
+      <c r="C172" t="n">
+        <v>373</v>
+      </c>
+      <c r="D172" t="n">
+        <v>373</v>
+      </c>
+      <c r="E172" t="n">
+        <v>373</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1115.1911</v>
+      </c>
+      <c r="G172" t="n">
+        <v>37000.65772329</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>366</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>371</v>
+      </c>
+      <c r="C173" t="n">
+        <v>371</v>
+      </c>
+      <c r="D173" t="n">
+        <v>371</v>
+      </c>
+      <c r="E173" t="n">
+        <v>371</v>
+      </c>
+      <c r="F173" t="n">
+        <v>450.5513</v>
+      </c>
+      <c r="G173" t="n">
+        <v>36550.10642329</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>366</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>370</v>
+      </c>
+      <c r="C174" t="n">
+        <v>373</v>
+      </c>
+      <c r="D174" t="n">
+        <v>373</v>
+      </c>
+      <c r="E174" t="n">
+        <v>370</v>
+      </c>
+      <c r="F174" t="n">
+        <v>172.1308</v>
+      </c>
+      <c r="G174" t="n">
+        <v>36722.23722329</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>366</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>372</v>
+      </c>
+      <c r="C175" t="n">
+        <v>372</v>
+      </c>
+      <c r="D175" t="n">
+        <v>372</v>
+      </c>
+      <c r="E175" t="n">
+        <v>372</v>
+      </c>
+      <c r="F175" t="n">
+        <v>91.8412</v>
+      </c>
+      <c r="G175" t="n">
+        <v>36630.39602329</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>366</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>373</v>
+      </c>
+      <c r="C176" t="n">
+        <v>373</v>
+      </c>
+      <c r="D176" t="n">
+        <v>373</v>
+      </c>
+      <c r="E176" t="n">
+        <v>373</v>
+      </c>
+      <c r="F176" t="n">
+        <v>127</v>
+      </c>
+      <c r="G176" t="n">
+        <v>36757.39602329</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>366</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>373</v>
+      </c>
+      <c r="C177" t="n">
+        <v>373</v>
+      </c>
+      <c r="D177" t="n">
+        <v>373</v>
+      </c>
+      <c r="E177" t="n">
+        <v>373</v>
+      </c>
+      <c r="F177" t="n">
+        <v>23.9123</v>
+      </c>
+      <c r="G177" t="n">
+        <v>36757.39602329</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>366</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>375</v>
+      </c>
+      <c r="C178" t="n">
+        <v>379</v>
+      </c>
+      <c r="D178" t="n">
+        <v>379</v>
+      </c>
+      <c r="E178" t="n">
+        <v>375</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2119.0943</v>
+      </c>
+      <c r="G178" t="n">
+        <v>38876.49032329</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>366</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>379</v>
+      </c>
+      <c r="C179" t="n">
+        <v>375</v>
+      </c>
+      <c r="D179" t="n">
+        <v>379</v>
+      </c>
+      <c r="E179" t="n">
+        <v>375</v>
+      </c>
+      <c r="F179" t="n">
+        <v>87</v>
+      </c>
+      <c r="G179" t="n">
+        <v>38789.49032329</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>366</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>373</v>
+      </c>
+      <c r="C180" t="n">
+        <v>370</v>
+      </c>
+      <c r="D180" t="n">
+        <v>373</v>
+      </c>
+      <c r="E180" t="n">
+        <v>370</v>
+      </c>
+      <c r="F180" t="n">
+        <v>858.1083</v>
+      </c>
+      <c r="G180" t="n">
+        <v>37931.38202329</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>366</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>371</v>
+      </c>
+      <c r="C181" t="n">
+        <v>375</v>
+      </c>
+      <c r="D181" t="n">
+        <v>375</v>
+      </c>
+      <c r="E181" t="n">
+        <v>371</v>
+      </c>
+      <c r="F181" t="n">
+        <v>9195.921399999999</v>
+      </c>
+      <c r="G181" t="n">
+        <v>47127.30342329</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>366</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>375</v>
+      </c>
+      <c r="C182" t="n">
+        <v>375</v>
+      </c>
+      <c r="D182" t="n">
+        <v>375</v>
+      </c>
+      <c r="E182" t="n">
+        <v>375</v>
+      </c>
+      <c r="F182" t="n">
+        <v>428.0915</v>
+      </c>
+      <c r="G182" t="n">
+        <v>47127.30342329</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>366</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>376</v>
+      </c>
+      <c r="C183" t="n">
+        <v>376</v>
+      </c>
+      <c r="D183" t="n">
+        <v>376</v>
+      </c>
+      <c r="E183" t="n">
+        <v>376</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1478.7089</v>
+      </c>
+      <c r="G183" t="n">
+        <v>48606.01232328999</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>366</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>377</v>
+      </c>
+      <c r="C184" t="n">
+        <v>372</v>
+      </c>
+      <c r="D184" t="n">
+        <v>377</v>
+      </c>
+      <c r="E184" t="n">
+        <v>372</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1890.4717</v>
+      </c>
+      <c r="G184" t="n">
+        <v>46715.54062328999</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>366</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>374</v>
+      </c>
+      <c r="C185" t="n">
+        <v>374</v>
+      </c>
+      <c r="D185" t="n">
+        <v>374</v>
+      </c>
+      <c r="E185" t="n">
+        <v>374</v>
+      </c>
+      <c r="F185" t="n">
+        <v>15</v>
+      </c>
+      <c r="G185" t="n">
+        <v>46730.54062328999</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>366</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>374</v>
+      </c>
+      <c r="C186" t="n">
+        <v>374</v>
+      </c>
+      <c r="D186" t="n">
+        <v>374</v>
+      </c>
+      <c r="E186" t="n">
+        <v>374</v>
+      </c>
+      <c r="F186" t="n">
+        <v>15</v>
+      </c>
+      <c r="G186" t="n">
+        <v>46730.54062328999</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>366</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>378</v>
+      </c>
+      <c r="C187" t="n">
+        <v>378</v>
+      </c>
+      <c r="D187" t="n">
+        <v>378</v>
+      </c>
+      <c r="E187" t="n">
+        <v>378</v>
+      </c>
+      <c r="F187" t="n">
+        <v>133.3117</v>
+      </c>
+      <c r="G187" t="n">
+        <v>46863.85232328999</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>366</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>376</v>
+      </c>
+      <c r="C188" t="n">
+        <v>375</v>
+      </c>
+      <c r="D188" t="n">
+        <v>376</v>
+      </c>
+      <c r="E188" t="n">
+        <v>375</v>
+      </c>
+      <c r="F188" t="n">
+        <v>166.8526</v>
+      </c>
+      <c r="G188" t="n">
+        <v>46696.99972328999</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>366</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>375</v>
+      </c>
+      <c r="C189" t="n">
+        <v>375</v>
+      </c>
+      <c r="D189" t="n">
+        <v>375</v>
+      </c>
+      <c r="E189" t="n">
+        <v>375</v>
+      </c>
+      <c r="F189" t="n">
+        <v>133.3117</v>
+      </c>
+      <c r="G189" t="n">
+        <v>46696.99972328999</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>366</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>379</v>
+      </c>
+      <c r="C190" t="n">
+        <v>378</v>
+      </c>
+      <c r="D190" t="n">
+        <v>388</v>
+      </c>
+      <c r="E190" t="n">
+        <v>378</v>
+      </c>
+      <c r="F190" t="n">
+        <v>12317.8249</v>
+      </c>
+      <c r="G190" t="n">
+        <v>59014.82462328999</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>366</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>381</v>
+      </c>
+      <c r="C191" t="n">
+        <v>375</v>
+      </c>
+      <c r="D191" t="n">
+        <v>382</v>
+      </c>
+      <c r="E191" t="n">
+        <v>375</v>
+      </c>
+      <c r="F191" t="n">
+        <v>444</v>
+      </c>
+      <c r="G191" t="n">
+        <v>58570.82462328999</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>366</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>382</v>
+      </c>
+      <c r="C192" t="n">
+        <v>382</v>
+      </c>
+      <c r="D192" t="n">
+        <v>382</v>
+      </c>
+      <c r="E192" t="n">
+        <v>382</v>
+      </c>
+      <c r="F192" t="n">
+        <v>7.1982</v>
+      </c>
+      <c r="G192" t="n">
+        <v>58578.02282328999</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>366</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>382</v>
+      </c>
+      <c r="C193" t="n">
+        <v>387</v>
+      </c>
+      <c r="D193" t="n">
+        <v>387</v>
+      </c>
+      <c r="E193" t="n">
+        <v>382</v>
+      </c>
+      <c r="F193" t="n">
+        <v>406.7107</v>
+      </c>
+      <c r="G193" t="n">
+        <v>58984.73352328999</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>366</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>386</v>
+      </c>
+      <c r="C194" t="n">
+        <v>387</v>
+      </c>
+      <c r="D194" t="n">
+        <v>387</v>
+      </c>
+      <c r="E194" t="n">
+        <v>386</v>
+      </c>
+      <c r="F194" t="n">
+        <v>46.0712</v>
+      </c>
+      <c r="G194" t="n">
+        <v>58984.73352328999</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>366</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>387</v>
+      </c>
+      <c r="C195" t="n">
+        <v>387</v>
+      </c>
+      <c r="D195" t="n">
+        <v>387</v>
+      </c>
+      <c r="E195" t="n">
+        <v>387</v>
+      </c>
+      <c r="F195" t="n">
+        <v>161.9678</v>
+      </c>
+      <c r="G195" t="n">
+        <v>58984.73352328999</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>366</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>387</v>
+      </c>
+      <c r="C196" t="n">
+        <v>390</v>
+      </c>
+      <c r="D196" t="n">
+        <v>390</v>
+      </c>
+      <c r="E196" t="n">
+        <v>386</v>
+      </c>
+      <c r="F196" t="n">
+        <v>7995.9508</v>
+      </c>
+      <c r="G196" t="n">
+        <v>66980.68432329</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>366</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>390</v>
+      </c>
+      <c r="C197" t="n">
+        <v>390</v>
+      </c>
+      <c r="D197" t="n">
+        <v>390</v>
+      </c>
+      <c r="E197" t="n">
+        <v>386</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2028.4389</v>
+      </c>
+      <c r="G197" t="n">
+        <v>66980.68432329</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>366</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
         <v>389</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C198" t="n">
+        <v>391</v>
+      </c>
+      <c r="D198" t="n">
+        <v>391</v>
+      </c>
+      <c r="E198" t="n">
         <v>389</v>
       </c>
-      <c r="D147" t="n">
+      <c r="F198" t="n">
+        <v>3588.6601</v>
+      </c>
+      <c r="G198" t="n">
+        <v>70569.34442328999</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>366</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>391</v>
+      </c>
+      <c r="C199" t="n">
+        <v>390</v>
+      </c>
+      <c r="D199" t="n">
+        <v>391</v>
+      </c>
+      <c r="E199" t="n">
+        <v>390</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2127.5781</v>
+      </c>
+      <c r="G199" t="n">
+        <v>68441.76632328999</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>366</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>391</v>
+      </c>
+      <c r="C200" t="n">
+        <v>392</v>
+      </c>
+      <c r="D200" t="n">
+        <v>392</v>
+      </c>
+      <c r="E200" t="n">
+        <v>391</v>
+      </c>
+      <c r="F200" t="n">
+        <v>6318.4533</v>
+      </c>
+      <c r="G200" t="n">
+        <v>74760.21962328999</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>366</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>391</v>
+      </c>
+      <c r="C201" t="n">
+        <v>391</v>
+      </c>
+      <c r="D201" t="n">
+        <v>391</v>
+      </c>
+      <c r="E201" t="n">
+        <v>391</v>
+      </c>
+      <c r="F201" t="n">
+        <v>108.9948</v>
+      </c>
+      <c r="G201" t="n">
+        <v>74651.22482328999</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>366</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1.063306010928962</v>
+      </c>
+      <c r="N201" t="n">
+        <v>1.002739726027397</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>391</v>
+      </c>
+      <c r="C202" t="n">
+        <v>392</v>
+      </c>
+      <c r="D202" t="n">
+        <v>392</v>
+      </c>
+      <c r="E202" t="n">
+        <v>391</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1956.4446</v>
+      </c>
+      <c r="G202" t="n">
+        <v>76607.66942328999</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>392</v>
+      </c>
+      <c r="C203" t="n">
+        <v>392</v>
+      </c>
+      <c r="D203" t="n">
+        <v>392</v>
+      </c>
+      <c r="E203" t="n">
+        <v>388</v>
+      </c>
+      <c r="F203" t="n">
+        <v>5652.7369</v>
+      </c>
+      <c r="G203" t="n">
+        <v>76607.66942328999</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>391</v>
+      </c>
+      <c r="C204" t="n">
+        <v>397</v>
+      </c>
+      <c r="D204" t="n">
+        <v>397</v>
+      </c>
+      <c r="E204" t="n">
+        <v>391</v>
+      </c>
+      <c r="F204" t="n">
+        <v>26843.401</v>
+      </c>
+      <c r="G204" t="n">
+        <v>103451.07042329</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>395</v>
+      </c>
+      <c r="C205" t="n">
+        <v>395</v>
+      </c>
+      <c r="D205" t="n">
+        <v>397</v>
+      </c>
+      <c r="E205" t="n">
+        <v>394</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2589.6089</v>
+      </c>
+      <c r="G205" t="n">
+        <v>100861.46152329</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>396</v>
+      </c>
+      <c r="C206" t="n">
+        <v>394</v>
+      </c>
+      <c r="D206" t="n">
+        <v>396</v>
+      </c>
+      <c r="E206" t="n">
+        <v>394</v>
+      </c>
+      <c r="F206" t="n">
+        <v>7279.9005</v>
+      </c>
+      <c r="G206" t="n">
+        <v>93581.56102328998</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>395</v>
+      </c>
+      <c r="C207" t="n">
+        <v>395</v>
+      </c>
+      <c r="D207" t="n">
+        <v>395</v>
+      </c>
+      <c r="E207" t="n">
+        <v>395</v>
+      </c>
+      <c r="F207" t="n">
+        <v>89</v>
+      </c>
+      <c r="G207" t="n">
+        <v>93670.56102328998</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>392</v>
+      </c>
+      <c r="C208" t="n">
+        <v>396</v>
+      </c>
+      <c r="D208" t="n">
+        <v>396</v>
+      </c>
+      <c r="E208" t="n">
+        <v>392</v>
+      </c>
+      <c r="F208" t="n">
+        <v>420</v>
+      </c>
+      <c r="G208" t="n">
+        <v>94090.56102328998</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>396</v>
+      </c>
+      <c r="C209" t="n">
+        <v>394</v>
+      </c>
+      <c r="D209" t="n">
+        <v>398</v>
+      </c>
+      <c r="E209" t="n">
+        <v>394</v>
+      </c>
+      <c r="F209" t="n">
+        <v>11651.0271</v>
+      </c>
+      <c r="G209" t="n">
+        <v>82439.53392328997</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>394</v>
+      </c>
+      <c r="C210" t="n">
+        <v>396</v>
+      </c>
+      <c r="D210" t="n">
+        <v>396</v>
+      </c>
+      <c r="E210" t="n">
+        <v>390</v>
+      </c>
+      <c r="F210" t="n">
+        <v>2050.0654</v>
+      </c>
+      <c r="G210" t="n">
+        <v>84489.59932328998</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>395</v>
+      </c>
+      <c r="C211" t="n">
+        <v>396</v>
+      </c>
+      <c r="D211" t="n">
+        <v>396</v>
+      </c>
+      <c r="E211" t="n">
+        <v>393</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2430.6989</v>
+      </c>
+      <c r="G211" t="n">
+        <v>84489.59932328998</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>394</v>
+      </c>
+      <c r="C212" t="n">
+        <v>395</v>
+      </c>
+      <c r="D212" t="n">
+        <v>396</v>
+      </c>
+      <c r="E212" t="n">
+        <v>390</v>
+      </c>
+      <c r="F212" t="n">
+        <v>9797.756600000001</v>
+      </c>
+      <c r="G212" t="n">
+        <v>74691.84272328997</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
         <v>389</v>
       </c>
-      <c r="E147" t="n">
+      <c r="C213" t="n">
+        <v>391</v>
+      </c>
+      <c r="D213" t="n">
+        <v>394</v>
+      </c>
+      <c r="E213" t="n">
+        <v>388</v>
+      </c>
+      <c r="F213" t="n">
+        <v>3108.9211</v>
+      </c>
+      <c r="G213" t="n">
+        <v>71582.92162328996</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
         <v>389</v>
       </c>
-      <c r="F147" t="n">
+      <c r="C214" t="n">
+        <v>389</v>
+      </c>
+      <c r="D214" t="n">
+        <v>390</v>
+      </c>
+      <c r="E214" t="n">
+        <v>389</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1414.1999</v>
+      </c>
+      <c r="G214" t="n">
+        <v>70168.72172328996</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>387</v>
+      </c>
+      <c r="C215" t="n">
+        <v>390</v>
+      </c>
+      <c r="D215" t="n">
+        <v>390</v>
+      </c>
+      <c r="E215" t="n">
+        <v>386</v>
+      </c>
+      <c r="F215" t="n">
+        <v>8066.6737</v>
+      </c>
+      <c r="G215" t="n">
+        <v>78235.39542328996</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>389</v>
+      </c>
+      <c r="C216" t="n">
+        <v>389</v>
+      </c>
+      <c r="D216" t="n">
+        <v>389</v>
+      </c>
+      <c r="E216" t="n">
+        <v>389</v>
+      </c>
+      <c r="F216" t="n">
+        <v>2267.4766</v>
+      </c>
+      <c r="G216" t="n">
+        <v>75967.91882328996</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>389</v>
+      </c>
+      <c r="C217" t="n">
+        <v>389</v>
+      </c>
+      <c r="D217" t="n">
+        <v>390</v>
+      </c>
+      <c r="E217" t="n">
+        <v>389</v>
+      </c>
+      <c r="F217" t="n">
+        <v>4254.7892</v>
+      </c>
+      <c r="G217" t="n">
+        <v>75967.91882328996</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>389</v>
+      </c>
+      <c r="C218" t="n">
+        <v>389</v>
+      </c>
+      <c r="D218" t="n">
+        <v>389</v>
+      </c>
+      <c r="E218" t="n">
+        <v>389</v>
+      </c>
+      <c r="F218" t="n">
         <v>1611.4633</v>
       </c>
-      <c r="G147" t="n">
-        <v>389</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="G218" t="n">
+        <v>75967.91882328996</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-18 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-18 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>11317.7697</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>11317.7697</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>365</v>
@@ -521,7 +521,7 @@
         <v>11317.7697</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>365</v>
@@ -562,7 +562,7 @@
         <v>11317.7697</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>365</v>
@@ -603,10 +603,14 @@
         <v>11317.7697</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>365</v>
+      </c>
+      <c r="J6" t="n">
+        <v>365</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -636,7 +640,7 @@
         <v>11317.7697</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>365</v>
@@ -644,7 +648,11 @@
       <c r="J7" t="n">
         <v>365</v>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -673,7 +681,7 @@
         <v>11317.7697</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>365</v>
@@ -714,7 +722,7 @@
         <v>11317.7697</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>365</v>
@@ -722,11 +730,7 @@
       <c r="J9" t="n">
         <v>365</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -755,11 +759,19 @@
         <v>11592.7697</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>365</v>
+      </c>
+      <c r="J10" t="n">
+        <v>365</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -788,11 +800,19 @@
         <v>11592.7697</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>366</v>
+      </c>
+      <c r="J11" t="n">
+        <v>365</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -821,10 +841,14 @@
         <v>11592.7697</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>366</v>
+      </c>
+      <c r="J12" t="n">
+        <v>366</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -854,11 +878,19 @@
         <v>11962.7697</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>366</v>
+      </c>
+      <c r="J13" t="n">
+        <v>366</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -887,11 +919,19 @@
         <v>11962.7697</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>368</v>
+      </c>
+      <c r="J14" t="n">
+        <v>366</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -920,11 +960,19 @@
         <v>12382.7697</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>368</v>
+      </c>
+      <c r="J15" t="n">
+        <v>366</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -953,11 +1001,19 @@
         <v>12382.7697</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>369</v>
+      </c>
+      <c r="J16" t="n">
+        <v>366</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -986,11 +1042,19 @@
         <v>11003.1308</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>369</v>
+      </c>
+      <c r="J17" t="n">
+        <v>366</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1019,11 +1083,19 @@
         <v>11098.8389</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>366</v>
+      </c>
+      <c r="J18" t="n">
+        <v>366</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1052,11 +1124,19 @@
         <v>11269.5465</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>368</v>
+      </c>
+      <c r="J19" t="n">
+        <v>366</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1085,11 +1165,19 @@
         <v>11001.5465</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>369</v>
+      </c>
+      <c r="J20" t="n">
+        <v>366</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1118,11 +1206,19 @@
         <v>11001.5465</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>368</v>
+      </c>
+      <c r="J21" t="n">
+        <v>366</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1151,11 +1247,19 @@
         <v>11001.5465</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>368</v>
+      </c>
+      <c r="J22" t="n">
+        <v>366</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1184,11 +1288,19 @@
         <v>11001.5465</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>368</v>
+      </c>
+      <c r="J23" t="n">
+        <v>366</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1217,11 +1329,19 @@
         <v>11001.5465</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>368</v>
+      </c>
+      <c r="J24" t="n">
+        <v>366</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1250,11 +1370,19 @@
         <v>11001.5465</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>368</v>
+      </c>
+      <c r="J25" t="n">
+        <v>366</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1283,11 +1411,19 @@
         <v>11001.5465</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>368</v>
+      </c>
+      <c r="J26" t="n">
+        <v>366</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1316,11 +1452,19 @@
         <v>11001.5465</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>368</v>
+      </c>
+      <c r="J27" t="n">
+        <v>366</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1349,11 +1493,19 @@
         <v>11001.5465</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>368</v>
+      </c>
+      <c r="J28" t="n">
+        <v>366</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1382,11 +1534,19 @@
         <v>11001.5465</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>368</v>
+      </c>
+      <c r="J29" t="n">
+        <v>366</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1415,11 +1575,19 @@
         <v>11001.5465</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>368</v>
+      </c>
+      <c r="J30" t="n">
+        <v>366</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1448,15 +1616,19 @@
         <v>11221.5465</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>368</v>
       </c>
       <c r="J31" t="n">
-        <v>368</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+        <v>366</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1485,15 +1657,17 @@
         <v>11221.5465</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>369</v>
+      </c>
       <c r="J32" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -1524,15 +1698,17 @@
         <v>11221.5465</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>369</v>
+      </c>
       <c r="J33" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -1563,11 +1739,19 @@
         <v>11792.5465</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>369</v>
+      </c>
+      <c r="J34" t="n">
+        <v>366</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1596,11 +1780,19 @@
         <v>11742.5465</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>372</v>
+      </c>
+      <c r="J35" t="n">
+        <v>366</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1629,11 +1821,19 @@
         <v>12482.5465</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>371</v>
+      </c>
+      <c r="J36" t="n">
+        <v>366</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1662,11 +1862,19 @@
         <v>4811.595399999997</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>374</v>
+      </c>
+      <c r="J37" t="n">
+        <v>366</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1695,11 +1903,19 @@
         <v>5128.438799999996</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>371</v>
+      </c>
+      <c r="J38" t="n">
+        <v>366</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1728,11 +1944,19 @@
         <v>5128.438799999996</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>372</v>
+      </c>
+      <c r="J39" t="n">
+        <v>366</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1761,11 +1985,19 @@
         <v>4121.357199999997</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>372</v>
+      </c>
+      <c r="J40" t="n">
+        <v>366</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1794,11 +2026,19 @@
         <v>4121.357199999997</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>371</v>
+      </c>
+      <c r="J41" t="n">
+        <v>366</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1827,11 +2067,19 @@
         <v>4121.357199999997</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>371</v>
+      </c>
+      <c r="J42" t="n">
+        <v>366</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1860,11 +2108,19 @@
         <v>4121.357199999997</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>371</v>
+      </c>
+      <c r="J43" t="n">
+        <v>366</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1893,15 +2149,17 @@
         <v>699.5223999999967</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>371</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>366</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -1932,12 +2190,14 @@
         <v>700.9223999999966</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>369</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>366</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1971,10 +2231,14 @@
         <v>1470.922399999997</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>371</v>
+      </c>
+      <c r="J46" t="n">
+        <v>366</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2008,10 +2272,14 @@
         <v>1600.922399999997</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>372</v>
+      </c>
+      <c r="J47" t="n">
+        <v>366</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2045,10 +2313,14 @@
         <v>1337.837899999997</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>373</v>
+      </c>
+      <c r="J48" t="n">
+        <v>366</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2082,10 +2354,14 @@
         <v>-231.5811000000033</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>372</v>
+      </c>
+      <c r="J49" t="n">
+        <v>366</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2119,10 +2395,14 @@
         <v>-231.5811000000033</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>371</v>
+      </c>
+      <c r="J50" t="n">
+        <v>366</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2156,10 +2436,14 @@
         <v>-229.5811000000033</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>371</v>
+      </c>
+      <c r="J51" t="n">
+        <v>366</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2193,10 +2477,14 @@
         <v>-1082.581100000003</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>372</v>
+      </c>
+      <c r="J52" t="n">
+        <v>366</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2230,10 +2518,14 @@
         <v>-1075.860669900003</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>370</v>
+      </c>
+      <c r="J53" t="n">
+        <v>366</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2267,12 +2559,14 @@
         <v>-1082.580669900003</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>372</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>366</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2306,10 +2600,14 @@
         <v>-1081.180669900003</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>370</v>
+      </c>
+      <c r="J55" t="n">
+        <v>366</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2343,10 +2641,14 @@
         <v>1662.719130099997</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>372</v>
+      </c>
+      <c r="J56" t="n">
+        <v>366</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2380,10 +2682,14 @@
         <v>9810.551030099998</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>373</v>
+      </c>
+      <c r="J57" t="n">
+        <v>366</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2417,10 +2723,14 @@
         <v>9810.551030099998</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>374</v>
+      </c>
+      <c r="J58" t="n">
+        <v>366</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2454,10 +2764,14 @@
         <v>9802.656230099998</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>374</v>
+      </c>
+      <c r="J59" t="n">
+        <v>366</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2491,10 +2805,14 @@
         <v>9804.056230099997</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>370</v>
+      </c>
+      <c r="J60" t="n">
+        <v>366</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2528,10 +2846,14 @@
         <v>7920.730430099997</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>375</v>
+      </c>
+      <c r="J61" t="n">
+        <v>366</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2565,10 +2887,14 @@
         <v>8164.723930099996</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>370</v>
+      </c>
+      <c r="J62" t="n">
+        <v>366</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2602,10 +2928,14 @@
         <v>8166.123930099996</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>371</v>
+      </c>
+      <c r="J63" t="n">
+        <v>366</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2639,10 +2969,14 @@
         <v>8166.123930099996</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>374</v>
+      </c>
+      <c r="J64" t="n">
+        <v>366</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2679,7 +3013,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>366</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2713,10 +3049,14 @@
         <v>10002.8076301</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>374</v>
+      </c>
+      <c r="J66" t="n">
+        <v>366</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2753,7 +3093,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>366</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2790,7 +3132,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>366</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2827,7 +3171,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>366</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2864,7 +3210,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>366</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2898,16 +3246,20 @@
         <v>21972.2009301</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>366</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
       <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
@@ -2936,8 +3288,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>366</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2969,8 +3327,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>366</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3002,8 +3366,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>366</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3032,11 +3402,17 @@
         <v>28519.99701686</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>366</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3068,8 +3444,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>366</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3098,11 +3480,17 @@
         <v>23622.99701686</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>366</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3131,11 +3519,17 @@
         <v>23622.99701686</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>366</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3167,8 +3561,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>366</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3200,8 +3600,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>366</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3233,8 +3639,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>366</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3266,8 +3678,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>366</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3299,8 +3717,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>366</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3329,11 +3753,17 @@
         <v>27057.72691686</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>366</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3362,11 +3792,17 @@
         <v>29224.22321686</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>366</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3395,11 +3831,17 @@
         <v>29224.22321686</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>366</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3428,11 +3870,17 @@
         <v>29224.22321686</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>366</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3461,11 +3909,17 @@
         <v>29224.22321686</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>366</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3494,11 +3948,17 @@
         <v>28832.53601686</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>366</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3527,11 +3987,17 @@
         <v>28832.53601686</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>366</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3560,11 +4026,17 @@
         <v>27689.82431686</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>366</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3596,8 +4068,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>366</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3629,8 +4107,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>366</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3662,8 +4146,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>366</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3695,8 +4185,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>366</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3728,8 +4224,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>366</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3761,8 +4263,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>366</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3794,8 +4302,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>366</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3827,8 +4341,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>366</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3860,8 +4380,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>366</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3893,8 +4419,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>366</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3926,8 +4458,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>366</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3959,8 +4497,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>366</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3992,8 +4536,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>366</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4025,8 +4575,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>366</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4058,8 +4614,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>366</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4091,8 +4653,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>366</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4124,8 +4692,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>366</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4157,8 +4731,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>366</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4190,8 +4770,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>366</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4223,8 +4809,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>366</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4256,8 +4848,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>366</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4289,8 +4887,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>366</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4322,8 +4926,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>366</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4355,8 +4965,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>366</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4388,8 +5004,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>366</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4421,8 +5043,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>366</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4454,8 +5082,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>366</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4487,8 +5121,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>366</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4520,8 +5160,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>366</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4553,8 +5199,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>366</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4586,8 +5238,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>366</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4619,8 +5277,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>366</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4652,8 +5316,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>366</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4685,8 +5355,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>366</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4718,8 +5394,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>366</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4751,8 +5433,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>366</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4784,8 +5472,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>366</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4817,8 +5511,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>366</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4850,8 +5550,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>366</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4883,8 +5589,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>366</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4916,8 +5628,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>366</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4949,8 +5667,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>366</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4982,8 +5706,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>366</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5015,8 +5745,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>366</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5048,8 +5784,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>366</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5081,8 +5823,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>366</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5114,8 +5862,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>366</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5144,11 +5898,17 @@
         <v>36619.85572328999</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>366</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5180,8 +5940,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>366</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5210,11 +5976,17 @@
         <v>39647.60772328999</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>366</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5246,8 +6018,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>366</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5279,8 +6057,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>366</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5312,8 +6096,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>366</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5345,8 +6135,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>366</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5378,8 +6174,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>366</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5408,11 +6210,17 @@
         <v>39589.52892328999</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>366</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5444,8 +6252,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>366</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5474,11 +6288,17 @@
         <v>39573.93102328999</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>366</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5507,11 +6327,17 @@
         <v>39573.93102328999</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>366</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5540,11 +6366,17 @@
         <v>38573.93102328999</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>366</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5576,8 +6408,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>366</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5609,8 +6447,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>366</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5642,8 +6486,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>366</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5675,8 +6525,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>366</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5708,8 +6564,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>366</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5738,11 +6600,17 @@
         <v>34296.48012328999</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>366</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5771,11 +6639,17 @@
         <v>34298.51352328999</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>366</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5804,11 +6678,17 @@
         <v>34165.01142328999</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>366</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5840,8 +6720,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>366</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5870,11 +6756,17 @@
         <v>33746.33142328999</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>366</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5903,11 +6795,17 @@
         <v>33491.27812328999</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>366</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5936,11 +6834,17 @@
         <v>32732.26192329</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>366</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5972,8 +6876,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>366</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6002,11 +6912,17 @@
         <v>32732.26192329</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>366</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6035,11 +6951,17 @@
         <v>32130.76172329</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>366</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6068,11 +6990,17 @@
         <v>32130.76172329</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>366</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6101,11 +7029,17 @@
         <v>32130.76172329</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>366</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6134,11 +7068,17 @@
         <v>32126.76172329</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>366</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6167,11 +7107,17 @@
         <v>36071.44362329</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>366</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6200,11 +7146,17 @@
         <v>35885.46662329</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>366</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6236,8 +7188,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>366</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6266,11 +7224,17 @@
         <v>36550.10642329</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>366</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6299,11 +7263,17 @@
         <v>36722.23722329</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>366</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6332,11 +7302,17 @@
         <v>36630.39602329</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>366</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6365,11 +7341,17 @@
         <v>36757.39602329</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>366</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6398,11 +7380,17 @@
         <v>36757.39602329</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>366</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6431,11 +7419,17 @@
         <v>38876.49032329</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>366</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6464,11 +7458,17 @@
         <v>38789.49032329</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>366</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6497,11 +7497,17 @@
         <v>37931.38202329</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>366</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6530,11 +7536,17 @@
         <v>47127.30342329</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>366</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6563,11 +7575,17 @@
         <v>47127.30342329</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>366</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6596,11 +7614,17 @@
         <v>48606.01232328999</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>366</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6632,8 +7656,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>366</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6665,8 +7695,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>366</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6698,8 +7734,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>366</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6731,8 +7773,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>366</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6764,8 +7812,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>366</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6797,8 +7851,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>366</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6830,8 +7890,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>366</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6863,8 +7929,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>366</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6896,8 +7968,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>366</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6929,8 +8007,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>366</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6962,8 +8046,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>366</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6995,8 +8085,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>366</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7025,11 +8121,17 @@
         <v>66980.68432329</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>366</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7058,11 +8160,17 @@
         <v>66980.68432329</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>366</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7091,11 +8199,17 @@
         <v>70569.34442328999</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>366</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7127,8 +8241,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>366</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7157,11 +8277,17 @@
         <v>74760.21962328999</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>366</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7190,11 +8316,17 @@
         <v>74651.22482328999</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>366</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7223,11 +8355,17 @@
         <v>76607.66942328999</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>366</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7256,11 +8394,17 @@
         <v>76607.66942328999</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>366</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7289,11 +8433,17 @@
         <v>103451.07042329</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>366</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7322,11 +8472,17 @@
         <v>100861.46152329</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>366</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7355,11 +8511,17 @@
         <v>93581.56102328998</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>366</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7388,11 +8550,17 @@
         <v>93670.56102328998</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>366</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7421,11 +8589,17 @@
         <v>94090.56102328998</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>366</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7454,11 +8628,17 @@
         <v>82439.53392328997</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>366</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7487,15 +8667,23 @@
         <v>84489.59932328998</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>366</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>1.076967213114754</v>
+      </c>
+      <c r="M210" t="n">
+        <v>1.002739726027397</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7520,7 +8708,7 @@
         <v>84489.59932328998</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7553,7 +8741,7 @@
         <v>74691.84272328997</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7586,7 +8774,7 @@
         <v>71582.92162328996</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7619,7 +8807,7 @@
         <v>70168.72172328996</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7652,7 +8840,7 @@
         <v>78235.39542328996</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7685,7 +8873,7 @@
         <v>75967.91882328996</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7718,7 +8906,7 @@
         <v>75967.91882328996</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7751,7 +8939,7 @@
         <v>75967.91882328996</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7762,6 +8950,6 @@
       <c r="M218" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-18 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-18 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,14 +484,10 @@
         <v>11317.7697</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>365</v>
-      </c>
-      <c r="J3" t="n">
-        <v>365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,1237 +517,1045 @@
         <v>11317.7697</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>365</v>
       </c>
-      <c r="J4" t="n">
+      <c r="C5" t="n">
         <v>365</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="D5" t="n">
+        <v>365</v>
+      </c>
+      <c r="E5" t="n">
+        <v>365</v>
+      </c>
+      <c r="F5" t="n">
+        <v>650</v>
+      </c>
+      <c r="G5" t="n">
+        <v>11317.7697</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>365</v>
+      </c>
+      <c r="C6" t="n">
+        <v>365</v>
+      </c>
+      <c r="D6" t="n">
+        <v>365</v>
+      </c>
+      <c r="E6" t="n">
+        <v>365</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1700</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11317.7697</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>365</v>
+      </c>
+      <c r="C7" t="n">
+        <v>365</v>
+      </c>
+      <c r="D7" t="n">
+        <v>365</v>
+      </c>
+      <c r="E7" t="n">
+        <v>365</v>
+      </c>
+      <c r="F7" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7" t="n">
+        <v>11317.7697</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>365</v>
+      </c>
+      <c r="C8" t="n">
+        <v>365</v>
+      </c>
+      <c r="D8" t="n">
+        <v>365</v>
+      </c>
+      <c r="E8" t="n">
+        <v>365</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1450</v>
+      </c>
+      <c r="G8" t="n">
+        <v>11317.7697</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>365</v>
+      </c>
+      <c r="C9" t="n">
+        <v>365</v>
+      </c>
+      <c r="D9" t="n">
+        <v>365</v>
+      </c>
+      <c r="E9" t="n">
+        <v>365</v>
+      </c>
+      <c r="F9" t="n">
+        <v>254.0519</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11317.7697</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>366</v>
+      </c>
+      <c r="C10" t="n">
+        <v>366</v>
+      </c>
+      <c r="D10" t="n">
+        <v>366</v>
+      </c>
+      <c r="E10" t="n">
+        <v>366</v>
+      </c>
+      <c r="F10" t="n">
+        <v>275</v>
+      </c>
+      <c r="G10" t="n">
+        <v>11592.7697</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>366</v>
+      </c>
+      <c r="C11" t="n">
+        <v>366</v>
+      </c>
+      <c r="D11" t="n">
+        <v>366</v>
+      </c>
+      <c r="E11" t="n">
+        <v>366</v>
+      </c>
+      <c r="F11" t="n">
+        <v>52</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11592.7697</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>366</v>
+      </c>
+      <c r="C12" t="n">
+        <v>366</v>
+      </c>
+      <c r="D12" t="n">
+        <v>366</v>
+      </c>
+      <c r="E12" t="n">
+        <v>366</v>
+      </c>
+      <c r="F12" t="n">
+        <v>101</v>
+      </c>
+      <c r="G12" t="n">
+        <v>11592.7697</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>366</v>
+      </c>
+      <c r="C13" t="n">
+        <v>368</v>
+      </c>
+      <c r="D13" t="n">
+        <v>368</v>
+      </c>
+      <c r="E13" t="n">
+        <v>366</v>
+      </c>
+      <c r="F13" t="n">
+        <v>370</v>
+      </c>
+      <c r="G13" t="n">
+        <v>11962.7697</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>368</v>
+      </c>
+      <c r="C14" t="n">
+        <v>368</v>
+      </c>
+      <c r="D14" t="n">
+        <v>368</v>
+      </c>
+      <c r="E14" t="n">
+        <v>368</v>
+      </c>
+      <c r="F14" t="n">
+        <v>50</v>
+      </c>
+      <c r="G14" t="n">
+        <v>11962.7697</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>368</v>
+      </c>
+      <c r="C15" t="n">
+        <v>369</v>
+      </c>
+      <c r="D15" t="n">
+        <v>369</v>
+      </c>
+      <c r="E15" t="n">
+        <v>368</v>
+      </c>
+      <c r="F15" t="n">
+        <v>420</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12382.7697</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>368</v>
+      </c>
+      <c r="C16" t="n">
+        <v>369</v>
+      </c>
+      <c r="D16" t="n">
+        <v>369</v>
+      </c>
+      <c r="E16" t="n">
+        <v>368</v>
+      </c>
+      <c r="F16" t="n">
+        <v>470</v>
+      </c>
+      <c r="G16" t="n">
+        <v>12382.7697</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>370</v>
+      </c>
+      <c r="C17" t="n">
+        <v>366</v>
+      </c>
+      <c r="D17" t="n">
+        <v>370</v>
+      </c>
+      <c r="E17" t="n">
+        <v>366</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1379.6389</v>
+      </c>
+      <c r="G17" t="n">
+        <v>11003.1308</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>368</v>
+      </c>
+      <c r="C18" t="n">
+        <v>368</v>
+      </c>
+      <c r="D18" t="n">
+        <v>368</v>
+      </c>
+      <c r="E18" t="n">
+        <v>368</v>
+      </c>
+      <c r="F18" t="n">
+        <v>95.7081</v>
+      </c>
+      <c r="G18" t="n">
+        <v>11098.8389</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>369</v>
+      </c>
+      <c r="C19" t="n">
+        <v>369</v>
+      </c>
+      <c r="D19" t="n">
+        <v>369</v>
+      </c>
+      <c r="E19" t="n">
+        <v>369</v>
+      </c>
+      <c r="F19" t="n">
+        <v>170.7076</v>
+      </c>
+      <c r="G19" t="n">
+        <v>11269.5465</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>367</v>
+      </c>
+      <c r="C20" t="n">
+        <v>368</v>
+      </c>
+      <c r="D20" t="n">
+        <v>368</v>
+      </c>
+      <c r="E20" t="n">
+        <v>367</v>
+      </c>
+      <c r="F20" t="n">
+        <v>268</v>
+      </c>
+      <c r="G20" t="n">
+        <v>11001.5465</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>368</v>
+      </c>
+      <c r="C21" t="n">
+        <v>368</v>
+      </c>
+      <c r="D21" t="n">
+        <v>368</v>
+      </c>
+      <c r="E21" t="n">
+        <v>368</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2620</v>
+      </c>
+      <c r="G21" t="n">
+        <v>11001.5465</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>368</v>
+      </c>
+      <c r="C22" t="n">
+        <v>368</v>
+      </c>
+      <c r="D22" t="n">
+        <v>368</v>
+      </c>
+      <c r="E22" t="n">
+        <v>368</v>
+      </c>
+      <c r="F22" t="n">
+        <v>495</v>
+      </c>
+      <c r="G22" t="n">
+        <v>11001.5465</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>368</v>
+      </c>
+      <c r="C23" t="n">
+        <v>368</v>
+      </c>
+      <c r="D23" t="n">
+        <v>368</v>
+      </c>
+      <c r="E23" t="n">
+        <v>367</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G23" t="n">
+        <v>11001.5465</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>368</v>
+      </c>
+      <c r="C24" t="n">
+        <v>368</v>
+      </c>
+      <c r="D24" t="n">
+        <v>368</v>
+      </c>
+      <c r="E24" t="n">
+        <v>368</v>
+      </c>
+      <c r="F24" t="n">
+        <v>798</v>
+      </c>
+      <c r="G24" t="n">
+        <v>11001.5465</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>368</v>
+      </c>
+      <c r="C25" t="n">
+        <v>368</v>
+      </c>
+      <c r="D25" t="n">
+        <v>368</v>
+      </c>
+      <c r="E25" t="n">
+        <v>368</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1180</v>
+      </c>
+      <c r="G25" t="n">
+        <v>11001.5465</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>368</v>
+      </c>
+      <c r="J25" t="n">
+        <v>368</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>368</v>
+      </c>
+      <c r="C26" t="n">
+        <v>368</v>
+      </c>
+      <c r="D26" t="n">
+        <v>368</v>
+      </c>
+      <c r="E26" t="n">
+        <v>368</v>
+      </c>
+      <c r="F26" t="n">
+        <v>524</v>
+      </c>
+      <c r="G26" t="n">
+        <v>11001.5465</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>368</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>365</v>
-      </c>
-      <c r="C5" t="n">
-        <v>365</v>
-      </c>
-      <c r="D5" t="n">
-        <v>365</v>
-      </c>
-      <c r="E5" t="n">
-        <v>365</v>
-      </c>
-      <c r="F5" t="n">
-        <v>650</v>
-      </c>
-      <c r="G5" t="n">
-        <v>11317.7697</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>365</v>
-      </c>
-      <c r="J5" t="n">
-        <v>365</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>368</v>
+      </c>
+      <c r="C27" t="n">
+        <v>368</v>
+      </c>
+      <c r="D27" t="n">
+        <v>368</v>
+      </c>
+      <c r="E27" t="n">
+        <v>368</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2002.6958</v>
+      </c>
+      <c r="G27" t="n">
+        <v>11001.5465</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>368</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>365</v>
-      </c>
-      <c r="C6" t="n">
-        <v>365</v>
-      </c>
-      <c r="D6" t="n">
-        <v>365</v>
-      </c>
-      <c r="E6" t="n">
-        <v>365</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1700</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11317.7697</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>365</v>
-      </c>
-      <c r="J6" t="n">
-        <v>365</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>365</v>
-      </c>
-      <c r="C7" t="n">
-        <v>365</v>
-      </c>
-      <c r="D7" t="n">
-        <v>365</v>
-      </c>
-      <c r="E7" t="n">
-        <v>365</v>
-      </c>
-      <c r="F7" t="n">
-        <v>400</v>
-      </c>
-      <c r="G7" t="n">
-        <v>11317.7697</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>365</v>
-      </c>
-      <c r="J7" t="n">
-        <v>365</v>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>368</v>
+      </c>
+      <c r="C28" t="n">
+        <v>368</v>
+      </c>
+      <c r="D28" t="n">
+        <v>368</v>
+      </c>
+      <c r="E28" t="n">
+        <v>368</v>
+      </c>
+      <c r="F28" t="n">
+        <v>150</v>
+      </c>
+      <c r="G28" t="n">
+        <v>11001.5465</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>368</v>
+      </c>
+      <c r="C29" t="n">
+        <v>368</v>
+      </c>
+      <c r="D29" t="n">
+        <v>368</v>
+      </c>
+      <c r="E29" t="n">
+        <v>368</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1833.614</v>
+      </c>
+      <c r="G29" t="n">
+        <v>11001.5465</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>368</v>
+      </c>
+      <c r="C30" t="n">
+        <v>368</v>
+      </c>
+      <c r="D30" t="n">
+        <v>368</v>
+      </c>
+      <c r="E30" t="n">
+        <v>368</v>
+      </c>
+      <c r="F30" t="n">
+        <v>830.3053</v>
+      </c>
+      <c r="G30" t="n">
+        <v>11001.5465</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>369</v>
+      </c>
+      <c r="C31" t="n">
+        <v>369</v>
+      </c>
+      <c r="D31" t="n">
+        <v>369</v>
+      </c>
+      <c r="E31" t="n">
+        <v>369</v>
+      </c>
+      <c r="F31" t="n">
+        <v>220</v>
+      </c>
+      <c r="G31" t="n">
+        <v>11221.5465</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>368</v>
+      </c>
+      <c r="J31" t="n">
+        <v>368</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>369</v>
+      </c>
+      <c r="C32" t="n">
+        <v>369</v>
+      </c>
+      <c r="D32" t="n">
+        <v>369</v>
+      </c>
+      <c r="E32" t="n">
+        <v>369</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1922</v>
+      </c>
+      <c r="G32" t="n">
+        <v>11221.5465</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>369</v>
+      </c>
+      <c r="J32" t="n">
+        <v>368</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>365</v>
-      </c>
-      <c r="C8" t="n">
-        <v>365</v>
-      </c>
-      <c r="D8" t="n">
-        <v>365</v>
-      </c>
-      <c r="E8" t="n">
-        <v>365</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1450</v>
-      </c>
-      <c r="G8" t="n">
-        <v>11317.7697</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>365</v>
-      </c>
-      <c r="J8" t="n">
-        <v>365</v>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>369</v>
+      </c>
+      <c r="C33" t="n">
+        <v>369</v>
+      </c>
+      <c r="D33" t="n">
+        <v>369</v>
+      </c>
+      <c r="E33" t="n">
+        <v>369</v>
+      </c>
+      <c r="F33" t="n">
+        <v>925.1208</v>
+      </c>
+      <c r="G33" t="n">
+        <v>11221.5465</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>369</v>
+      </c>
+      <c r="J33" t="n">
+        <v>368</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>365</v>
-      </c>
-      <c r="C9" t="n">
-        <v>365</v>
-      </c>
-      <c r="D9" t="n">
-        <v>365</v>
-      </c>
-      <c r="E9" t="n">
-        <v>365</v>
-      </c>
-      <c r="F9" t="n">
-        <v>254.0519</v>
-      </c>
-      <c r="G9" t="n">
-        <v>11317.7697</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>365</v>
-      </c>
-      <c r="J9" t="n">
-        <v>365</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>366</v>
-      </c>
-      <c r="C10" t="n">
-        <v>366</v>
-      </c>
-      <c r="D10" t="n">
-        <v>366</v>
-      </c>
-      <c r="E10" t="n">
-        <v>366</v>
-      </c>
-      <c r="F10" t="n">
-        <v>275</v>
-      </c>
-      <c r="G10" t="n">
-        <v>11592.7697</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>365</v>
-      </c>
-      <c r="J10" t="n">
-        <v>365</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>366</v>
-      </c>
-      <c r="C11" t="n">
-        <v>366</v>
-      </c>
-      <c r="D11" t="n">
-        <v>366</v>
-      </c>
-      <c r="E11" t="n">
-        <v>366</v>
-      </c>
-      <c r="F11" t="n">
-        <v>52</v>
-      </c>
-      <c r="G11" t="n">
-        <v>11592.7697</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>366</v>
-      </c>
-      <c r="J11" t="n">
-        <v>365</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>366</v>
-      </c>
-      <c r="C12" t="n">
-        <v>366</v>
-      </c>
-      <c r="D12" t="n">
-        <v>366</v>
-      </c>
-      <c r="E12" t="n">
-        <v>366</v>
-      </c>
-      <c r="F12" t="n">
-        <v>101</v>
-      </c>
-      <c r="G12" t="n">
-        <v>11592.7697</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>366</v>
-      </c>
-      <c r="J12" t="n">
-        <v>366</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>366</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>369</v>
+      </c>
+      <c r="C34" t="n">
+        <v>372</v>
+      </c>
+      <c r="D34" t="n">
+        <v>372</v>
+      </c>
+      <c r="E34" t="n">
+        <v>369</v>
+      </c>
+      <c r="F34" t="n">
+        <v>571</v>
+      </c>
+      <c r="G34" t="n">
+        <v>11792.5465</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>369</v>
+      </c>
+      <c r="J34" t="n">
         <v>368</v>
       </c>
-      <c r="D13" t="n">
-        <v>368</v>
-      </c>
-      <c r="E13" t="n">
-        <v>366</v>
-      </c>
-      <c r="F13" t="n">
-        <v>370</v>
-      </c>
-      <c r="G13" t="n">
-        <v>11962.7697</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>366</v>
-      </c>
-      <c r="J13" t="n">
-        <v>366</v>
-      </c>
-      <c r="K13" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>368</v>
-      </c>
-      <c r="C14" t="n">
-        <v>368</v>
-      </c>
-      <c r="D14" t="n">
-        <v>368</v>
-      </c>
-      <c r="E14" t="n">
-        <v>368</v>
-      </c>
-      <c r="F14" t="n">
-        <v>50</v>
-      </c>
-      <c r="G14" t="n">
-        <v>11962.7697</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>368</v>
-      </c>
-      <c r="J14" t="n">
-        <v>366</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>368</v>
-      </c>
-      <c r="C15" t="n">
-        <v>369</v>
-      </c>
-      <c r="D15" t="n">
-        <v>369</v>
-      </c>
-      <c r="E15" t="n">
-        <v>368</v>
-      </c>
-      <c r="F15" t="n">
-        <v>420</v>
-      </c>
-      <c r="G15" t="n">
-        <v>12382.7697</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>368</v>
-      </c>
-      <c r="J15" t="n">
-        <v>366</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>368</v>
-      </c>
-      <c r="C16" t="n">
-        <v>369</v>
-      </c>
-      <c r="D16" t="n">
-        <v>369</v>
-      </c>
-      <c r="E16" t="n">
-        <v>368</v>
-      </c>
-      <c r="F16" t="n">
-        <v>470</v>
-      </c>
-      <c r="G16" t="n">
-        <v>12382.7697</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>369</v>
-      </c>
-      <c r="J16" t="n">
-        <v>366</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>370</v>
-      </c>
-      <c r="C17" t="n">
-        <v>366</v>
-      </c>
-      <c r="D17" t="n">
-        <v>370</v>
-      </c>
-      <c r="E17" t="n">
-        <v>366</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1379.6389</v>
-      </c>
-      <c r="G17" t="n">
-        <v>11003.1308</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>369</v>
-      </c>
-      <c r="J17" t="n">
-        <v>366</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>368</v>
-      </c>
-      <c r="C18" t="n">
-        <v>368</v>
-      </c>
-      <c r="D18" t="n">
-        <v>368</v>
-      </c>
-      <c r="E18" t="n">
-        <v>368</v>
-      </c>
-      <c r="F18" t="n">
-        <v>95.7081</v>
-      </c>
-      <c r="G18" t="n">
-        <v>11098.8389</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>366</v>
-      </c>
-      <c r="J18" t="n">
-        <v>366</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>369</v>
-      </c>
-      <c r="C19" t="n">
-        <v>369</v>
-      </c>
-      <c r="D19" t="n">
-        <v>369</v>
-      </c>
-      <c r="E19" t="n">
-        <v>369</v>
-      </c>
-      <c r="F19" t="n">
-        <v>170.7076</v>
-      </c>
-      <c r="G19" t="n">
-        <v>11269.5465</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>368</v>
-      </c>
-      <c r="J19" t="n">
-        <v>366</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>367</v>
-      </c>
-      <c r="C20" t="n">
-        <v>368</v>
-      </c>
-      <c r="D20" t="n">
-        <v>368</v>
-      </c>
-      <c r="E20" t="n">
-        <v>367</v>
-      </c>
-      <c r="F20" t="n">
-        <v>268</v>
-      </c>
-      <c r="G20" t="n">
-        <v>11001.5465</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>369</v>
-      </c>
-      <c r="J20" t="n">
-        <v>366</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>368</v>
-      </c>
-      <c r="C21" t="n">
-        <v>368</v>
-      </c>
-      <c r="D21" t="n">
-        <v>368</v>
-      </c>
-      <c r="E21" t="n">
-        <v>368</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2620</v>
-      </c>
-      <c r="G21" t="n">
-        <v>11001.5465</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>368</v>
-      </c>
-      <c r="J21" t="n">
-        <v>366</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>368</v>
-      </c>
-      <c r="D22" t="n">
-        <v>368</v>
-      </c>
-      <c r="E22" t="n">
-        <v>368</v>
-      </c>
-      <c r="F22" t="n">
-        <v>495</v>
-      </c>
-      <c r="G22" t="n">
-        <v>11001.5465</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>368</v>
-      </c>
-      <c r="J22" t="n">
-        <v>366</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>368</v>
-      </c>
-      <c r="C23" t="n">
-        <v>368</v>
-      </c>
-      <c r="D23" t="n">
-        <v>368</v>
-      </c>
-      <c r="E23" t="n">
-        <v>367</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1165</v>
-      </c>
-      <c r="G23" t="n">
-        <v>11001.5465</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>368</v>
-      </c>
-      <c r="J23" t="n">
-        <v>366</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>368</v>
-      </c>
-      <c r="C24" t="n">
-        <v>368</v>
-      </c>
-      <c r="D24" t="n">
-        <v>368</v>
-      </c>
-      <c r="E24" t="n">
-        <v>368</v>
-      </c>
-      <c r="F24" t="n">
-        <v>798</v>
-      </c>
-      <c r="G24" t="n">
-        <v>11001.5465</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>368</v>
-      </c>
-      <c r="J24" t="n">
-        <v>366</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>368</v>
-      </c>
-      <c r="D25" t="n">
-        <v>368</v>
-      </c>
-      <c r="E25" t="n">
-        <v>368</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1180</v>
-      </c>
-      <c r="G25" t="n">
-        <v>11001.5465</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>368</v>
-      </c>
-      <c r="J25" t="n">
-        <v>366</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>368</v>
-      </c>
-      <c r="C26" t="n">
-        <v>368</v>
-      </c>
-      <c r="D26" t="n">
-        <v>368</v>
-      </c>
-      <c r="E26" t="n">
-        <v>368</v>
-      </c>
-      <c r="F26" t="n">
-        <v>524</v>
-      </c>
-      <c r="G26" t="n">
-        <v>11001.5465</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>368</v>
-      </c>
-      <c r="J26" t="n">
-        <v>366</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>368</v>
-      </c>
-      <c r="C27" t="n">
-        <v>368</v>
-      </c>
-      <c r="D27" t="n">
-        <v>368</v>
-      </c>
-      <c r="E27" t="n">
-        <v>368</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2002.6958</v>
-      </c>
-      <c r="G27" t="n">
-        <v>11001.5465</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>368</v>
-      </c>
-      <c r="J27" t="n">
-        <v>366</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>368</v>
-      </c>
-      <c r="D28" t="n">
-        <v>368</v>
-      </c>
-      <c r="E28" t="n">
-        <v>368</v>
-      </c>
-      <c r="F28" t="n">
-        <v>150</v>
-      </c>
-      <c r="G28" t="n">
-        <v>11001.5465</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>368</v>
-      </c>
-      <c r="J28" t="n">
-        <v>366</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>368</v>
-      </c>
-      <c r="C29" t="n">
-        <v>368</v>
-      </c>
-      <c r="D29" t="n">
-        <v>368</v>
-      </c>
-      <c r="E29" t="n">
-        <v>368</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1833.614</v>
-      </c>
-      <c r="G29" t="n">
-        <v>11001.5465</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>368</v>
-      </c>
-      <c r="J29" t="n">
-        <v>366</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>368</v>
-      </c>
-      <c r="C30" t="n">
-        <v>368</v>
-      </c>
-      <c r="D30" t="n">
-        <v>368</v>
-      </c>
-      <c r="E30" t="n">
-        <v>368</v>
-      </c>
-      <c r="F30" t="n">
-        <v>830.3053</v>
-      </c>
-      <c r="G30" t="n">
-        <v>11001.5465</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>368</v>
-      </c>
-      <c r="J30" t="n">
-        <v>366</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>369</v>
-      </c>
-      <c r="C31" t="n">
-        <v>369</v>
-      </c>
-      <c r="D31" t="n">
-        <v>369</v>
-      </c>
-      <c r="E31" t="n">
-        <v>369</v>
-      </c>
-      <c r="F31" t="n">
-        <v>220</v>
-      </c>
-      <c r="G31" t="n">
-        <v>11221.5465</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>368</v>
-      </c>
-      <c r="J31" t="n">
-        <v>366</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>369</v>
-      </c>
-      <c r="C32" t="n">
-        <v>369</v>
-      </c>
-      <c r="D32" t="n">
-        <v>369</v>
-      </c>
-      <c r="E32" t="n">
-        <v>369</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1922</v>
-      </c>
-      <c r="G32" t="n">
-        <v>11221.5465</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>369</v>
-      </c>
-      <c r="J32" t="n">
-        <v>366</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>369</v>
-      </c>
-      <c r="C33" t="n">
-        <v>369</v>
-      </c>
-      <c r="D33" t="n">
-        <v>369</v>
-      </c>
-      <c r="E33" t="n">
-        <v>369</v>
-      </c>
-      <c r="F33" t="n">
-        <v>925.1208</v>
-      </c>
-      <c r="G33" t="n">
-        <v>11221.5465</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>369</v>
-      </c>
-      <c r="J33" t="n">
-        <v>366</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>369</v>
-      </c>
-      <c r="C34" t="n">
-        <v>372</v>
-      </c>
-      <c r="D34" t="n">
-        <v>372</v>
-      </c>
-      <c r="E34" t="n">
-        <v>369</v>
-      </c>
-      <c r="F34" t="n">
-        <v>571</v>
-      </c>
-      <c r="G34" t="n">
-        <v>11792.5465</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>369</v>
-      </c>
-      <c r="J34" t="n">
-        <v>366</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1786,7 +1590,7 @@
         <v>372</v>
       </c>
       <c r="J35" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1821,13 +1625,11 @@
         <v>12482.5465</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>371</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1862,13 +1664,11 @@
         <v>4811.595399999997</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>374</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1903,13 +1703,11 @@
         <v>5128.438799999996</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>371</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1944,13 +1742,11 @@
         <v>5128.438799999996</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>372</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1985,13 +1781,11 @@
         <v>4121.357199999997</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>372</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2026,13 +1820,11 @@
         <v>4121.357199999997</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>371</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2067,13 +1859,11 @@
         <v>4121.357199999997</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>371</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2114,7 +1904,7 @@
         <v>371</v>
       </c>
       <c r="J43" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2155,7 +1945,7 @@
         <v>371</v>
       </c>
       <c r="J44" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2196,7 +1986,7 @@
         <v>369</v>
       </c>
       <c r="J45" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2237,7 +2027,7 @@
         <v>371</v>
       </c>
       <c r="J46" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2278,7 +2068,7 @@
         <v>372</v>
       </c>
       <c r="J47" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2313,21 +2103,19 @@
         <v>1337.837899999997</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>373</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>1.005869565217391</v>
       </c>
       <c r="M48" t="inlineStr"/>
     </row>
@@ -2354,19 +2142,11 @@
         <v>-231.5811000000033</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>372</v>
-      </c>
-      <c r="J49" t="n">
-        <v>366</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2395,19 +2175,11 @@
         <v>-231.5811000000033</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>371</v>
-      </c>
-      <c r="J50" t="n">
-        <v>366</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2442,13 +2214,9 @@
         <v>371</v>
       </c>
       <c r="J51" t="n">
-        <v>366</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2483,11 +2251,11 @@
         <v>372</v>
       </c>
       <c r="J52" t="n">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2524,11 +2292,11 @@
         <v>370</v>
       </c>
       <c r="J53" t="n">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2565,13 +2333,9 @@
         <v>372</v>
       </c>
       <c r="J54" t="n">
-        <v>366</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2606,11 +2370,11 @@
         <v>370</v>
       </c>
       <c r="J55" t="n">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2647,11 +2411,11 @@
         <v>372</v>
       </c>
       <c r="J56" t="n">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2688,7 +2452,7 @@
         <v>373</v>
       </c>
       <c r="J57" t="n">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2729,7 +2493,7 @@
         <v>374</v>
       </c>
       <c r="J58" t="n">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2770,7 +2534,7 @@
         <v>374</v>
       </c>
       <c r="J59" t="n">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2811,7 +2575,7 @@
         <v>370</v>
       </c>
       <c r="J60" t="n">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2846,13 +2610,11 @@
         <v>7920.730430099997</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>375</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2893,7 +2655,7 @@
         <v>370</v>
       </c>
       <c r="J62" t="n">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2934,7 +2696,7 @@
         <v>371</v>
       </c>
       <c r="J63" t="n">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2969,13 +2731,11 @@
         <v>8166.123930099996</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>374</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -3010,11 +2770,11 @@
         <v>8166.123930099996</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -3049,13 +2809,11 @@
         <v>10002.8076301</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>374</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3090,19 +2848,19 @@
         <v>10002.8076301</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>1.008440860215054</v>
       </c>
       <c r="M67" t="inlineStr"/>
     </row>
@@ -3129,17 +2887,11 @@
         <v>10002.8076301</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>366</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3168,17 +2920,11 @@
         <v>21768.2009301</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>366</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3207,17 +2953,11 @@
         <v>21768.2009301</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>366</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3246,17 +2986,11 @@
         <v>21972.2009301</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>366</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3285,17 +3019,11 @@
         <v>26812.8350301</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>366</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3324,17 +3052,11 @@
         <v>21464.5841301</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>366</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3366,14 +3088,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>366</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3405,14 +3121,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>366</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3444,14 +3154,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>366</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3483,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>366</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3522,14 +3220,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>366</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3561,14 +3253,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>366</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3600,14 +3286,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>366</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3639,14 +3319,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>366</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3678,14 +3352,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>366</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3717,14 +3385,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>366</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3756,14 +3418,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>366</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3795,14 +3451,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>366</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3834,14 +3484,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>366</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3873,14 +3517,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>366</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3912,14 +3550,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>366</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3951,14 +3583,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>366</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3990,14 +3616,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>366</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -4029,14 +3649,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>366</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4068,14 +3682,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>366</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4107,14 +3715,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>366</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4146,14 +3748,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>366</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4185,14 +3781,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>366</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4224,14 +3814,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>366</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4263,14 +3847,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>366</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4302,14 +3880,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>366</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4341,14 +3913,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>366</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4380,14 +3946,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>366</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4419,14 +3979,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>366</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4458,14 +4012,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>366</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4497,14 +4045,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>366</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4536,14 +4078,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>366</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4575,14 +4111,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>366</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4614,14 +4144,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>366</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4653,14 +4177,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>366</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4692,14 +4210,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>366</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4731,14 +4243,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>366</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4770,14 +4276,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>366</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4809,14 +4309,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>366</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4848,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>366</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4887,14 +4375,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>366</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4926,14 +4408,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>366</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4965,14 +4441,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>366</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -5004,14 +4474,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>366</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5043,14 +4507,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>366</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5082,14 +4540,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>366</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5121,14 +4573,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>366</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5160,14 +4606,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>366</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5199,14 +4639,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>366</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5238,14 +4672,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>366</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5277,14 +4705,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>366</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5316,14 +4738,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>366</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5355,14 +4771,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>366</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5394,14 +4804,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>366</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5433,14 +4837,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>366</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5472,14 +4870,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>366</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5511,14 +4903,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>366</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5550,14 +4936,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>366</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5589,14 +4969,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>366</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5628,14 +5002,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>366</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5667,14 +5035,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>366</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5706,14 +5068,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>366</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5745,14 +5101,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>366</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5784,14 +5134,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>366</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5823,14 +5167,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>366</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5862,14 +5200,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>366</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5901,14 +5233,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>366</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5940,14 +5266,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>366</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5979,14 +5299,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>366</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6018,14 +5332,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>366</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6057,14 +5365,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>366</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6096,14 +5398,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>366</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6135,14 +5431,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>366</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6174,14 +5464,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>366</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6213,14 +5497,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>366</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6252,14 +5530,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>366</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6291,14 +5563,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>366</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6330,14 +5596,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>366</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6369,14 +5629,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>366</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6408,14 +5662,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>366</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6447,14 +5695,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>366</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6486,14 +5728,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>366</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6525,14 +5761,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>366</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6564,14 +5794,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>366</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6603,14 +5827,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>366</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6642,14 +5860,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>366</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6681,14 +5893,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>366</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6720,14 +5926,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>366</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6759,14 +5959,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>366</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6798,14 +5992,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>366</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6837,14 +6025,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>366</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6876,14 +6058,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>366</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6915,14 +6091,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>366</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6954,14 +6124,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>366</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6993,14 +6157,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>366</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7032,14 +6190,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>366</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7071,14 +6223,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>366</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7110,14 +6256,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>366</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7149,14 +6289,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>366</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7188,14 +6322,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>366</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7227,14 +6355,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>366</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7266,14 +6388,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>366</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7305,14 +6421,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>366</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7344,14 +6454,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>366</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7383,14 +6487,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>366</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7422,14 +6520,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>366</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7461,14 +6553,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>366</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7500,14 +6586,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>366</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7539,14 +6619,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>366</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7578,14 +6652,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>366</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7617,14 +6685,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>366</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7656,14 +6718,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>366</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7695,14 +6751,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>366</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7734,14 +6784,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>366</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7773,14 +6817,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>366</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7812,14 +6850,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>366</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7851,14 +6883,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>366</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7890,14 +6916,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>366</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7929,14 +6949,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>366</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7968,14 +6982,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>366</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -8007,14 +7015,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>366</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8046,14 +7048,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>366</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8085,14 +7081,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>366</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8124,14 +7114,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>366</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8163,14 +7147,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>366</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8202,14 +7180,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>366</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8241,14 +7213,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>366</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8280,14 +7246,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>366</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8319,14 +7279,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>366</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8358,14 +7312,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>366</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8397,14 +7345,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>366</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8436,14 +7378,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>366</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8475,14 +7411,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>366</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8514,14 +7444,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>366</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8553,14 +7477,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>366</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8592,14 +7510,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>366</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8631,14 +7543,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>366</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8667,23 +7573,15 @@
         <v>84489.59932328998</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>366</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
-        <v>1.076967213114754</v>
-      </c>
-      <c r="M210" t="n">
-        <v>1.002739726027397</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8708,7 +7606,7 @@
         <v>84489.59932328998</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8741,7 +7639,7 @@
         <v>74691.84272328997</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8774,7 +7672,7 @@
         <v>71582.92162328996</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8807,7 +7705,7 @@
         <v>70168.72172328996</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8840,7 +7738,7 @@
         <v>78235.39542328996</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8873,7 +7771,7 @@
         <v>75967.91882328996</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8906,7 +7804,7 @@
         <v>75967.91882328996</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8939,7 +7837,7 @@
         <v>75967.91882328996</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8950,6 +7848,6 @@
       <c r="M218" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-18 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-18 BackTest STRAT.xlsx
@@ -484,10 +484,14 @@
         <v>11317.7697</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>365</v>
+      </c>
+      <c r="J3" t="n">
+        <v>365</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>11317.7697</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>365</v>
+      </c>
+      <c r="J4" t="n">
+        <v>365</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>11317.7697</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>365</v>
+      </c>
+      <c r="J5" t="n">
+        <v>365</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>11317.7697</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>365</v>
+      </c>
+      <c r="J6" t="n">
+        <v>365</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>11317.7697</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>365</v>
+      </c>
+      <c r="J7" t="n">
+        <v>365</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>11317.7697</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>365</v>
+      </c>
+      <c r="J8" t="n">
+        <v>365</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,10 +722,14 @@
         <v>11317.7697</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>365</v>
+      </c>
+      <c r="J9" t="n">
+        <v>365</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -715,11 +759,19 @@
         <v>11592.7697</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>365</v>
+      </c>
+      <c r="J10" t="n">
+        <v>365</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +800,19 @@
         <v>11592.7697</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>366</v>
+      </c>
+      <c r="J11" t="n">
+        <v>365</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,10 +841,14 @@
         <v>11592.7697</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>366</v>
+      </c>
+      <c r="J12" t="n">
+        <v>366</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -814,11 +878,19 @@
         <v>11962.7697</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>366</v>
+      </c>
+      <c r="J13" t="n">
+        <v>366</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +919,19 @@
         <v>11962.7697</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>368</v>
+      </c>
+      <c r="J14" t="n">
+        <v>366</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +963,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>366</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +1002,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>366</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1041,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>366</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1080,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>366</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1119,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>366</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1158,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>366</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1197,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>366</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1236,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>366</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1272,19 @@
         <v>11001.5465</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>368</v>
+      </c>
+      <c r="J23" t="n">
+        <v>366</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1313,19 @@
         <v>11001.5465</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>368</v>
+      </c>
+      <c r="J24" t="n">
+        <v>366</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1216,9 +1360,13 @@
         <v>368</v>
       </c>
       <c r="J25" t="n">
-        <v>368</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
+        <v>366</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,15 +1395,17 @@
         <v>11001.5465</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>368</v>
+      </c>
       <c r="J26" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1286,15 +1436,17 @@
         <v>11001.5465</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>368</v>
+      </c>
       <c r="J27" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -1325,11 +1477,17 @@
         <v>11001.5465</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>366</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1358,11 +1516,17 @@
         <v>11001.5465</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>366</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1391,11 +1555,19 @@
         <v>11001.5465</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>368</v>
+      </c>
+      <c r="J30" t="n">
+        <v>366</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1430,9 +1602,13 @@
         <v>368</v>
       </c>
       <c r="J31" t="n">
-        <v>368</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+        <v>366</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1467,11 +1643,11 @@
         <v>369</v>
       </c>
       <c r="J32" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -1502,17 +1678,15 @@
         <v>11221.5465</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>369</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -1543,17 +1717,15 @@
         <v>11792.5465</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>369</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1584,13 +1756,11 @@
         <v>11742.5465</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1625,11 +1795,11 @@
         <v>12482.5465</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1664,11 +1834,11 @@
         <v>4811.595399999997</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1703,11 +1873,11 @@
         <v>5128.438799999996</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1742,11 +1912,11 @@
         <v>5128.438799999996</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1781,11 +1951,11 @@
         <v>4121.357199999997</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1820,11 +1990,11 @@
         <v>4121.357199999997</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1859,11 +2029,11 @@
         <v>4121.357199999997</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -1898,13 +2068,11 @@
         <v>4121.357199999997</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>371</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -1939,13 +2107,11 @@
         <v>699.5223999999967</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>371</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -1980,13 +2146,11 @@
         <v>700.9223999999966</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>369</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2021,13 +2185,11 @@
         <v>1470.922399999997</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>371</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2062,13 +2224,11 @@
         <v>1600.922399999997</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2103,19 +2263,19 @@
         <v>1337.837899999997</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.005869565217391</v>
+        <v>1</v>
       </c>
       <c r="M48" t="inlineStr"/>
     </row>
@@ -2142,11 +2302,17 @@
         <v>-231.5811000000033</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>366</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2175,11 +2341,17 @@
         <v>-231.5811000000033</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>366</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2208,15 +2380,17 @@
         <v>-229.5811000000033</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>371</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>371</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+        <v>366</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2245,17 +2419,15 @@
         <v>-1082.581100000003</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2286,17 +2458,15 @@
         <v>-1075.860669900003</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2327,15 +2497,17 @@
         <v>-1082.580669900003</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>372</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
+        <v>366</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2364,17 +2536,15 @@
         <v>-1081.180669900003</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2405,17 +2575,15 @@
         <v>1662.719130099997</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2446,13 +2614,11 @@
         <v>9810.551030099998</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>373</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2487,13 +2653,11 @@
         <v>9810.551030099998</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>374</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2528,13 +2692,11 @@
         <v>9802.656230099998</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>374</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2569,13 +2731,11 @@
         <v>9804.056230099997</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2610,11 +2770,11 @@
         <v>7920.730430099997</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2649,13 +2809,11 @@
         <v>8164.723930099996</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2690,13 +2848,11 @@
         <v>8166.123930099996</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>371</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2731,11 +2887,11 @@
         <v>8166.123930099996</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2770,11 +2926,11 @@
         <v>8166.123930099996</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2809,11 +2965,11 @@
         <v>10002.8076301</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2848,19 +3004,19 @@
         <v>10002.8076301</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.008440860215054</v>
+        <v>1</v>
       </c>
       <c r="M67" t="inlineStr"/>
     </row>
@@ -2887,11 +3043,17 @@
         <v>10002.8076301</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>366</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2920,11 +3082,17 @@
         <v>21768.2009301</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>366</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2953,11 +3121,17 @@
         <v>21768.2009301</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>366</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2986,11 +3160,17 @@
         <v>21972.2009301</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>366</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3019,11 +3199,17 @@
         <v>26812.8350301</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>366</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3052,11 +3238,17 @@
         <v>21464.5841301</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>366</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3088,8 +3280,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>366</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3121,8 +3319,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>366</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3154,8 +3358,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>366</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3187,8 +3397,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>366</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3220,8 +3436,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>366</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3253,8 +3475,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>366</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3286,8 +3514,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>366</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3319,8 +3553,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>366</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3352,8 +3592,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>366</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3385,8 +3631,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>366</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3418,8 +3670,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>366</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3451,8 +3709,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>366</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3484,8 +3748,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>366</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3517,8 +3787,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>366</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3550,8 +3826,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>366</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3583,8 +3865,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>366</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3616,8 +3904,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>366</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3649,8 +3943,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>366</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3682,8 +3982,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>366</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3715,8 +4021,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>366</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3748,8 +4060,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>366</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3781,8 +4099,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>366</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3814,8 +4138,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>366</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3847,8 +4177,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>366</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3880,8 +4216,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>366</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3913,8 +4255,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>366</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3946,8 +4294,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>366</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3979,8 +4333,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>366</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4012,8 +4372,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>366</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4045,8 +4411,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>366</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4078,8 +4450,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>366</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4111,8 +4489,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>366</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4144,8 +4528,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>366</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4177,8 +4567,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>366</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4210,8 +4606,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>366</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4243,8 +4645,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>366</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4276,8 +4684,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>366</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4309,8 +4723,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>366</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4342,8 +4762,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>366</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4375,8 +4801,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>366</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4408,8 +4840,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>366</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4441,8 +4879,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>366</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4474,8 +4918,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>366</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4507,8 +4957,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>366</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4540,8 +4996,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>366</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4573,8 +5035,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>366</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4606,8 +5074,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>366</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4639,8 +5113,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>366</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4672,8 +5152,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>366</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4705,8 +5191,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>366</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4738,8 +5230,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>366</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4771,8 +5269,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>366</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4804,8 +5308,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>366</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4837,8 +5347,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>366</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4870,8 +5386,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>366</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4903,8 +5425,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>366</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4936,8 +5464,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>366</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4969,8 +5503,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>366</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5002,8 +5542,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>366</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5035,8 +5581,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>366</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5068,8 +5620,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>366</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5101,8 +5659,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>366</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5134,8 +5698,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>366</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5167,8 +5737,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>366</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5200,8 +5776,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>366</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5233,8 +5815,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>366</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5266,8 +5854,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>366</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5299,8 +5893,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>366</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5332,8 +5932,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>366</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5365,8 +5971,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>366</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5398,8 +6010,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>366</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5431,8 +6049,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>366</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5464,8 +6088,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>366</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5497,8 +6127,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>366</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5530,8 +6166,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>366</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5563,8 +6205,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>366</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5596,8 +6244,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>366</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5629,8 +6283,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>366</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5662,8 +6322,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>366</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5695,8 +6361,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>366</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5728,8 +6400,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>366</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5761,8 +6439,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>366</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5794,8 +6478,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>366</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5827,8 +6517,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>366</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5860,8 +6556,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>366</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5893,8 +6595,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>366</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5926,8 +6634,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>366</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5959,8 +6673,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>366</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5992,8 +6712,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>366</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6025,8 +6751,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>366</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6058,8 +6790,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>366</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6091,8 +6829,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>366</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6124,8 +6868,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>366</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6157,8 +6907,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>366</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6190,8 +6946,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>366</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6223,8 +6985,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>366</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6256,8 +7024,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>366</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6289,8 +7063,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>366</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6322,8 +7102,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>366</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6355,8 +7141,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>366</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6388,8 +7180,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>366</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6421,8 +7219,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>366</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6454,8 +7258,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>366</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6487,8 +7297,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>366</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6520,8 +7336,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>366</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6553,8 +7375,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>366</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6586,8 +7414,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>366</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6619,8 +7453,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>366</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6652,8 +7492,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>366</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6685,8 +7531,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>366</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6718,8 +7570,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>366</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6751,8 +7609,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>366</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6784,8 +7648,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>366</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6817,8 +7687,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>366</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6850,8 +7726,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>366</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6883,8 +7765,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>366</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6916,8 +7804,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>366</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6949,8 +7843,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>366</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6982,8 +7882,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>366</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7015,8 +7921,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>366</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7048,8 +7960,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>366</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7081,8 +7999,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>366</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7114,8 +8038,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>366</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7147,8 +8077,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>366</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7180,8 +8116,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>366</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7213,8 +8155,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>366</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7246,8 +8194,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>366</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7279,8 +8233,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>366</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7309,15 +8269,23 @@
         <v>76607.66942328999</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>366</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>1.06603825136612</v>
+      </c>
+      <c r="M202" t="n">
+        <v>1.002739726027397</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7342,7 +8310,7 @@
         <v>76607.66942328999</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7375,7 +8343,7 @@
         <v>103451.07042329</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7408,7 +8376,7 @@
         <v>100861.46152329</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7441,7 +8409,7 @@
         <v>93581.56102328998</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7474,7 +8442,7 @@
         <v>93670.56102328998</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7507,7 +8475,7 @@
         <v>94090.56102328998</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7540,7 +8508,7 @@
         <v>82439.53392328997</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7573,7 +8541,7 @@
         <v>84489.59932328998</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7606,7 +8574,7 @@
         <v>84489.59932328998</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7639,7 +8607,7 @@
         <v>74691.84272328997</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7672,7 +8640,7 @@
         <v>71582.92162328996</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7705,7 +8673,7 @@
         <v>70168.72172328996</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7738,7 +8706,7 @@
         <v>78235.39542328996</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7771,7 +8739,7 @@
         <v>75967.91882328996</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7804,7 +8772,7 @@
         <v>75967.91882328996</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7837,7 +8805,7 @@
         <v>75967.91882328996</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>

--- a/BackTest/2019-11-18 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-18 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M218"/>
+  <dimension ref="A1:L218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>345</v>
       </c>
       <c r="G2" t="n">
-        <v>11317.7697</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>278.7454</v>
       </c>
       <c r="G3" t="n">
-        <v>11317.7697</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="I3" t="n">
         <v>365</v>
       </c>
-      <c r="J3" t="n">
-        <v>365</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>2508.7333</v>
       </c>
       <c r="G4" t="n">
-        <v>11317.7697</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="I4" t="n">
         <v>365</v>
       </c>
-      <c r="J4" t="n">
-        <v>365</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>650</v>
       </c>
       <c r="G5" t="n">
-        <v>11317.7697</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="I5" t="n">
         <v>365</v>
       </c>
-      <c r="J5" t="n">
-        <v>365</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +583,19 @@
         <v>1700</v>
       </c>
       <c r="G6" t="n">
-        <v>11317.7697</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="I6" t="n">
         <v>365</v>
       </c>
-      <c r="J6" t="n">
-        <v>365</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +617,23 @@
         <v>400</v>
       </c>
       <c r="G7" t="n">
-        <v>11317.7697</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="I7" t="n">
         <v>365</v>
       </c>
-      <c r="J7" t="n">
-        <v>365</v>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,26 +655,23 @@
         <v>1450</v>
       </c>
       <c r="G8" t="n">
-        <v>11317.7697</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="I8" t="n">
         <v>365</v>
       </c>
-      <c r="J8" t="n">
-        <v>365</v>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,22 +693,19 @@
         <v>254.0519</v>
       </c>
       <c r="G9" t="n">
-        <v>11317.7697</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="I9" t="n">
         <v>365</v>
       </c>
-      <c r="J9" t="n">
-        <v>365</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -756,26 +727,23 @@
         <v>275</v>
       </c>
       <c r="G10" t="n">
-        <v>11592.7697</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="I10" t="n">
         <v>365</v>
       </c>
-      <c r="J10" t="n">
-        <v>365</v>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -797,26 +765,23 @@
         <v>52</v>
       </c>
       <c r="G11" t="n">
-        <v>11592.7697</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>366</v>
       </c>
       <c r="I11" t="n">
-        <v>366</v>
-      </c>
-      <c r="J11" t="n">
         <v>365</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -838,22 +803,19 @@
         <v>101</v>
       </c>
       <c r="G12" t="n">
-        <v>11592.7697</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>366</v>
       </c>
       <c r="I12" t="n">
         <v>366</v>
       </c>
-      <c r="J12" t="n">
-        <v>366</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -875,26 +837,23 @@
         <v>370</v>
       </c>
       <c r="G13" t="n">
-        <v>11962.7697</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>366</v>
       </c>
       <c r="I13" t="n">
         <v>366</v>
       </c>
-      <c r="J13" t="n">
-        <v>366</v>
-      </c>
-      <c r="K13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -916,26 +875,23 @@
         <v>50</v>
       </c>
       <c r="G14" t="n">
-        <v>11962.7697</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>368</v>
       </c>
       <c r="I14" t="n">
-        <v>368</v>
-      </c>
-      <c r="J14" t="n">
-        <v>366</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>366</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -957,24 +913,23 @@
         <v>420</v>
       </c>
       <c r="G15" t="n">
-        <v>12382.7697</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>366</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>368</v>
+      </c>
+      <c r="I15" t="n">
+        <v>366</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -996,24 +951,23 @@
         <v>470</v>
       </c>
       <c r="G16" t="n">
-        <v>12382.7697</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>366</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>369</v>
+      </c>
+      <c r="I16" t="n">
+        <v>366</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1035,24 +989,23 @@
         <v>1379.6389</v>
       </c>
       <c r="G17" t="n">
-        <v>11003.1308</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>366</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>369</v>
+      </c>
+      <c r="I17" t="n">
+        <v>366</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1074,24 +1027,23 @@
         <v>95.7081</v>
       </c>
       <c r="G18" t="n">
-        <v>11098.8389</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>366</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>366</v>
+      </c>
+      <c r="I18" t="n">
+        <v>366</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1113,24 +1065,23 @@
         <v>170.7076</v>
       </c>
       <c r="G19" t="n">
-        <v>11269.5465</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>366</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>368</v>
+      </c>
+      <c r="I19" t="n">
+        <v>366</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1152,24 +1103,23 @@
         <v>268</v>
       </c>
       <c r="G20" t="n">
-        <v>11001.5465</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>366</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>369</v>
+      </c>
+      <c r="I20" t="n">
+        <v>366</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1191,24 +1141,23 @@
         <v>2620</v>
       </c>
       <c r="G21" t="n">
-        <v>11001.5465</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>366</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>368</v>
+      </c>
+      <c r="I21" t="n">
+        <v>366</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1230,24 +1179,23 @@
         <v>495</v>
       </c>
       <c r="G22" t="n">
-        <v>11001.5465</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>366</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>368</v>
+      </c>
+      <c r="I22" t="n">
+        <v>366</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1269,26 +1217,23 @@
         <v>1165</v>
       </c>
       <c r="G23" t="n">
-        <v>11001.5465</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>368</v>
       </c>
       <c r="I23" t="n">
-        <v>368</v>
-      </c>
-      <c r="J23" t="n">
-        <v>366</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>366</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1310,26 +1255,23 @@
         <v>798</v>
       </c>
       <c r="G24" t="n">
-        <v>11001.5465</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>368</v>
       </c>
       <c r="I24" t="n">
-        <v>368</v>
-      </c>
-      <c r="J24" t="n">
-        <v>366</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>366</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1351,26 +1293,23 @@
         <v>1180</v>
       </c>
       <c r="G25" t="n">
-        <v>11001.5465</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>368</v>
       </c>
       <c r="I25" t="n">
-        <v>368</v>
-      </c>
-      <c r="J25" t="n">
-        <v>366</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>366</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1392,26 +1331,23 @@
         <v>524</v>
       </c>
       <c r="G26" t="n">
-        <v>11001.5465</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>368</v>
       </c>
       <c r="I26" t="n">
-        <v>368</v>
-      </c>
-      <c r="J26" t="n">
-        <v>366</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>366</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1433,26 +1369,23 @@
         <v>2002.6958</v>
       </c>
       <c r="G27" t="n">
-        <v>11001.5465</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>368</v>
       </c>
       <c r="I27" t="n">
-        <v>368</v>
-      </c>
-      <c r="J27" t="n">
-        <v>366</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>366</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1474,24 +1407,23 @@
         <v>150</v>
       </c>
       <c r="G28" t="n">
-        <v>11001.5465</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>366</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>368</v>
+      </c>
+      <c r="I28" t="n">
+        <v>366</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1513,24 +1445,23 @@
         <v>1833.614</v>
       </c>
       <c r="G29" t="n">
-        <v>11001.5465</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>366</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>368</v>
+      </c>
+      <c r="I29" t="n">
+        <v>366</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1552,26 +1483,23 @@
         <v>830.3053</v>
       </c>
       <c r="G30" t="n">
-        <v>11001.5465</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>368</v>
       </c>
       <c r="I30" t="n">
-        <v>368</v>
-      </c>
-      <c r="J30" t="n">
-        <v>366</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>366</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1593,26 +1521,23 @@
         <v>220</v>
       </c>
       <c r="G31" t="n">
-        <v>11221.5465</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>368</v>
       </c>
       <c r="I31" t="n">
-        <v>368</v>
-      </c>
-      <c r="J31" t="n">
-        <v>366</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>366</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1634,26 +1559,23 @@
         <v>1922</v>
       </c>
       <c r="G32" t="n">
-        <v>11221.5465</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>369</v>
       </c>
       <c r="I32" t="n">
-        <v>369</v>
-      </c>
-      <c r="J32" t="n">
-        <v>366</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>366</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1675,24 +1597,23 @@
         <v>925.1208</v>
       </c>
       <c r="G33" t="n">
-        <v>11221.5465</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>366</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>369</v>
+      </c>
+      <c r="I33" t="n">
+        <v>366</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1714,24 +1635,23 @@
         <v>571</v>
       </c>
       <c r="G34" t="n">
-        <v>11792.5465</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>366</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>369</v>
+      </c>
+      <c r="I34" t="n">
+        <v>366</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1753,24 +1673,23 @@
         <v>50</v>
       </c>
       <c r="G35" t="n">
-        <v>11742.5465</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>366</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="I35" t="n">
+        <v>366</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1792,24 +1711,23 @@
         <v>740</v>
       </c>
       <c r="G36" t="n">
-        <v>12482.5465</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>366</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>371</v>
+      </c>
+      <c r="I36" t="n">
+        <v>366</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1831,24 +1749,23 @@
         <v>7670.9511</v>
       </c>
       <c r="G37" t="n">
-        <v>4811.595399999997</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>366</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>374</v>
+      </c>
+      <c r="I37" t="n">
+        <v>366</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1870,24 +1787,23 @@
         <v>316.8434</v>
       </c>
       <c r="G38" t="n">
-        <v>5128.438799999996</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>366</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>371</v>
+      </c>
+      <c r="I38" t="n">
+        <v>366</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1909,24 +1825,23 @@
         <v>341.0594</v>
       </c>
       <c r="G39" t="n">
-        <v>5128.438799999996</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>366</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="I39" t="n">
+        <v>366</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1948,24 +1863,23 @@
         <v>1007.0816</v>
       </c>
       <c r="G40" t="n">
-        <v>4121.357199999997</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>366</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="I40" t="n">
+        <v>366</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1987,24 +1901,23 @@
         <v>1508</v>
       </c>
       <c r="G41" t="n">
-        <v>4121.357199999997</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>366</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>371</v>
+      </c>
+      <c r="I41" t="n">
+        <v>366</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2026,24 +1939,23 @@
         <v>220</v>
       </c>
       <c r="G42" t="n">
-        <v>4121.357199999997</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>366</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>371</v>
+      </c>
+      <c r="I42" t="n">
+        <v>366</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2065,24 +1977,23 @@
         <v>220</v>
       </c>
       <c r="G43" t="n">
-        <v>4121.357199999997</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>366</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>371</v>
+      </c>
+      <c r="I43" t="n">
+        <v>366</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2104,24 +2015,23 @@
         <v>3421.8348</v>
       </c>
       <c r="G44" t="n">
-        <v>699.5223999999967</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>366</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>371</v>
+      </c>
+      <c r="I44" t="n">
+        <v>366</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2143,24 +2053,23 @@
         <v>1.4</v>
       </c>
       <c r="G45" t="n">
-        <v>700.9223999999966</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>366</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>369</v>
+      </c>
+      <c r="I45" t="n">
+        <v>366</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2182,24 +2091,23 @@
         <v>770</v>
       </c>
       <c r="G46" t="n">
-        <v>1470.922399999997</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>366</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>371</v>
+      </c>
+      <c r="I46" t="n">
+        <v>366</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2221,24 +2129,23 @@
         <v>130</v>
       </c>
       <c r="G47" t="n">
-        <v>1600.922399999997</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>366</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="I47" t="n">
+        <v>366</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2260,24 +2167,23 @@
         <v>263.0845</v>
       </c>
       <c r="G48" t="n">
-        <v>1337.837899999997</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>366</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>373</v>
+      </c>
+      <c r="I48" t="n">
+        <v>366</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2299,24 +2205,23 @@
         <v>1569.419</v>
       </c>
       <c r="G49" t="n">
-        <v>-231.5811000000033</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>366</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="I49" t="n">
+        <v>366</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2338,24 +2243,21 @@
         <v>329.99</v>
       </c>
       <c r="G50" t="n">
-        <v>-231.5811000000033</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>366</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>366</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2377,24 +2279,23 @@
         <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>-229.5811000000033</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>366</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>371</v>
+      </c>
+      <c r="I51" t="n">
+        <v>366</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2416,24 +2317,23 @@
         <v>853</v>
       </c>
       <c r="G52" t="n">
-        <v>-1082.581100000003</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>366</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="I52" t="n">
+        <v>366</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2455,24 +2355,23 @@
         <v>6.7204301</v>
       </c>
       <c r="G53" t="n">
-        <v>-1075.860669900003</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>366</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>370</v>
+      </c>
+      <c r="I53" t="n">
+        <v>366</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2494,24 +2393,23 @@
         <v>6.72</v>
       </c>
       <c r="G54" t="n">
-        <v>-1082.580669900003</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>366</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="I54" t="n">
+        <v>366</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2533,24 +2431,23 @@
         <v>1.4</v>
       </c>
       <c r="G55" t="n">
-        <v>-1081.180669900003</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>366</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>370</v>
+      </c>
+      <c r="I55" t="n">
+        <v>366</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2572,24 +2469,23 @@
         <v>2743.8998</v>
       </c>
       <c r="G56" t="n">
-        <v>1662.719130099997</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>366</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="I56" t="n">
+        <v>366</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2611,24 +2507,21 @@
         <v>8147.8319</v>
       </c>
       <c r="G57" t="n">
-        <v>9810.551030099998</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>366</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>366</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2650,24 +2543,21 @@
         <v>3636.2315</v>
       </c>
       <c r="G58" t="n">
-        <v>9810.551030099998</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>366</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>366</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2689,24 +2579,21 @@
         <v>7.8948</v>
       </c>
       <c r="G59" t="n">
-        <v>9802.656230099998</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>366</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>366</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2728,24 +2615,21 @@
         <v>1.4</v>
       </c>
       <c r="G60" t="n">
-        <v>9804.056230099997</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>366</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>366</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2767,24 +2651,21 @@
         <v>1883.3258</v>
       </c>
       <c r="G61" t="n">
-        <v>7920.730430099997</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>366</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>366</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2806,24 +2687,21 @@
         <v>243.9935</v>
       </c>
       <c r="G62" t="n">
-        <v>8164.723930099996</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>366</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>366</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2845,24 +2723,21 @@
         <v>1.4</v>
       </c>
       <c r="G63" t="n">
-        <v>8166.123930099996</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>366</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>366</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2884,24 +2759,21 @@
         <v>1402.0526</v>
       </c>
       <c r="G64" t="n">
-        <v>8166.123930099996</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>366</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>366</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2923,24 +2795,21 @@
         <v>504.6205</v>
       </c>
       <c r="G65" t="n">
-        <v>8166.123930099996</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>366</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>366</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2962,24 +2831,21 @@
         <v>1836.6837</v>
       </c>
       <c r="G66" t="n">
-        <v>10002.8076301</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>366</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>366</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3001,24 +2867,21 @@
         <v>860</v>
       </c>
       <c r="G67" t="n">
-        <v>10002.8076301</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>366</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>366</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3040,24 +2903,21 @@
         <v>1010</v>
       </c>
       <c r="G68" t="n">
-        <v>10002.8076301</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>366</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>366</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3079,24 +2939,21 @@
         <v>11765.3933</v>
       </c>
       <c r="G69" t="n">
-        <v>21768.2009301</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>366</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>366</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3118,24 +2975,21 @@
         <v>90</v>
       </c>
       <c r="G70" t="n">
-        <v>21768.2009301</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>366</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>366</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3157,24 +3011,21 @@
         <v>204</v>
       </c>
       <c r="G71" t="n">
-        <v>21972.2009301</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>366</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>366</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3196,24 +3047,21 @@
         <v>4840.6341</v>
       </c>
       <c r="G72" t="n">
-        <v>26812.8350301</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>366</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>366</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3235,24 +3083,21 @@
         <v>5348.2509</v>
       </c>
       <c r="G73" t="n">
-        <v>21464.5841301</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>366</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>366</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3274,24 +3119,21 @@
         <v>7957.47321324</v>
       </c>
       <c r="G74" t="n">
-        <v>21464.5841301</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>366</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>366</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3313,24 +3155,21 @@
         <v>7055.41288676</v>
       </c>
       <c r="G75" t="n">
-        <v>28519.99701686</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>366</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>366</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3352,24 +3191,21 @@
         <v>4897</v>
       </c>
       <c r="G76" t="n">
-        <v>23622.99701686</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>366</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>366</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3391,24 +3227,21 @@
         <v>3126.0734</v>
       </c>
       <c r="G77" t="n">
-        <v>23622.99701686</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>366</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>366</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3430,24 +3263,21 @@
         <v>4435.23499357</v>
       </c>
       <c r="G78" t="n">
-        <v>23622.99701686</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>366</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>366</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3469,24 +3299,21 @@
         <v>50</v>
       </c>
       <c r="G79" t="n">
-        <v>23672.99701686</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>366</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>366</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3508,24 +3335,21 @@
         <v>28</v>
       </c>
       <c r="G80" t="n">
-        <v>23644.99701686</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>366</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>366</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3547,24 +3371,21 @@
         <v>245.1417</v>
       </c>
       <c r="G81" t="n">
-        <v>23890.13871686</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>366</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>366</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3586,24 +3407,21 @@
         <v>2913.9994</v>
       </c>
       <c r="G82" t="n">
-        <v>26804.13811686</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>366</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>366</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3625,24 +3443,21 @@
         <v>212.4112</v>
       </c>
       <c r="G83" t="n">
-        <v>26591.72691686</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>366</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>366</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3664,24 +3479,21 @@
         <v>466</v>
       </c>
       <c r="G84" t="n">
-        <v>27057.72691686</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>366</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>366</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3703,24 +3515,21 @@
         <v>2166.4963</v>
       </c>
       <c r="G85" t="n">
-        <v>29224.22321686</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>366</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>366</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3742,24 +3551,21 @@
         <v>2265.36090643</v>
       </c>
       <c r="G86" t="n">
-        <v>29224.22321686</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>366</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>366</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3781,24 +3587,21 @@
         <v>2331.28099357</v>
       </c>
       <c r="G87" t="n">
-        <v>29224.22321686</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>366</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>366</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3820,24 +3623,21 @@
         <v>2596.4657</v>
       </c>
       <c r="G88" t="n">
-        <v>29224.22321686</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>366</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>366</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3859,24 +3659,21 @@
         <v>391.6872</v>
       </c>
       <c r="G89" t="n">
-        <v>28832.53601686</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>366</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>366</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3898,24 +3695,21 @@
         <v>81</v>
       </c>
       <c r="G90" t="n">
-        <v>28832.53601686</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>366</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>366</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3937,24 +3731,21 @@
         <v>1142.7117</v>
       </c>
       <c r="G91" t="n">
-        <v>27689.82431686</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>366</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>366</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3976,24 +3767,21 @@
         <v>208</v>
       </c>
       <c r="G92" t="n">
-        <v>27897.82431686</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>366</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>366</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4015,24 +3803,21 @@
         <v>2425.3249</v>
       </c>
       <c r="G93" t="n">
-        <v>25472.49941686</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>366</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>366</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4054,24 +3839,21 @@
         <v>4548.2854</v>
       </c>
       <c r="G94" t="n">
-        <v>30020.78481686</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>366</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>366</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4093,24 +3875,21 @@
         <v>548.7564</v>
       </c>
       <c r="G95" t="n">
-        <v>30569.54121686</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>366</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>366</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4132,24 +3911,21 @@
         <v>1580.9147</v>
       </c>
       <c r="G96" t="n">
-        <v>32150.45591686</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>366</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>366</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4171,24 +3947,21 @@
         <v>7694.0787</v>
       </c>
       <c r="G97" t="n">
-        <v>24456.37721686</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>366</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>366</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4210,24 +3983,21 @@
         <v>2369.2982</v>
       </c>
       <c r="G98" t="n">
-        <v>24456.37721686</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>366</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>366</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4249,24 +4019,21 @@
         <v>2286.8328</v>
       </c>
       <c r="G99" t="n">
-        <v>24456.37721686</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>366</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>366</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4288,24 +4055,21 @@
         <v>932.4071</v>
       </c>
       <c r="G100" t="n">
-        <v>25388.78431686</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>366</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>366</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4327,24 +4091,21 @@
         <v>1031.605</v>
       </c>
       <c r="G101" t="n">
-        <v>24357.17931686</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>366</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>366</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4366,24 +4127,21 @@
         <v>1874.5248</v>
       </c>
       <c r="G102" t="n">
-        <v>24357.17931686</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>366</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>366</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4405,24 +4163,21 @@
         <v>2913.9994</v>
       </c>
       <c r="G103" t="n">
-        <v>21443.17991686</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>366</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>366</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4444,24 +4199,21 @@
         <v>142.9842</v>
       </c>
       <c r="G104" t="n">
-        <v>21586.16411686</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>366</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>366</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4483,24 +4235,21 @@
         <v>3032.9</v>
       </c>
       <c r="G105" t="n">
-        <v>18553.26411685999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>366</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>366</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4522,24 +4271,21 @@
         <v>2959</v>
       </c>
       <c r="G106" t="n">
-        <v>18553.26411685999</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>366</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>366</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4561,24 +4307,21 @@
         <v>923</v>
       </c>
       <c r="G107" t="n">
-        <v>19476.26411685999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>366</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>366</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4600,24 +4343,21 @@
         <v>2030.2483</v>
       </c>
       <c r="G108" t="n">
-        <v>21506.51241685999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>366</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>366</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4639,24 +4379,21 @@
         <v>2447.6139</v>
       </c>
       <c r="G109" t="n">
-        <v>23954.12631685999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>366</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>366</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4678,24 +4415,21 @@
         <v>8772.56800643</v>
       </c>
       <c r="G110" t="n">
-        <v>32726.69432328999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>366</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>366</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4717,24 +4451,21 @@
         <v>2815.6225</v>
       </c>
       <c r="G111" t="n">
-        <v>29911.07182328999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>366</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>366</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4756,24 +4487,21 @@
         <v>2484.0378</v>
       </c>
       <c r="G112" t="n">
-        <v>29911.07182328999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>366</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>366</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4795,24 +4523,21 @@
         <v>4075.0191803</v>
       </c>
       <c r="G113" t="n">
-        <v>29911.07182328999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>366</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>366</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4834,24 +4559,21 @@
         <v>200</v>
       </c>
       <c r="G114" t="n">
-        <v>30111.07182328999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>366</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>366</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4873,24 +4595,21 @@
         <v>2641.105</v>
       </c>
       <c r="G115" t="n">
-        <v>30111.07182328999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>366</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>366</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4912,24 +4631,21 @@
         <v>737.9835</v>
       </c>
       <c r="G116" t="n">
-        <v>30111.07182328999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>366</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>366</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4951,24 +4667,21 @@
         <v>497</v>
       </c>
       <c r="G117" t="n">
-        <v>30111.07182328999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>366</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>366</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4990,24 +4703,21 @@
         <v>1789.7048</v>
       </c>
       <c r="G118" t="n">
-        <v>31900.77662328999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>366</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>366</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5029,24 +4739,21 @@
         <v>1294</v>
       </c>
       <c r="G119" t="n">
-        <v>30606.77662328999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>366</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>366</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5068,24 +4775,21 @@
         <v>1435.5346</v>
       </c>
       <c r="G120" t="n">
-        <v>29171.24202328999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>366</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>366</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5107,24 +4811,21 @@
         <v>745</v>
       </c>
       <c r="G121" t="n">
-        <v>29916.24202328999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>366</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>366</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5146,24 +4847,21 @@
         <v>81.51730000000001</v>
       </c>
       <c r="G122" t="n">
-        <v>29916.24202328999</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>366</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>366</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5185,24 +4883,21 @@
         <v>624.8887999999999</v>
       </c>
       <c r="G123" t="n">
-        <v>29916.24202328999</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>366</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>366</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5224,24 +4919,21 @@
         <v>2156.9927</v>
       </c>
       <c r="G124" t="n">
-        <v>29916.24202328999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>366</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>366</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5263,24 +4955,21 @@
         <v>10259.3689</v>
       </c>
       <c r="G125" t="n">
-        <v>40175.61092328999</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>366</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>366</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5302,24 +4991,21 @@
         <v>1001.8739</v>
       </c>
       <c r="G126" t="n">
-        <v>41177.48482328999</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>366</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>366</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5341,24 +5027,21 @@
         <v>43.3455</v>
       </c>
       <c r="G127" t="n">
-        <v>41134.13932328999</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>366</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>366</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5380,24 +5063,21 @@
         <v>673.8638</v>
       </c>
       <c r="G128" t="n">
-        <v>41134.13932328999</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>366</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>366</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5419,24 +5099,21 @@
         <v>758</v>
       </c>
       <c r="G129" t="n">
-        <v>41134.13932328999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>366</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>366</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5458,24 +5135,21 @@
         <v>201.5893</v>
       </c>
       <c r="G130" t="n">
-        <v>40932.55002328999</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>366</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>366</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5497,24 +5171,21 @@
         <v>109.5893</v>
       </c>
       <c r="G131" t="n">
-        <v>41042.13932328999</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>366</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>366</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5536,24 +5207,21 @@
         <v>1467.6168</v>
       </c>
       <c r="G132" t="n">
-        <v>41042.13932328999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>366</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>366</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5575,24 +5243,21 @@
         <v>5307.3045</v>
       </c>
       <c r="G133" t="n">
-        <v>35734.83482328999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>366</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>366</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5614,24 +5279,21 @@
         <v>510.3189</v>
       </c>
       <c r="G134" t="n">
-        <v>35224.51592328999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>366</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>366</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5653,24 +5315,21 @@
         <v>2131.8143</v>
       </c>
       <c r="G135" t="n">
-        <v>33092.70162328999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>366</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>366</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5692,24 +5351,21 @@
         <v>3338.4503</v>
       </c>
       <c r="G136" t="n">
-        <v>36431.15192328999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>366</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>366</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5731,24 +5387,21 @@
         <v>127</v>
       </c>
       <c r="G137" t="n">
-        <v>36304.15192328999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>366</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>366</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5770,24 +5423,21 @@
         <v>106.2962</v>
       </c>
       <c r="G138" t="n">
-        <v>36197.85572328999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>366</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>366</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5809,24 +5459,21 @@
         <v>422</v>
       </c>
       <c r="G139" t="n">
-        <v>36619.85572328999</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>366</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>366</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5848,24 +5495,21 @@
         <v>3155.348</v>
       </c>
       <c r="G140" t="n">
-        <v>39775.20372328999</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>366</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>366</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5887,24 +5531,21 @@
         <v>127.596</v>
       </c>
       <c r="G141" t="n">
-        <v>39647.60772328999</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>366</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>366</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5926,24 +5567,21 @@
         <v>300</v>
       </c>
       <c r="G142" t="n">
-        <v>39647.60772328999</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>366</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>366</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5965,24 +5603,21 @@
         <v>1150</v>
       </c>
       <c r="G143" t="n">
-        <v>38497.60772328999</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>366</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>366</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6004,24 +5639,21 @@
         <v>50</v>
       </c>
       <c r="G144" t="n">
-        <v>38497.60772328999</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>366</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>366</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6043,24 +5675,21 @@
         <v>946</v>
       </c>
       <c r="G145" t="n">
-        <v>39443.60772328999</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>366</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>366</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6082,24 +5711,21 @@
         <v>2624.3795</v>
       </c>
       <c r="G146" t="n">
-        <v>39443.60772328999</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>366</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>366</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6121,24 +5747,21 @@
         <v>145.9212</v>
       </c>
       <c r="G147" t="n">
-        <v>39589.52892328999</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>366</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>366</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6160,24 +5783,21 @@
         <v>16.9979</v>
       </c>
       <c r="G148" t="n">
-        <v>39572.53102328999</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>366</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>366</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6199,24 +5819,21 @@
         <v>1.4</v>
       </c>
       <c r="G149" t="n">
-        <v>39573.93102328999</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>366</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>366</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6238,24 +5855,21 @@
         <v>2000</v>
       </c>
       <c r="G150" t="n">
-        <v>39573.93102328999</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>366</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>366</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6277,24 +5891,21 @@
         <v>1000</v>
       </c>
       <c r="G151" t="n">
-        <v>38573.93102328999</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>366</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>366</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6316,24 +5927,21 @@
         <v>337</v>
       </c>
       <c r="G152" t="n">
-        <v>38573.93102328999</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>366</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>366</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6355,24 +5963,21 @@
         <v>617.4453999999999</v>
       </c>
       <c r="G153" t="n">
-        <v>37956.48562328999</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>366</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>366</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6394,24 +5999,21 @@
         <v>177.0083</v>
       </c>
       <c r="G154" t="n">
-        <v>37956.48562328999</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>366</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>366</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6433,24 +6035,21 @@
         <v>3509.3255</v>
       </c>
       <c r="G155" t="n">
-        <v>34447.16012328999</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>366</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>366</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6472,24 +6071,21 @@
         <v>1.32</v>
       </c>
       <c r="G156" t="n">
-        <v>34448.48012328999</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>366</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>366</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6511,24 +6107,21 @@
         <v>152</v>
       </c>
       <c r="G157" t="n">
-        <v>34296.48012328999</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>366</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>366</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6550,24 +6143,21 @@
         <v>2.0334</v>
       </c>
       <c r="G158" t="n">
-        <v>34298.51352328999</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>366</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>366</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6589,24 +6179,21 @@
         <v>133.5021</v>
       </c>
       <c r="G159" t="n">
-        <v>34165.01142328999</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>366</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>366</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6628,24 +6215,21 @@
         <v>420</v>
       </c>
       <c r="G160" t="n">
-        <v>33745.01142328999</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>366</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>366</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6667,24 +6251,21 @@
         <v>1.32</v>
       </c>
       <c r="G161" t="n">
-        <v>33746.33142328999</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>366</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>366</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6706,24 +6287,21 @@
         <v>255.0533</v>
       </c>
       <c r="G162" t="n">
-        <v>33491.27812328999</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>366</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>366</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6745,24 +6323,21 @@
         <v>759.0162</v>
       </c>
       <c r="G163" t="n">
-        <v>32732.26192329</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>366</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>366</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6784,24 +6359,21 @@
         <v>1012.9999</v>
       </c>
       <c r="G164" t="n">
-        <v>32732.26192329</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>366</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>366</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6823,24 +6395,21 @@
         <v>155</v>
       </c>
       <c r="G165" t="n">
-        <v>32732.26192329</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>366</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>366</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6862,24 +6431,21 @@
         <v>601.5001999999999</v>
       </c>
       <c r="G166" t="n">
-        <v>32130.76172329</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>366</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>366</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6901,24 +6467,21 @@
         <v>135</v>
       </c>
       <c r="G167" t="n">
-        <v>32130.76172329</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>366</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>366</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6940,24 +6503,21 @@
         <v>632.3253999999999</v>
       </c>
       <c r="G168" t="n">
-        <v>32130.76172329</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>366</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>366</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6979,24 +6539,21 @@
         <v>4</v>
       </c>
       <c r="G169" t="n">
-        <v>32126.76172329</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>366</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>366</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7018,24 +6575,21 @@
         <v>3944.6819</v>
       </c>
       <c r="G170" t="n">
-        <v>36071.44362329</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>366</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>366</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7057,24 +6611,21 @@
         <v>185.977</v>
       </c>
       <c r="G171" t="n">
-        <v>35885.46662329</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>366</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>366</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7096,24 +6647,21 @@
         <v>1115.1911</v>
       </c>
       <c r="G172" t="n">
-        <v>37000.65772329</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>366</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>366</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7135,24 +6683,21 @@
         <v>450.5513</v>
       </c>
       <c r="G173" t="n">
-        <v>36550.10642329</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>366</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>366</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7174,24 +6719,21 @@
         <v>172.1308</v>
       </c>
       <c r="G174" t="n">
-        <v>36722.23722329</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>366</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>366</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7213,24 +6755,21 @@
         <v>91.8412</v>
       </c>
       <c r="G175" t="n">
-        <v>36630.39602329</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>366</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>366</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7252,24 +6791,21 @@
         <v>127</v>
       </c>
       <c r="G176" t="n">
-        <v>36757.39602329</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>366</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>366</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7291,24 +6827,21 @@
         <v>23.9123</v>
       </c>
       <c r="G177" t="n">
-        <v>36757.39602329</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>366</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>366</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7330,24 +6863,21 @@
         <v>2119.0943</v>
       </c>
       <c r="G178" t="n">
-        <v>38876.49032329</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>366</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>366</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7369,24 +6899,21 @@
         <v>87</v>
       </c>
       <c r="G179" t="n">
-        <v>38789.49032329</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>366</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>366</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7408,24 +6935,21 @@
         <v>858.1083</v>
       </c>
       <c r="G180" t="n">
-        <v>37931.38202329</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>366</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>366</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7447,24 +6971,21 @@
         <v>9195.921399999999</v>
       </c>
       <c r="G181" t="n">
-        <v>47127.30342329</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>366</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>366</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7486,24 +7007,21 @@
         <v>428.0915</v>
       </c>
       <c r="G182" t="n">
-        <v>47127.30342329</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>366</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>366</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7525,24 +7043,21 @@
         <v>1478.7089</v>
       </c>
       <c r="G183" t="n">
-        <v>48606.01232328999</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>366</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>366</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7564,24 +7079,21 @@
         <v>1890.4717</v>
       </c>
       <c r="G184" t="n">
-        <v>46715.54062328999</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>366</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>366</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7603,24 +7115,21 @@
         <v>15</v>
       </c>
       <c r="G185" t="n">
-        <v>46730.54062328999</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>366</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>366</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7642,24 +7151,21 @@
         <v>15</v>
       </c>
       <c r="G186" t="n">
-        <v>46730.54062328999</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>366</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>366</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7681,24 +7187,21 @@
         <v>133.3117</v>
       </c>
       <c r="G187" t="n">
-        <v>46863.85232328999</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>366</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>366</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7720,24 +7223,21 @@
         <v>166.8526</v>
       </c>
       <c r="G188" t="n">
-        <v>46696.99972328999</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>366</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>366</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7759,24 +7259,21 @@
         <v>133.3117</v>
       </c>
       <c r="G189" t="n">
-        <v>46696.99972328999</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>366</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>366</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7798,24 +7295,21 @@
         <v>12317.8249</v>
       </c>
       <c r="G190" t="n">
-        <v>59014.82462328999</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>366</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>366</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7837,24 +7331,21 @@
         <v>444</v>
       </c>
       <c r="G191" t="n">
-        <v>58570.82462328999</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>366</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>366</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7876,24 +7367,21 @@
         <v>7.1982</v>
       </c>
       <c r="G192" t="n">
-        <v>58578.02282328999</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>366</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>366</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7915,24 +7403,21 @@
         <v>406.7107</v>
       </c>
       <c r="G193" t="n">
-        <v>58984.73352328999</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>366</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>366</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7954,24 +7439,21 @@
         <v>46.0712</v>
       </c>
       <c r="G194" t="n">
-        <v>58984.73352328999</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>366</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>366</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7993,24 +7475,21 @@
         <v>161.9678</v>
       </c>
       <c r="G195" t="n">
-        <v>58984.73352328999</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>366</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>366</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8032,24 +7511,21 @@
         <v>7995.9508</v>
       </c>
       <c r="G196" t="n">
-        <v>66980.68432329</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>366</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>366</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8071,24 +7547,21 @@
         <v>2028.4389</v>
       </c>
       <c r="G197" t="n">
-        <v>66980.68432329</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>366</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>366</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8110,24 +7583,21 @@
         <v>3588.6601</v>
       </c>
       <c r="G198" t="n">
-        <v>70569.34442328999</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>366</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>366</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8149,24 +7619,21 @@
         <v>2127.5781</v>
       </c>
       <c r="G199" t="n">
-        <v>68441.76632328999</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>366</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>366</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8188,24 +7655,21 @@
         <v>6318.4533</v>
       </c>
       <c r="G200" t="n">
-        <v>74760.21962328999</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>366</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>366</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8227,24 +7691,21 @@
         <v>108.9948</v>
       </c>
       <c r="G201" t="n">
-        <v>74651.22482328999</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>366</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>366</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8266,26 +7727,21 @@
         <v>1956.4446</v>
       </c>
       <c r="G202" t="n">
-        <v>76607.66942328999</v>
-      </c>
-      <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>366</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1.06603825136612</v>
-      </c>
-      <c r="M202" t="n">
-        <v>1.002739726027397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>366</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8307,18 +7763,21 @@
         <v>5652.7369</v>
       </c>
       <c r="G203" t="n">
-        <v>76607.66942328999</v>
-      </c>
-      <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>366</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8340,18 +7799,21 @@
         <v>26843.401</v>
       </c>
       <c r="G204" t="n">
-        <v>103451.07042329</v>
-      </c>
-      <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>366</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8373,18 +7835,21 @@
         <v>2589.6089</v>
       </c>
       <c r="G205" t="n">
-        <v>100861.46152329</v>
-      </c>
-      <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>366</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8406,18 +7871,21 @@
         <v>7279.9005</v>
       </c>
       <c r="G206" t="n">
-        <v>93581.56102328998</v>
-      </c>
-      <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>366</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8439,18 +7907,21 @@
         <v>89</v>
       </c>
       <c r="G207" t="n">
-        <v>93670.56102328998</v>
-      </c>
-      <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>366</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8472,18 +7943,21 @@
         <v>420</v>
       </c>
       <c r="G208" t="n">
-        <v>94090.56102328998</v>
-      </c>
-      <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>366</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8505,18 +7979,23 @@
         <v>11651.0271</v>
       </c>
       <c r="G209" t="n">
-        <v>82439.53392328997</v>
-      </c>
-      <c r="H209" t="n">
         <v>2</v>
       </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>366</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1.071502732240437</v>
+      </c>
       <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>1.002739726027397</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8538,18 +8017,15 @@
         <v>2050.0654</v>
       </c>
       <c r="G210" t="n">
-        <v>84489.59932328998</v>
-      </c>
-      <c r="H210" t="n">
         <v>2</v>
       </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8571,18 +8047,15 @@
         <v>2430.6989</v>
       </c>
       <c r="G211" t="n">
-        <v>84489.59932328998</v>
-      </c>
-      <c r="H211" t="n">
         <v>2</v>
       </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8604,18 +8077,15 @@
         <v>9797.756600000001</v>
       </c>
       <c r="G212" t="n">
-        <v>74691.84272328997</v>
-      </c>
-      <c r="H212" t="n">
         <v>2</v>
       </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8637,18 +8107,15 @@
         <v>3108.9211</v>
       </c>
       <c r="G213" t="n">
-        <v>71582.92162328996</v>
-      </c>
-      <c r="H213" t="n">
         <v>2</v>
       </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8670,18 +8137,15 @@
         <v>1414.1999</v>
       </c>
       <c r="G214" t="n">
-        <v>70168.72172328996</v>
-      </c>
-      <c r="H214" t="n">
         <v>2</v>
       </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8703,18 +8167,15 @@
         <v>8066.6737</v>
       </c>
       <c r="G215" t="n">
-        <v>78235.39542328996</v>
-      </c>
-      <c r="H215" t="n">
         <v>2</v>
       </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8736,18 +8197,15 @@
         <v>2267.4766</v>
       </c>
       <c r="G216" t="n">
-        <v>75967.91882328996</v>
-      </c>
-      <c r="H216" t="n">
         <v>2</v>
       </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8769,18 +8227,15 @@
         <v>4254.7892</v>
       </c>
       <c r="G217" t="n">
-        <v>75967.91882328996</v>
-      </c>
-      <c r="H217" t="n">
         <v>2</v>
       </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8802,18 +8257,15 @@
         <v>1611.4633</v>
       </c>
       <c r="G218" t="n">
-        <v>75967.91882328996</v>
-      </c>
-      <c r="H218" t="n">
         <v>2</v>
       </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
